--- a/Worksheet_Processing/OnCall_Tally.xlsx
+++ b/Worksheet_Processing/OnCall_Tally.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -1097,24 +1097,24 @@
   </sheetPr>
   <dimension ref="A1:AN176"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="5" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B85" activeCellId="0" sqref="B85"/>
+      <selection pane="bottomLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.37244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="24" min="3" style="1" width="3.64285714285714"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="3" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="4" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="32" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="24" min="3" style="1" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="3" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="4" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="32" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7227,9 +7227,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9469,7 +9469,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11672,7 +11672,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13865,14 +13865,14 @@
   </sheetPr>
   <dimension ref="A1:Z137"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B85" activeCellId="0" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="26" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="26" min="1" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Worksheet_Processing/OnCall_Tally.xlsx
+++ b/Worksheet_Processing/OnCall_Tally.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="25">
   <si>
     <t>St. John Paul II C.S.S.</t>
   </si>
@@ -62,28 +62,19 @@
     <t>RA</t>
   </si>
   <si>
-    <t>RAG</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
     <t>LC</t>
   </si>
   <si>
     <t>CC</t>
   </si>
   <si>
-    <t>SC</t>
+    <t>Period 2</t>
   </si>
   <si>
-    <t>NC</t>
+    <t>RAG</t>
   </si>
   <si>
-    <t>MC</t>
-  </si>
-  <si>
-    <t>Period 2</t>
+    <t>AB</t>
   </si>
   <si>
     <t>Period 3a</t>
@@ -405,6 +396,13 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
+      <right style="thick"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
       <right/>
       <top style="thin"/>
       <bottom style="thin"/>
@@ -421,13 +419,6 @@
       <left style="thin"/>
       <right/>
       <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thick"/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -700,6 +691,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -708,19 +711,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -744,7 +747,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -756,7 +759,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -768,7 +771,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -780,24 +783,12 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1095,26 +1086,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN176"/>
+  <dimension ref="A1:AN188"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="B93" activeCellId="0" sqref="B93:H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.37244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
     <col collapsed="false" hidden="false" max="24" min="3" style="1" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="3" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="4" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="32" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="3" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="4" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="32" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1491,14 +1482,16 @@
       <c r="A9" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="49" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="0"/>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
-      <c r="G9" s="0"/>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="H9" s="0"/>
       <c r="I9" s="43"/>
       <c r="J9" s="0"/>
@@ -1527,14 +1520,16 @@
       <c r="A10" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="49" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="0"/>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
-      <c r="G10" s="0"/>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="H10" s="0"/>
       <c r="I10" s="43"/>
       <c r="J10" s="0"/>
@@ -1563,16 +1558,12 @@
       <c r="A11" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B11" s="49" t="s">
-        <v>14</v>
-      </c>
+      <c r="B11" s="49"/>
       <c r="C11" s="0"/>
       <c r="D11" s="43"/>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
-      <c r="G11" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="G11" s="0"/>
       <c r="H11" s="0"/>
       <c r="I11" s="43"/>
       <c r="J11" s="0"/>
@@ -1601,16 +1592,12 @@
       <c r="A12" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B12" s="49" t="s">
-        <v>15</v>
-      </c>
+      <c r="B12" s="49"/>
       <c r="C12" s="0"/>
       <c r="D12" s="43"/>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
-      <c r="G12" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="G12" s="0"/>
       <c r="H12" s="0"/>
       <c r="I12" s="43"/>
       <c r="J12" s="0"/>
@@ -1639,9 +1626,7 @@
       <c r="A13" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B13" s="50" t="s">
-        <v>16</v>
-      </c>
+      <c r="B13" s="50"/>
       <c r="C13" s="0"/>
       <c r="D13" s="43"/>
       <c r="E13" s="0"/>
@@ -1675,9 +1660,7 @@
       <c r="A14" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B14" s="50" t="s">
-        <v>17</v>
-      </c>
+      <c r="B14" s="50"/>
       <c r="C14" s="0"/>
       <c r="D14" s="43"/>
       <c r="E14" s="0"/>
@@ -1711,9 +1694,7 @@
       <c r="A15" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B15" s="50" t="s">
-        <v>18</v>
-      </c>
+      <c r="B15" s="50"/>
       <c r="C15" s="0"/>
       <c r="D15" s="43"/>
       <c r="E15" s="0"/>
@@ -2281,11 +2262,12 @@
       <c r="X31" s="44"/>
       <c r="Y31" s="0"/>
       <c r="Z31" s="45"/>
-      <c r="AC31" s="0"/>
-      <c r="AD31" s="0"/>
-      <c r="AE31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AA31" s="40"/>
+      <c r="AC31" s="57"/>
+      <c r="AD31" s="58"/>
+      <c r="AE31" s="59"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>25</v>
       </c>
@@ -2314,52 +2296,50 @@
       <c r="X32" s="44"/>
       <c r="Y32" s="0"/>
       <c r="Z32" s="45"/>
-      <c r="AB32" s="46"/>
-      <c r="AC32" s="0"/>
-      <c r="AD32" s="0"/>
-      <c r="AE32" s="32"/>
-    </row>
-    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="58"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="60"/>
-      <c r="Y33" s="61"/>
-      <c r="Z33" s="62"/>
-      <c r="AA33" s="63"/>
-      <c r="AB33" s="64"/>
-      <c r="AC33" s="0"/>
-      <c r="AD33" s="65"/>
-      <c r="AE33" s="66"/>
+      <c r="AA32" s="40"/>
+      <c r="AC32" s="57"/>
+      <c r="AD32" s="58"/>
+      <c r="AE32" s="59"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B33" s="55"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="0"/>
+      <c r="K33" s="0"/>
+      <c r="L33" s="0"/>
+      <c r="M33" s="0"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="0"/>
+      <c r="P33" s="0"/>
+      <c r="Q33" s="0"/>
+      <c r="R33" s="0"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="0"/>
+      <c r="U33" s="0"/>
+      <c r="V33" s="0"/>
+      <c r="W33" s="0"/>
+      <c r="X33" s="44"/>
+      <c r="Y33" s="0"/>
+      <c r="Z33" s="45"/>
+      <c r="AA33" s="40"/>
+      <c r="AC33" s="57"/>
+      <c r="AD33" s="58"/>
+      <c r="AE33" s="59"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B34" s="42" t="s">
-        <v>11</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B34" s="55"/>
       <c r="C34" s="0"/>
       <c r="D34" s="43"/>
       <c r="E34" s="0"/>
@@ -2384,18 +2364,16 @@
       <c r="X34" s="44"/>
       <c r="Y34" s="0"/>
       <c r="Z34" s="45"/>
-      <c r="AB34" s="46"/>
-      <c r="AC34" s="40"/>
-      <c r="AD34" s="47"/>
-      <c r="AE34" s="48"/>
+      <c r="AA34" s="40"/>
+      <c r="AC34" s="57"/>
+      <c r="AD34" s="58"/>
+      <c r="AE34" s="59"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>12</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B35" s="55"/>
       <c r="C35" s="0"/>
       <c r="D35" s="43"/>
       <c r="E35" s="0"/>
@@ -2420,23 +2398,19 @@
       <c r="X35" s="44"/>
       <c r="Y35" s="0"/>
       <c r="Z35" s="45"/>
-      <c r="AB35" s="46"/>
-      <c r="AC35" s="40"/>
-      <c r="AD35" s="47"/>
-      <c r="AE35" s="48"/>
+      <c r="AA35" s="40"/>
+      <c r="AC35" s="57"/>
+      <c r="AD35" s="58"/>
+      <c r="AE35" s="59"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B36" s="55"/>
       <c r="C36" s="0"/>
       <c r="D36" s="43"/>
-      <c r="E36" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="E36" s="0"/>
       <c r="F36" s="0"/>
       <c r="G36" s="0"/>
       <c r="H36" s="0"/>
@@ -2458,18 +2432,16 @@
       <c r="X36" s="44"/>
       <c r="Y36" s="0"/>
       <c r="Z36" s="45"/>
-      <c r="AB36" s="46"/>
-      <c r="AC36" s="40"/>
-      <c r="AD36" s="47"/>
-      <c r="AE36" s="48"/>
+      <c r="AA36" s="40"/>
+      <c r="AC36" s="57"/>
+      <c r="AD36" s="58"/>
+      <c r="AE36" s="59"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B37" s="49" t="s">
-        <v>14</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B37" s="55"/>
       <c r="C37" s="0"/>
       <c r="D37" s="43"/>
       <c r="E37" s="0"/>
@@ -2494,18 +2466,16 @@
       <c r="X37" s="44"/>
       <c r="Y37" s="0"/>
       <c r="Z37" s="45"/>
-      <c r="AB37" s="46"/>
-      <c r="AC37" s="40"/>
-      <c r="AD37" s="47"/>
-      <c r="AE37" s="48"/>
+      <c r="AA37" s="40"/>
+      <c r="AC37" s="57"/>
+      <c r="AD37" s="58"/>
+      <c r="AE37" s="59"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B38" s="49" t="s">
-        <v>15</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B38" s="55"/>
       <c r="C38" s="0"/>
       <c r="D38" s="43"/>
       <c r="E38" s="0"/>
@@ -2530,18 +2500,16 @@
       <c r="X38" s="44"/>
       <c r="Y38" s="0"/>
       <c r="Z38" s="45"/>
-      <c r="AB38" s="46"/>
-      <c r="AC38" s="40"/>
-      <c r="AD38" s="47"/>
-      <c r="AE38" s="48"/>
+      <c r="AA38" s="40"/>
+      <c r="AC38" s="57"/>
+      <c r="AD38" s="58"/>
+      <c r="AE38" s="59"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B39" s="50" t="s">
-        <v>16</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B39" s="55"/>
       <c r="C39" s="0"/>
       <c r="D39" s="43"/>
       <c r="E39" s="0"/>
@@ -2566,18 +2534,15 @@
       <c r="X39" s="44"/>
       <c r="Y39" s="0"/>
       <c r="Z39" s="45"/>
-      <c r="AB39" s="46"/>
-      <c r="AC39" s="40"/>
-      <c r="AD39" s="47"/>
-      <c r="AE39" s="48"/>
+      <c r="AC39" s="0"/>
+      <c r="AD39" s="0"/>
+      <c r="AE39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B40" s="50" t="s">
-        <v>17</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B40" s="55"/>
       <c r="C40" s="0"/>
       <c r="D40" s="43"/>
       <c r="E40" s="0"/>
@@ -2603,52 +2568,51 @@
       <c r="Y40" s="0"/>
       <c r="Z40" s="45"/>
       <c r="AB40" s="46"/>
-      <c r="AC40" s="40"/>
-      <c r="AD40" s="47"/>
-      <c r="AE40" s="48"/>
+      <c r="AC40" s="0"/>
+      <c r="AD40" s="0"/>
+      <c r="AE40" s="32"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B41" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="0"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="0"/>
-      <c r="F41" s="0"/>
-      <c r="G41" s="0"/>
-      <c r="H41" s="0"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="0"/>
-      <c r="K41" s="0"/>
-      <c r="L41" s="0"/>
-      <c r="M41" s="0"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="0"/>
-      <c r="P41" s="0"/>
-      <c r="Q41" s="0"/>
-      <c r="R41" s="0"/>
-      <c r="S41" s="43"/>
-      <c r="T41" s="0"/>
-      <c r="U41" s="0"/>
-      <c r="V41" s="0"/>
-      <c r="W41" s="0"/>
-      <c r="X41" s="44"/>
-      <c r="Y41" s="0"/>
-      <c r="Z41" s="45"/>
-      <c r="AB41" s="46"/>
-      <c r="AC41" s="40"/>
-      <c r="AD41" s="47"/>
-      <c r="AE41" s="48"/>
+      <c r="B41" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="61"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="62"/>
+      <c r="S41" s="62"/>
+      <c r="T41" s="62"/>
+      <c r="U41" s="62"/>
+      <c r="V41" s="62"/>
+      <c r="W41" s="62"/>
+      <c r="X41" s="63"/>
+      <c r="Y41" s="64"/>
+      <c r="Z41" s="65"/>
+      <c r="AA41" s="66"/>
+      <c r="AB41" s="67"/>
+      <c r="AC41" s="0"/>
+      <c r="AD41" s="68"/>
+      <c r="AE41" s="69"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
-        <v>9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B42" s="42"/>
       <c r="C42" s="0"/>
-      <c r="D42" s="0"/>
+      <c r="D42" s="43"/>
       <c r="E42" s="0"/>
       <c r="F42" s="0"/>
       <c r="G42" s="0"/>
@@ -2678,9 +2642,11 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B43" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="C43" s="0"/>
       <c r="D43" s="43"/>
       <c r="E43" s="0"/>
@@ -2712,12 +2678,16 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B44" s="49"/>
+        <v>3</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>16</v>
+      </c>
       <c r="C44" s="0"/>
       <c r="D44" s="43"/>
-      <c r="E44" s="0"/>
+      <c r="E44" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="F44" s="0"/>
       <c r="G44" s="0"/>
       <c r="H44" s="0"/>
@@ -2746,7 +2716,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B45" s="49"/>
       <c r="C45" s="0"/>
@@ -2780,7 +2750,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B46" s="49"/>
       <c r="C46" s="0"/>
@@ -2814,9 +2784,9 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B47" s="49"/>
+        <v>6</v>
+      </c>
+      <c r="B47" s="50"/>
       <c r="C47" s="0"/>
       <c r="D47" s="43"/>
       <c r="E47" s="0"/>
@@ -2848,9 +2818,9 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B48" s="49"/>
+        <v>7</v>
+      </c>
+      <c r="B48" s="50"/>
       <c r="C48" s="0"/>
       <c r="D48" s="43"/>
       <c r="E48" s="0"/>
@@ -2882,9 +2852,9 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B49" s="67"/>
+        <v>8</v>
+      </c>
+      <c r="B49" s="50"/>
       <c r="C49" s="0"/>
       <c r="D49" s="43"/>
       <c r="E49" s="0"/>
@@ -2916,11 +2886,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="B50" s="67"/>
+        <v>9</v>
+      </c>
       <c r="C50" s="0"/>
-      <c r="D50" s="43"/>
+      <c r="D50" s="0"/>
       <c r="E50" s="0"/>
       <c r="F50" s="0"/>
       <c r="G50" s="0"/>
@@ -2950,9 +2919,9 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="B51" s="67"/>
+        <v>10</v>
+      </c>
+      <c r="B51" s="49"/>
       <c r="C51" s="0"/>
       <c r="D51" s="43"/>
       <c r="E51" s="0"/>
@@ -2984,9 +2953,9 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B52" s="67"/>
+        <v>11</v>
+      </c>
+      <c r="B52" s="49"/>
       <c r="C52" s="0"/>
       <c r="D52" s="43"/>
       <c r="E52" s="0"/>
@@ -3018,9 +2987,9 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="B53" s="67"/>
+        <v>12</v>
+      </c>
+      <c r="B53" s="49"/>
       <c r="C53" s="0"/>
       <c r="D53" s="43"/>
       <c r="E53" s="0"/>
@@ -3052,9 +3021,9 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="B54" s="67"/>
+        <v>13</v>
+      </c>
+      <c r="B54" s="49"/>
       <c r="C54" s="0"/>
       <c r="D54" s="43"/>
       <c r="E54" s="0"/>
@@ -3086,9 +3055,9 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="B55" s="67"/>
+        <v>14</v>
+      </c>
+      <c r="B55" s="49"/>
       <c r="C55" s="0"/>
       <c r="D55" s="43"/>
       <c r="E55" s="0"/>
@@ -3120,9 +3089,9 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="B56" s="68"/>
+        <v>15</v>
+      </c>
+      <c r="B56" s="49"/>
       <c r="C56" s="0"/>
       <c r="D56" s="43"/>
       <c r="E56" s="0"/>
@@ -3154,9 +3123,9 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="B57" s="42"/>
+        <v>16</v>
+      </c>
+      <c r="B57" s="70"/>
       <c r="C57" s="0"/>
       <c r="D57" s="43"/>
       <c r="E57" s="0"/>
@@ -3181,16 +3150,16 @@
       <c r="X57" s="44"/>
       <c r="Y57" s="0"/>
       <c r="Z57" s="45"/>
-      <c r="AB57" s="51"/>
-      <c r="AC57" s="0"/>
+      <c r="AB57" s="46"/>
+      <c r="AC57" s="40"/>
       <c r="AD57" s="47"/>
       <c r="AE57" s="48"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="B58" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B58" s="70"/>
       <c r="C58" s="0"/>
       <c r="D58" s="43"/>
       <c r="E58" s="0"/>
@@ -3215,52 +3184,50 @@
       <c r="X58" s="44"/>
       <c r="Y58" s="0"/>
       <c r="Z58" s="45"/>
-      <c r="AB58" s="52"/>
-      <c r="AC58" s="0"/>
-      <c r="AD58" s="56"/>
-      <c r="AE58" s="69"/>
+      <c r="AB58" s="46"/>
+      <c r="AC58" s="40"/>
+      <c r="AD58" s="47"/>
+      <c r="AE58" s="48"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" s="70"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="61"/>
-      <c r="J59" s="61"/>
-      <c r="K59" s="61"/>
-      <c r="L59" s="61"/>
-      <c r="M59" s="61"/>
-      <c r="N59" s="61"/>
-      <c r="O59" s="61"/>
-      <c r="P59" s="61"/>
-      <c r="Q59" s="61"/>
-      <c r="R59" s="61"/>
-      <c r="S59" s="61"/>
-      <c r="T59" s="61"/>
-      <c r="U59" s="61"/>
-      <c r="V59" s="61"/>
-      <c r="W59" s="61"/>
-      <c r="X59" s="71"/>
-      <c r="Y59" s="61"/>
-      <c r="Z59" s="62"/>
-      <c r="AA59" s="63"/>
-      <c r="AB59" s="64"/>
-      <c r="AC59" s="0"/>
-      <c r="AD59" s="72"/>
-      <c r="AE59" s="73"/>
+      <c r="A59" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B59" s="70"/>
+      <c r="C59" s="0"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="0"/>
+      <c r="F59" s="0"/>
+      <c r="G59" s="0"/>
+      <c r="H59" s="0"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="0"/>
+      <c r="K59" s="0"/>
+      <c r="L59" s="0"/>
+      <c r="M59" s="0"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="0"/>
+      <c r="P59" s="0"/>
+      <c r="Q59" s="0"/>
+      <c r="R59" s="0"/>
+      <c r="S59" s="43"/>
+      <c r="T59" s="0"/>
+      <c r="U59" s="0"/>
+      <c r="V59" s="0"/>
+      <c r="W59" s="0"/>
+      <c r="X59" s="44"/>
+      <c r="Y59" s="0"/>
+      <c r="Z59" s="45"/>
+      <c r="AB59" s="46"/>
+      <c r="AC59" s="40"/>
+      <c r="AD59" s="47"/>
+      <c r="AE59" s="48"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B60" s="42" t="s">
-        <v>11</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B60" s="70"/>
       <c r="C60" s="0"/>
       <c r="D60" s="43"/>
       <c r="E60" s="0"/>
@@ -3292,11 +3259,9 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>12</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B61" s="70"/>
       <c r="C61" s="0"/>
       <c r="D61" s="43"/>
       <c r="E61" s="0"/>
@@ -3328,11 +3293,9 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B62" s="70"/>
       <c r="C62" s="0"/>
       <c r="D62" s="43"/>
       <c r="E62" s="0"/>
@@ -3364,11 +3327,9 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B63" s="49" t="s">
-        <v>14</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B63" s="70"/>
       <c r="C63" s="0"/>
       <c r="D63" s="43"/>
       <c r="E63" s="0"/>
@@ -3400,11 +3361,9 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B64" s="49" t="s">
-        <v>15</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B64" s="71"/>
       <c r="C64" s="0"/>
       <c r="D64" s="43"/>
       <c r="E64" s="0"/>
@@ -3436,11 +3395,9 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B65" s="50" t="s">
-        <v>16</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B65" s="42"/>
       <c r="C65" s="0"/>
       <c r="D65" s="43"/>
       <c r="E65" s="0"/>
@@ -3465,18 +3422,16 @@
       <c r="X65" s="44"/>
       <c r="Y65" s="0"/>
       <c r="Z65" s="45"/>
-      <c r="AB65" s="46"/>
-      <c r="AC65" s="40"/>
+      <c r="AB65" s="51"/>
+      <c r="AC65" s="0"/>
       <c r="AD65" s="47"/>
       <c r="AE65" s="48"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B66" s="50" t="s">
-        <v>17</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B66" s="6"/>
       <c r="C66" s="0"/>
       <c r="D66" s="43"/>
       <c r="E66" s="0"/>
@@ -3501,52 +3456,50 @@
       <c r="X66" s="44"/>
       <c r="Y66" s="0"/>
       <c r="Z66" s="45"/>
-      <c r="AB66" s="46"/>
-      <c r="AC66" s="40"/>
-      <c r="AD66" s="47"/>
-      <c r="AE66" s="48"/>
-    </row>
-    <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B67" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67" s="0"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="0"/>
-      <c r="F67" s="0"/>
-      <c r="G67" s="0"/>
-      <c r="H67" s="0"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="0"/>
-      <c r="K67" s="0"/>
-      <c r="L67" s="0"/>
-      <c r="M67" s="0"/>
-      <c r="N67" s="43"/>
-      <c r="O67" s="0"/>
-      <c r="P67" s="0"/>
-      <c r="Q67" s="0"/>
-      <c r="R67" s="0"/>
-      <c r="S67" s="43"/>
-      <c r="T67" s="0"/>
-      <c r="U67" s="0"/>
-      <c r="V67" s="0"/>
-      <c r="W67" s="0"/>
-      <c r="X67" s="44"/>
-      <c r="Y67" s="0"/>
-      <c r="Z67" s="45"/>
-      <c r="AB67" s="46"/>
-      <c r="AC67" s="40"/>
-      <c r="AD67" s="47"/>
-      <c r="AE67" s="48"/>
+      <c r="AB66" s="52"/>
+      <c r="AC66" s="0"/>
+      <c r="AD66" s="56"/>
+      <c r="AE66" s="72"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="73"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="64"/>
+      <c r="J67" s="64"/>
+      <c r="K67" s="64"/>
+      <c r="L67" s="64"/>
+      <c r="M67" s="64"/>
+      <c r="N67" s="64"/>
+      <c r="O67" s="64"/>
+      <c r="P67" s="64"/>
+      <c r="Q67" s="64"/>
+      <c r="R67" s="64"/>
+      <c r="S67" s="64"/>
+      <c r="T67" s="64"/>
+      <c r="U67" s="64"/>
+      <c r="V67" s="64"/>
+      <c r="W67" s="64"/>
+      <c r="X67" s="74"/>
+      <c r="Y67" s="64"/>
+      <c r="Z67" s="65"/>
+      <c r="AA67" s="66"/>
+      <c r="AB67" s="67"/>
+      <c r="AC67" s="0"/>
+      <c r="AD67" s="75"/>
+      <c r="AE67" s="76"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B68" s="67"/>
+        <v>1</v>
+      </c>
+      <c r="B68" s="42"/>
       <c r="C68" s="0"/>
       <c r="D68" s="43"/>
       <c r="E68" s="0"/>
@@ -3578,9 +3531,8 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B69" s="49"/>
+        <v>2</v>
+      </c>
       <c r="C69" s="0"/>
       <c r="D69" s="43"/>
       <c r="E69" s="0"/>
@@ -3612,9 +3564,8 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B70" s="49"/>
+        <v>3</v>
+      </c>
       <c r="C70" s="0"/>
       <c r="D70" s="43"/>
       <c r="E70" s="0"/>
@@ -3646,7 +3597,7 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B71" s="49"/>
       <c r="C71" s="0"/>
@@ -3680,7 +3631,7 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B72" s="49"/>
       <c r="C72" s="0"/>
@@ -3714,9 +3665,9 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B73" s="49"/>
+        <v>6</v>
+      </c>
+      <c r="B73" s="50"/>
       <c r="C73" s="0"/>
       <c r="D73" s="43"/>
       <c r="E73" s="0"/>
@@ -3748,9 +3699,9 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B74" s="49"/>
+        <v>7</v>
+      </c>
+      <c r="B74" s="50"/>
       <c r="C74" s="0"/>
       <c r="D74" s="43"/>
       <c r="E74" s="0"/>
@@ -3782,9 +3733,9 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B75" s="49"/>
+        <v>8</v>
+      </c>
+      <c r="B75" s="50"/>
       <c r="C75" s="0"/>
       <c r="D75" s="43"/>
       <c r="E75" s="0"/>
@@ -3816,9 +3767,9 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="B76" s="49"/>
+        <v>9</v>
+      </c>
+      <c r="B76" s="70"/>
       <c r="C76" s="0"/>
       <c r="D76" s="43"/>
       <c r="E76" s="0"/>
@@ -3850,7 +3801,7 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B77" s="49"/>
       <c r="C77" s="0"/>
@@ -3884,7 +3835,7 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B78" s="49"/>
       <c r="C78" s="0"/>
@@ -3918,7 +3869,7 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B79" s="49"/>
       <c r="C79" s="0"/>
@@ -3952,7 +3903,7 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B80" s="49"/>
       <c r="C80" s="0"/>
@@ -3986,7 +3937,7 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B81" s="49"/>
       <c r="C81" s="0"/>
@@ -4020,9 +3971,9 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="B82" s="74"/>
+        <v>15</v>
+      </c>
+      <c r="B82" s="49"/>
       <c r="C82" s="0"/>
       <c r="D82" s="43"/>
       <c r="E82" s="0"/>
@@ -4047,16 +3998,16 @@
       <c r="X82" s="44"/>
       <c r="Y82" s="0"/>
       <c r="Z82" s="45"/>
-      <c r="AB82" s="51"/>
+      <c r="AB82" s="46"/>
       <c r="AC82" s="40"/>
       <c r="AD82" s="47"/>
       <c r="AE82" s="48"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="B83" s="75"/>
+        <v>16</v>
+      </c>
+      <c r="B83" s="49"/>
       <c r="C83" s="0"/>
       <c r="D83" s="43"/>
       <c r="E83" s="0"/>
@@ -4081,16 +4032,16 @@
       <c r="X83" s="44"/>
       <c r="Y83" s="0"/>
       <c r="Z83" s="45"/>
-      <c r="AB83" s="52"/>
-      <c r="AC83" s="0"/>
-      <c r="AD83" s="0"/>
-      <c r="AE83" s="0"/>
+      <c r="AB83" s="46"/>
+      <c r="AC83" s="40"/>
+      <c r="AD83" s="47"/>
+      <c r="AE83" s="48"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="B84" s="75"/>
+        <v>17</v>
+      </c>
+      <c r="B84" s="49"/>
       <c r="C84" s="0"/>
       <c r="D84" s="43"/>
       <c r="E84" s="0"/>
@@ -4116,51 +4067,49 @@
       <c r="Y84" s="0"/>
       <c r="Z84" s="45"/>
       <c r="AB84" s="46"/>
-      <c r="AC84" s="0"/>
-      <c r="AD84" s="0"/>
-      <c r="AE84" s="32"/>
+      <c r="AC84" s="40"/>
+      <c r="AD84" s="47"/>
+      <c r="AE84" s="48"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="C85" s="70"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
-      <c r="G85" s="61"/>
-      <c r="H85" s="61"/>
-      <c r="I85" s="61"/>
-      <c r="J85" s="61"/>
-      <c r="K85" s="61"/>
-      <c r="L85" s="61"/>
-      <c r="M85" s="61"/>
-      <c r="N85" s="61"/>
-      <c r="O85" s="61"/>
-      <c r="P85" s="61"/>
-      <c r="Q85" s="61"/>
-      <c r="R85" s="61"/>
-      <c r="S85" s="61"/>
-      <c r="T85" s="61"/>
-      <c r="U85" s="61"/>
-      <c r="V85" s="61"/>
-      <c r="W85" s="61"/>
-      <c r="X85" s="71"/>
-      <c r="Y85" s="61"/>
-      <c r="Z85" s="62"/>
-      <c r="AA85" s="63"/>
-      <c r="AB85" s="64"/>
-      <c r="AC85" s="0"/>
-      <c r="AD85" s="72"/>
-      <c r="AE85" s="73"/>
+      <c r="A85" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B85" s="49"/>
+      <c r="C85" s="0"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="0"/>
+      <c r="F85" s="0"/>
+      <c r="G85" s="0"/>
+      <c r="H85" s="0"/>
+      <c r="I85" s="43"/>
+      <c r="J85" s="0"/>
+      <c r="K85" s="0"/>
+      <c r="L85" s="0"/>
+      <c r="M85" s="0"/>
+      <c r="N85" s="43"/>
+      <c r="O85" s="0"/>
+      <c r="P85" s="0"/>
+      <c r="Q85" s="0"/>
+      <c r="R85" s="0"/>
+      <c r="S85" s="43"/>
+      <c r="T85" s="0"/>
+      <c r="U85" s="0"/>
+      <c r="V85" s="0"/>
+      <c r="W85" s="0"/>
+      <c r="X85" s="44"/>
+      <c r="Y85" s="0"/>
+      <c r="Z85" s="45"/>
+      <c r="AB85" s="46"/>
+      <c r="AC85" s="40"/>
+      <c r="AD85" s="47"/>
+      <c r="AE85" s="48"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B86" s="42" t="s">
-        <v>11</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B86" s="49"/>
       <c r="C86" s="0"/>
       <c r="D86" s="43"/>
       <c r="E86" s="0"/>
@@ -4192,11 +4141,9 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>12</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B87" s="49"/>
       <c r="C87" s="0"/>
       <c r="D87" s="43"/>
       <c r="E87" s="0"/>
@@ -4228,11 +4175,9 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B88" s="49"/>
       <c r="C88" s="0"/>
       <c r="D88" s="43"/>
       <c r="E88" s="0"/>
@@ -4264,11 +4209,9 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B89" s="49" t="s">
-        <v>14</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B89" s="49"/>
       <c r="C89" s="0"/>
       <c r="D89" s="43"/>
       <c r="E89" s="0"/>
@@ -4300,11 +4243,9 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B90" s="49" t="s">
-        <v>15</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B90" s="77"/>
       <c r="C90" s="0"/>
       <c r="D90" s="43"/>
       <c r="E90" s="0"/>
@@ -4329,18 +4270,16 @@
       <c r="X90" s="44"/>
       <c r="Y90" s="0"/>
       <c r="Z90" s="45"/>
-      <c r="AB90" s="46"/>
+      <c r="AB90" s="51"/>
       <c r="AC90" s="40"/>
       <c r="AD90" s="47"/>
       <c r="AE90" s="48"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B91" s="50" t="s">
-        <v>16</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B91" s="55"/>
       <c r="C91" s="0"/>
       <c r="D91" s="43"/>
       <c r="E91" s="0"/>
@@ -4365,18 +4304,16 @@
       <c r="X91" s="44"/>
       <c r="Y91" s="0"/>
       <c r="Z91" s="45"/>
-      <c r="AB91" s="46"/>
-      <c r="AC91" s="40"/>
-      <c r="AD91" s="47"/>
-      <c r="AE91" s="48"/>
+      <c r="AA91" s="40"/>
+      <c r="AC91" s="57"/>
+      <c r="AD91" s="58"/>
+      <c r="AE91" s="59"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B92" s="50" t="s">
-        <v>17</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B92" s="55"/>
       <c r="C92" s="0"/>
       <c r="D92" s="43"/>
       <c r="E92" s="0"/>
@@ -4401,18 +4338,16 @@
       <c r="X92" s="44"/>
       <c r="Y92" s="0"/>
       <c r="Z92" s="45"/>
-      <c r="AB92" s="46"/>
-      <c r="AC92" s="40"/>
-      <c r="AD92" s="47"/>
-      <c r="AE92" s="48"/>
+      <c r="AA92" s="40"/>
+      <c r="AC92" s="57"/>
+      <c r="AD92" s="58"/>
+      <c r="AE92" s="59"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B93" s="50" t="s">
-        <v>18</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B93" s="55"/>
       <c r="C93" s="0"/>
       <c r="D93" s="43"/>
       <c r="E93" s="0"/>
@@ -4437,16 +4372,16 @@
       <c r="X93" s="44"/>
       <c r="Y93" s="0"/>
       <c r="Z93" s="45"/>
-      <c r="AB93" s="46"/>
-      <c r="AC93" s="40"/>
-      <c r="AD93" s="47"/>
-      <c r="AE93" s="48"/>
+      <c r="AA93" s="40"/>
+      <c r="AC93" s="57"/>
+      <c r="AD93" s="58"/>
+      <c r="AE93" s="59"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B94" s="67"/>
+        <v>27</v>
+      </c>
+      <c r="B94" s="55"/>
       <c r="C94" s="0"/>
       <c r="D94" s="43"/>
       <c r="E94" s="0"/>
@@ -4471,16 +4406,16 @@
       <c r="X94" s="44"/>
       <c r="Y94" s="0"/>
       <c r="Z94" s="45"/>
-      <c r="AB94" s="46"/>
-      <c r="AC94" s="40"/>
-      <c r="AD94" s="47"/>
-      <c r="AE94" s="48"/>
+      <c r="AA94" s="40"/>
+      <c r="AC94" s="57"/>
+      <c r="AD94" s="58"/>
+      <c r="AE94" s="59"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B95" s="67"/>
+        <v>24</v>
+      </c>
+      <c r="B95" s="78"/>
       <c r="C95" s="0"/>
       <c r="D95" s="43"/>
       <c r="E95" s="0"/>
@@ -4505,16 +4440,16 @@
       <c r="X95" s="44"/>
       <c r="Y95" s="0"/>
       <c r="Z95" s="45"/>
-      <c r="AB95" s="46"/>
-      <c r="AC95" s="40"/>
-      <c r="AD95" s="47"/>
-      <c r="AE95" s="48"/>
+      <c r="AB95" s="52"/>
+      <c r="AC95" s="0"/>
+      <c r="AD95" s="0"/>
+      <c r="AE95" s="0"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B96" s="67"/>
+        <v>25</v>
+      </c>
+      <c r="B96" s="78"/>
       <c r="C96" s="0"/>
       <c r="D96" s="43"/>
       <c r="E96" s="0"/>
@@ -4540,49 +4475,49 @@
       <c r="Y96" s="0"/>
       <c r="Z96" s="45"/>
       <c r="AB96" s="46"/>
-      <c r="AC96" s="40"/>
-      <c r="AD96" s="47"/>
-      <c r="AE96" s="48"/>
+      <c r="AC96" s="0"/>
+      <c r="AD96" s="0"/>
+      <c r="AE96" s="32"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B97" s="67"/>
-      <c r="C97" s="0"/>
-      <c r="D97" s="43"/>
-      <c r="E97" s="0"/>
-      <c r="F97" s="0"/>
-      <c r="G97" s="0"/>
-      <c r="H97" s="0"/>
-      <c r="I97" s="43"/>
-      <c r="J97" s="0"/>
-      <c r="K97" s="0"/>
-      <c r="L97" s="0"/>
-      <c r="M97" s="0"/>
-      <c r="N97" s="43"/>
-      <c r="O97" s="0"/>
-      <c r="P97" s="0"/>
-      <c r="Q97" s="0"/>
-      <c r="R97" s="0"/>
-      <c r="S97" s="43"/>
-      <c r="T97" s="0"/>
-      <c r="U97" s="0"/>
-      <c r="V97" s="0"/>
-      <c r="W97" s="0"/>
-      <c r="X97" s="44"/>
-      <c r="Y97" s="0"/>
-      <c r="Z97" s="45"/>
-      <c r="AB97" s="46"/>
-      <c r="AC97" s="40"/>
-      <c r="AD97" s="47"/>
-      <c r="AE97" s="48"/>
+      <c r="B97" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" s="73"/>
+      <c r="D97" s="64"/>
+      <c r="E97" s="64"/>
+      <c r="F97" s="64"/>
+      <c r="G97" s="64"/>
+      <c r="H97" s="64"/>
+      <c r="I97" s="64"/>
+      <c r="J97" s="64"/>
+      <c r="K97" s="64"/>
+      <c r="L97" s="64"/>
+      <c r="M97" s="64"/>
+      <c r="N97" s="64"/>
+      <c r="O97" s="64"/>
+      <c r="P97" s="64"/>
+      <c r="Q97" s="64"/>
+      <c r="R97" s="64"/>
+      <c r="S97" s="64"/>
+      <c r="T97" s="64"/>
+      <c r="U97" s="64"/>
+      <c r="V97" s="64"/>
+      <c r="W97" s="64"/>
+      <c r="X97" s="74"/>
+      <c r="Y97" s="64"/>
+      <c r="Z97" s="65"/>
+      <c r="AA97" s="66"/>
+      <c r="AB97" s="67"/>
+      <c r="AC97" s="0"/>
+      <c r="AD97" s="75"/>
+      <c r="AE97" s="76"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B98" s="67"/>
+        <v>1</v>
+      </c>
+      <c r="B98" s="42"/>
       <c r="C98" s="0"/>
       <c r="D98" s="43"/>
       <c r="E98" s="0"/>
@@ -4614,9 +4549,8 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B99" s="67"/>
+        <v>2</v>
+      </c>
       <c r="C99" s="0"/>
       <c r="D99" s="43"/>
       <c r="E99" s="0"/>
@@ -4648,9 +4582,8 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B100" s="67"/>
+        <v>3</v>
+      </c>
       <c r="C100" s="0"/>
       <c r="D100" s="43"/>
       <c r="E100" s="0"/>
@@ -4682,9 +4615,9 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B101" s="67"/>
+        <v>4</v>
+      </c>
+      <c r="B101" s="49"/>
       <c r="C101" s="0"/>
       <c r="D101" s="43"/>
       <c r="E101" s="0"/>
@@ -4716,9 +4649,9 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="B102" s="67"/>
+        <v>5</v>
+      </c>
+      <c r="B102" s="49"/>
       <c r="C102" s="0"/>
       <c r="D102" s="43"/>
       <c r="E102" s="0"/>
@@ -4750,9 +4683,9 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="B103" s="67"/>
+        <v>6</v>
+      </c>
+      <c r="B103" s="50"/>
       <c r="C103" s="0"/>
       <c r="D103" s="43"/>
       <c r="E103" s="0"/>
@@ -4784,9 +4717,9 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B104" s="67"/>
+        <v>7</v>
+      </c>
+      <c r="B104" s="50"/>
       <c r="C104" s="0"/>
       <c r="D104" s="43"/>
       <c r="E104" s="0"/>
@@ -4818,9 +4751,9 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="B105" s="67"/>
+        <v>8</v>
+      </c>
+      <c r="B105" s="50"/>
       <c r="C105" s="0"/>
       <c r="D105" s="43"/>
       <c r="E105" s="0"/>
@@ -4845,16 +4778,16 @@
       <c r="X105" s="44"/>
       <c r="Y105" s="0"/>
       <c r="Z105" s="45"/>
-      <c r="AB105" s="51"/>
+      <c r="AB105" s="46"/>
       <c r="AC105" s="40"/>
       <c r="AD105" s="47"/>
       <c r="AE105" s="48"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="B106" s="76"/>
+        <v>9</v>
+      </c>
+      <c r="B106" s="70"/>
       <c r="C106" s="0"/>
       <c r="D106" s="43"/>
       <c r="E106" s="0"/>
@@ -4879,16 +4812,16 @@
       <c r="X106" s="44"/>
       <c r="Y106" s="0"/>
       <c r="Z106" s="45"/>
-      <c r="AB106" s="52"/>
-      <c r="AC106" s="77"/>
-      <c r="AD106" s="0"/>
-      <c r="AE106" s="0"/>
+      <c r="AB106" s="46"/>
+      <c r="AC106" s="40"/>
+      <c r="AD106" s="47"/>
+      <c r="AE106" s="48"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="B107" s="76"/>
+        <v>10</v>
+      </c>
+      <c r="B107" s="70"/>
       <c r="C107" s="0"/>
       <c r="D107" s="43"/>
       <c r="E107" s="0"/>
@@ -4914,15 +4847,15 @@
       <c r="Y107" s="0"/>
       <c r="Z107" s="45"/>
       <c r="AB107" s="46"/>
-      <c r="AC107" s="0"/>
-      <c r="AD107" s="0"/>
-      <c r="AE107" s="0"/>
+      <c r="AC107" s="40"/>
+      <c r="AD107" s="47"/>
+      <c r="AE107" s="48"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="B108" s="76"/>
+        <v>11</v>
+      </c>
+      <c r="B108" s="70"/>
       <c r="C108" s="0"/>
       <c r="D108" s="43"/>
       <c r="E108" s="0"/>
@@ -4947,16 +4880,16 @@
       <c r="X108" s="44"/>
       <c r="Y108" s="0"/>
       <c r="Z108" s="45"/>
-      <c r="AB108" s="64"/>
-      <c r="AC108" s="0"/>
-      <c r="AD108" s="0"/>
-      <c r="AE108" s="0"/>
+      <c r="AB108" s="46"/>
+      <c r="AC108" s="40"/>
+      <c r="AD108" s="47"/>
+      <c r="AE108" s="48"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="B109" s="76"/>
+        <v>12</v>
+      </c>
+      <c r="B109" s="70"/>
       <c r="C109" s="0"/>
       <c r="D109" s="43"/>
       <c r="E109" s="0"/>
@@ -4981,15 +4914,16 @@
       <c r="X109" s="44"/>
       <c r="Y109" s="0"/>
       <c r="Z109" s="45"/>
-      <c r="AC109" s="0"/>
-      <c r="AD109" s="0"/>
-      <c r="AE109" s="0"/>
+      <c r="AB109" s="46"/>
+      <c r="AC109" s="40"/>
+      <c r="AD109" s="47"/>
+      <c r="AE109" s="48"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="B110" s="76"/>
+        <v>13</v>
+      </c>
+      <c r="B110" s="70"/>
       <c r="C110" s="0"/>
       <c r="D110" s="43"/>
       <c r="E110" s="0"/>
@@ -5014,49 +4948,50 @@
       <c r="X110" s="44"/>
       <c r="Y110" s="0"/>
       <c r="Z110" s="45"/>
-      <c r="AC110" s="0"/>
-      <c r="AD110" s="0"/>
-      <c r="AE110" s="0"/>
+      <c r="AB110" s="46"/>
+      <c r="AC110" s="40"/>
+      <c r="AD110" s="47"/>
+      <c r="AE110" s="48"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C111" s="34"/>
-      <c r="D111" s="36"/>
-      <c r="E111" s="35"/>
-      <c r="F111" s="36"/>
-      <c r="G111" s="36"/>
-      <c r="H111" s="36"/>
-      <c r="I111" s="36"/>
-      <c r="J111" s="36"/>
-      <c r="K111" s="36"/>
-      <c r="L111" s="35"/>
-      <c r="M111" s="36"/>
-      <c r="N111" s="36"/>
-      <c r="O111" s="36"/>
-      <c r="P111" s="36"/>
-      <c r="Q111" s="36"/>
-      <c r="R111" s="36"/>
-      <c r="S111" s="36"/>
-      <c r="T111" s="36"/>
-      <c r="U111" s="36"/>
-      <c r="V111" s="36"/>
-      <c r="W111" s="36"/>
-      <c r="X111" s="78"/>
-      <c r="Y111" s="38"/>
-      <c r="Z111" s="39"/>
-      <c r="AC111" s="0"/>
-      <c r="AD111" s="0"/>
-      <c r="AE111" s="0"/>
+      <c r="A111" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B111" s="70"/>
+      <c r="C111" s="0"/>
+      <c r="D111" s="43"/>
+      <c r="E111" s="0"/>
+      <c r="F111" s="0"/>
+      <c r="G111" s="0"/>
+      <c r="H111" s="0"/>
+      <c r="I111" s="43"/>
+      <c r="J111" s="0"/>
+      <c r="K111" s="0"/>
+      <c r="L111" s="0"/>
+      <c r="M111" s="0"/>
+      <c r="N111" s="43"/>
+      <c r="O111" s="0"/>
+      <c r="P111" s="0"/>
+      <c r="Q111" s="0"/>
+      <c r="R111" s="0"/>
+      <c r="S111" s="43"/>
+      <c r="T111" s="0"/>
+      <c r="U111" s="0"/>
+      <c r="V111" s="0"/>
+      <c r="W111" s="0"/>
+      <c r="X111" s="44"/>
+      <c r="Y111" s="0"/>
+      <c r="Z111" s="45"/>
+      <c r="AB111" s="46"/>
+      <c r="AC111" s="40"/>
+      <c r="AD111" s="47"/>
+      <c r="AE111" s="48"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B112" s="42" t="s">
-        <v>11</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B112" s="70"/>
       <c r="C112" s="0"/>
       <c r="D112" s="43"/>
       <c r="E112" s="0"/>
@@ -5081,17 +5016,16 @@
       <c r="X112" s="44"/>
       <c r="Y112" s="0"/>
       <c r="Z112" s="45"/>
-      <c r="AC112" s="0"/>
-      <c r="AD112" s="0"/>
-      <c r="AE112" s="0"/>
+      <c r="AB112" s="46"/>
+      <c r="AC112" s="40"/>
+      <c r="AD112" s="47"/>
+      <c r="AE112" s="48"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B113" s="0" t="s">
-        <v>12</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B113" s="70"/>
       <c r="C113" s="0"/>
       <c r="D113" s="43"/>
       <c r="E113" s="0"/>
@@ -5116,17 +5050,16 @@
       <c r="X113" s="44"/>
       <c r="Y113" s="0"/>
       <c r="Z113" s="45"/>
-      <c r="AC113" s="0"/>
-      <c r="AD113" s="0"/>
-      <c r="AE113" s="0"/>
+      <c r="AB113" s="46"/>
+      <c r="AC113" s="40"/>
+      <c r="AD113" s="47"/>
+      <c r="AE113" s="48"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B114" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B114" s="70"/>
       <c r="C114" s="0"/>
       <c r="D114" s="43"/>
       <c r="E114" s="0"/>
@@ -5151,22 +5084,19 @@
       <c r="X114" s="44"/>
       <c r="Y114" s="0"/>
       <c r="Z114" s="45"/>
-      <c r="AC114" s="0"/>
-      <c r="AD114" s="0"/>
-      <c r="AE114" s="0"/>
+      <c r="AB114" s="46"/>
+      <c r="AC114" s="40"/>
+      <c r="AD114" s="47"/>
+      <c r="AE114" s="48"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B115" s="49" t="s">
-        <v>14</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B115" s="70"/>
       <c r="C115" s="0"/>
       <c r="D115" s="43"/>
-      <c r="E115" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="E115" s="0"/>
       <c r="F115" s="0"/>
       <c r="G115" s="0"/>
       <c r="H115" s="0"/>
@@ -5188,17 +5118,16 @@
       <c r="X115" s="44"/>
       <c r="Y115" s="0"/>
       <c r="Z115" s="45"/>
-      <c r="AC115" s="0"/>
-      <c r="AD115" s="0"/>
-      <c r="AE115" s="0"/>
+      <c r="AB115" s="46"/>
+      <c r="AC115" s="40"/>
+      <c r="AD115" s="47"/>
+      <c r="AE115" s="48"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B116" s="49" t="s">
-        <v>15</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B116" s="70"/>
       <c r="C116" s="0"/>
       <c r="D116" s="43"/>
       <c r="E116" s="0"/>
@@ -5223,17 +5152,16 @@
       <c r="X116" s="44"/>
       <c r="Y116" s="0"/>
       <c r="Z116" s="45"/>
-      <c r="AC116" s="0"/>
-      <c r="AD116" s="0"/>
-      <c r="AE116" s="0"/>
+      <c r="AB116" s="46"/>
+      <c r="AC116" s="40"/>
+      <c r="AD116" s="47"/>
+      <c r="AE116" s="48"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B117" s="50" t="s">
-        <v>16</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B117" s="70"/>
       <c r="C117" s="0"/>
       <c r="D117" s="43"/>
       <c r="E117" s="0"/>
@@ -5258,18 +5186,16 @@
       <c r="X117" s="44"/>
       <c r="Y117" s="0"/>
       <c r="Z117" s="45"/>
-      <c r="AA117" s="40"/>
-      <c r="AC117" s="79"/>
-      <c r="AD117" s="80"/>
-      <c r="AE117" s="81"/>
+      <c r="AB117" s="51"/>
+      <c r="AC117" s="40"/>
+      <c r="AD117" s="47"/>
+      <c r="AE117" s="48"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B118" s="50" t="s">
-        <v>17</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B118" s="79"/>
       <c r="C118" s="0"/>
       <c r="D118" s="43"/>
       <c r="E118" s="0"/>
@@ -5294,18 +5220,16 @@
       <c r="X118" s="44"/>
       <c r="Y118" s="0"/>
       <c r="Z118" s="45"/>
-      <c r="AA118" s="40"/>
-      <c r="AC118" s="79"/>
-      <c r="AD118" s="80"/>
-      <c r="AE118" s="81"/>
+      <c r="AB118" s="52"/>
+      <c r="AC118" s="80"/>
+      <c r="AD118" s="0"/>
+      <c r="AE118" s="0"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B119" s="50" t="s">
-        <v>18</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B119" s="79"/>
       <c r="C119" s="0"/>
       <c r="D119" s="43"/>
       <c r="E119" s="0"/>
@@ -5330,17 +5254,18 @@
       <c r="X119" s="44"/>
       <c r="Y119" s="0"/>
       <c r="Z119" s="45"/>
-      <c r="AA119" s="40"/>
-      <c r="AC119" s="79"/>
-      <c r="AD119" s="80"/>
-      <c r="AE119" s="81"/>
+      <c r="AB119" s="46"/>
+      <c r="AC119" s="0"/>
+      <c r="AD119" s="0"/>
+      <c r="AE119" s="0"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
-        <v>9</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B120" s="79"/>
       <c r="C120" s="0"/>
-      <c r="D120" s="0"/>
+      <c r="D120" s="43"/>
       <c r="E120" s="0"/>
       <c r="F120" s="0"/>
       <c r="G120" s="0"/>
@@ -5363,16 +5288,16 @@
       <c r="X120" s="44"/>
       <c r="Y120" s="0"/>
       <c r="Z120" s="45"/>
-      <c r="AA120" s="40"/>
-      <c r="AC120" s="79"/>
-      <c r="AD120" s="80"/>
-      <c r="AE120" s="81"/>
+      <c r="AB120" s="67"/>
+      <c r="AC120" s="0"/>
+      <c r="AD120" s="0"/>
+      <c r="AE120" s="0"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B121" s="49"/>
+        <v>24</v>
+      </c>
+      <c r="B121" s="79"/>
       <c r="C121" s="0"/>
       <c r="D121" s="43"/>
       <c r="E121" s="0"/>
@@ -5397,16 +5322,15 @@
       <c r="X121" s="44"/>
       <c r="Y121" s="0"/>
       <c r="Z121" s="45"/>
-      <c r="AA121" s="40"/>
-      <c r="AC121" s="79"/>
-      <c r="AD121" s="80"/>
-      <c r="AE121" s="81"/>
+      <c r="AC121" s="0"/>
+      <c r="AD121" s="0"/>
+      <c r="AE121" s="0"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B122" s="49"/>
+        <v>25</v>
+      </c>
+      <c r="B122" s="79"/>
       <c r="C122" s="0"/>
       <c r="D122" s="43"/>
       <c r="E122" s="0"/>
@@ -5431,53 +5355,54 @@
       <c r="X122" s="44"/>
       <c r="Y122" s="0"/>
       <c r="Z122" s="45"/>
-      <c r="AA122" s="40"/>
-      <c r="AC122" s="79"/>
-      <c r="AD122" s="80"/>
-      <c r="AE122" s="81"/>
+      <c r="AC122" s="0"/>
+      <c r="AD122" s="0"/>
+      <c r="AE122" s="0"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B123" s="49"/>
-      <c r="C123" s="0"/>
-      <c r="D123" s="43"/>
-      <c r="E123" s="0"/>
-      <c r="F123" s="0"/>
-      <c r="G123" s="0"/>
-      <c r="H123" s="0"/>
-      <c r="I123" s="43"/>
-      <c r="J123" s="0"/>
-      <c r="K123" s="0"/>
-      <c r="L123" s="0"/>
-      <c r="M123" s="0"/>
-      <c r="N123" s="43"/>
-      <c r="O123" s="0"/>
-      <c r="P123" s="0"/>
-      <c r="Q123" s="0"/>
-      <c r="R123" s="0"/>
-      <c r="S123" s="43"/>
-      <c r="T123" s="0"/>
-      <c r="U123" s="0"/>
-      <c r="V123" s="0"/>
-      <c r="W123" s="0"/>
-      <c r="X123" s="44"/>
-      <c r="Y123" s="0"/>
-      <c r="Z123" s="45"/>
-      <c r="AA123" s="40"/>
-      <c r="AC123" s="79"/>
-      <c r="AD123" s="80"/>
-      <c r="AE123" s="81"/>
+      <c r="B123" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C123" s="34"/>
+      <c r="D123" s="36"/>
+      <c r="E123" s="35"/>
+      <c r="F123" s="36"/>
+      <c r="G123" s="36"/>
+      <c r="H123" s="36"/>
+      <c r="I123" s="36"/>
+      <c r="J123" s="36"/>
+      <c r="K123" s="36"/>
+      <c r="L123" s="35"/>
+      <c r="M123" s="36"/>
+      <c r="N123" s="36"/>
+      <c r="O123" s="36"/>
+      <c r="P123" s="36"/>
+      <c r="Q123" s="36"/>
+      <c r="R123" s="36"/>
+      <c r="S123" s="36"/>
+      <c r="T123" s="36"/>
+      <c r="U123" s="36"/>
+      <c r="V123" s="36"/>
+      <c r="W123" s="36"/>
+      <c r="X123" s="81"/>
+      <c r="Y123" s="38"/>
+      <c r="Z123" s="39"/>
+      <c r="AC123" s="0"/>
+      <c r="AD123" s="0"/>
+      <c r="AE123" s="0"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B124" s="49"/>
+        <v>1</v>
+      </c>
+      <c r="B124" s="49" t="s">
+        <v>12</v>
+      </c>
       <c r="C124" s="0"/>
       <c r="D124" s="43"/>
-      <c r="E124" s="0"/>
+      <c r="E124" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="F124" s="0"/>
       <c r="G124" s="0"/>
       <c r="H124" s="0"/>
@@ -5499,16 +5424,14 @@
       <c r="X124" s="44"/>
       <c r="Y124" s="0"/>
       <c r="Z124" s="45"/>
-      <c r="AA124" s="40"/>
-      <c r="AC124" s="79"/>
-      <c r="AD124" s="80"/>
-      <c r="AE124" s="81"/>
+      <c r="AC124" s="0"/>
+      <c r="AD124" s="0"/>
+      <c r="AE124" s="0"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B125" s="49"/>
+        <v>2</v>
+      </c>
       <c r="C125" s="0"/>
       <c r="D125" s="43"/>
       <c r="E125" s="0"/>
@@ -5533,16 +5456,14 @@
       <c r="X125" s="44"/>
       <c r="Y125" s="0"/>
       <c r="Z125" s="45"/>
-      <c r="AA125" s="40"/>
-      <c r="AC125" s="79"/>
-      <c r="AD125" s="80"/>
-      <c r="AE125" s="81"/>
+      <c r="AC125" s="0"/>
+      <c r="AD125" s="0"/>
+      <c r="AE125" s="0"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B126" s="49"/>
+        <v>3</v>
+      </c>
       <c r="C126" s="0"/>
       <c r="D126" s="43"/>
       <c r="E126" s="0"/>
@@ -5567,18 +5488,16 @@
       <c r="X126" s="44"/>
       <c r="Y126" s="0"/>
       <c r="Z126" s="45"/>
-      <c r="AA126" s="40"/>
-      <c r="AC126" s="79"/>
-      <c r="AD126" s="80"/>
-      <c r="AE126" s="81"/>
+      <c r="AC126" s="0"/>
+      <c r="AD126" s="0"/>
+      <c r="AE126" s="0"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B127" s="49"/>
+        <v>4</v>
+      </c>
       <c r="C127" s="0"/>
-      <c r="D127" s="43"/>
+      <c r="D127" s="0"/>
       <c r="E127" s="0"/>
       <c r="F127" s="0"/>
       <c r="G127" s="0"/>
@@ -5601,14 +5520,13 @@
       <c r="X127" s="44"/>
       <c r="Y127" s="0"/>
       <c r="Z127" s="45"/>
-      <c r="AA127" s="40"/>
-      <c r="AC127" s="79"/>
-      <c r="AD127" s="80"/>
-      <c r="AE127" s="81"/>
+      <c r="AC127" s="0"/>
+      <c r="AD127" s="0"/>
+      <c r="AE127" s="0"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B128" s="49"/>
       <c r="C128" s="0"/>
@@ -5635,16 +5553,15 @@
       <c r="X128" s="44"/>
       <c r="Y128" s="0"/>
       <c r="Z128" s="45"/>
-      <c r="AA128" s="40"/>
-      <c r="AC128" s="79"/>
-      <c r="AD128" s="80"/>
-      <c r="AE128" s="81"/>
+      <c r="AC128" s="0"/>
+      <c r="AD128" s="0"/>
+      <c r="AE128" s="0"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="B129" s="49"/>
+        <v>6</v>
+      </c>
+      <c r="B129" s="50"/>
       <c r="C129" s="0"/>
       <c r="D129" s="43"/>
       <c r="E129" s="0"/>
@@ -5670,15 +5587,15 @@
       <c r="Y129" s="0"/>
       <c r="Z129" s="45"/>
       <c r="AA129" s="40"/>
-      <c r="AC129" s="79"/>
-      <c r="AD129" s="80"/>
-      <c r="AE129" s="81"/>
+      <c r="AC129" s="57"/>
+      <c r="AD129" s="58"/>
+      <c r="AE129" s="59"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B130" s="49"/>
+        <v>7</v>
+      </c>
+      <c r="B130" s="50"/>
       <c r="C130" s="0"/>
       <c r="D130" s="43"/>
       <c r="E130" s="0"/>
@@ -5704,15 +5621,15 @@
       <c r="Y130" s="0"/>
       <c r="Z130" s="45"/>
       <c r="AA130" s="40"/>
-      <c r="AC130" s="79"/>
-      <c r="AD130" s="80"/>
-      <c r="AE130" s="81"/>
+      <c r="AC130" s="57"/>
+      <c r="AD130" s="58"/>
+      <c r="AE130" s="59"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="B131" s="49"/>
+        <v>8</v>
+      </c>
+      <c r="B131" s="50"/>
       <c r="C131" s="0"/>
       <c r="D131" s="43"/>
       <c r="E131" s="0"/>
@@ -5738,17 +5655,16 @@
       <c r="Y131" s="0"/>
       <c r="Z131" s="45"/>
       <c r="AA131" s="40"/>
-      <c r="AC131" s="79"/>
-      <c r="AD131" s="80"/>
-      <c r="AE131" s="81"/>
+      <c r="AC131" s="57"/>
+      <c r="AD131" s="58"/>
+      <c r="AE131" s="59"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="B132" s="50"/>
+        <v>9</v>
+      </c>
       <c r="C132" s="0"/>
-      <c r="D132" s="43"/>
+      <c r="D132" s="0"/>
       <c r="E132" s="0"/>
       <c r="F132" s="0"/>
       <c r="G132" s="0"/>
@@ -5772,15 +5688,15 @@
       <c r="Y132" s="0"/>
       <c r="Z132" s="45"/>
       <c r="AA132" s="40"/>
-      <c r="AC132" s="79"/>
-      <c r="AD132" s="80"/>
-      <c r="AE132" s="81"/>
+      <c r="AC132" s="57"/>
+      <c r="AD132" s="58"/>
+      <c r="AE132" s="59"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="B133" s="55"/>
+        <v>10</v>
+      </c>
+      <c r="B133" s="49"/>
       <c r="C133" s="0"/>
       <c r="D133" s="43"/>
       <c r="E133" s="0"/>
@@ -5806,15 +5722,15 @@
       <c r="Y133" s="0"/>
       <c r="Z133" s="45"/>
       <c r="AA133" s="40"/>
-      <c r="AC133" s="79"/>
-      <c r="AD133" s="80"/>
-      <c r="AE133" s="81"/>
+      <c r="AC133" s="57"/>
+      <c r="AD133" s="58"/>
+      <c r="AE133" s="59"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="B134" s="55"/>
+        <v>11</v>
+      </c>
+      <c r="B134" s="49"/>
       <c r="C134" s="0"/>
       <c r="D134" s="43"/>
       <c r="E134" s="0"/>
@@ -5840,15 +5756,15 @@
       <c r="Y134" s="0"/>
       <c r="Z134" s="45"/>
       <c r="AA134" s="40"/>
-      <c r="AC134" s="79"/>
-      <c r="AD134" s="80"/>
-      <c r="AE134" s="81"/>
+      <c r="AC134" s="57"/>
+      <c r="AD134" s="58"/>
+      <c r="AE134" s="59"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="B135" s="55"/>
+        <v>12</v>
+      </c>
+      <c r="B135" s="49"/>
       <c r="C135" s="0"/>
       <c r="D135" s="43"/>
       <c r="E135" s="0"/>
@@ -5874,15 +5790,15 @@
       <c r="Y135" s="0"/>
       <c r="Z135" s="45"/>
       <c r="AA135" s="40"/>
-      <c r="AC135" s="79"/>
-      <c r="AD135" s="80"/>
-      <c r="AE135" s="81"/>
+      <c r="AC135" s="57"/>
+      <c r="AD135" s="58"/>
+      <c r="AE135" s="59"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="B136" s="55"/>
+        <v>13</v>
+      </c>
+      <c r="B136" s="49"/>
       <c r="C136" s="0"/>
       <c r="D136" s="43"/>
       <c r="E136" s="0"/>
@@ -5908,374 +5824,422 @@
       <c r="Y136" s="0"/>
       <c r="Z136" s="45"/>
       <c r="AA136" s="40"/>
-      <c r="AC136" s="79"/>
-      <c r="AD136" s="80"/>
-      <c r="AE136" s="81"/>
+      <c r="AC136" s="57"/>
+      <c r="AD136" s="58"/>
+      <c r="AE136" s="59"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="0" t="s">
+      <c r="A137" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B137" s="49"/>
+      <c r="C137" s="0"/>
+      <c r="D137" s="43"/>
+      <c r="E137" s="0"/>
+      <c r="F137" s="0"/>
+      <c r="G137" s="0"/>
+      <c r="H137" s="0"/>
+      <c r="I137" s="43"/>
+      <c r="J137" s="0"/>
+      <c r="K137" s="0"/>
+      <c r="L137" s="0"/>
+      <c r="M137" s="0"/>
+      <c r="N137" s="43"/>
+      <c r="O137" s="0"/>
+      <c r="P137" s="0"/>
+      <c r="Q137" s="0"/>
+      <c r="R137" s="0"/>
+      <c r="S137" s="43"/>
+      <c r="T137" s="0"/>
+      <c r="U137" s="0"/>
+      <c r="V137" s="0"/>
+      <c r="W137" s="0"/>
+      <c r="X137" s="44"/>
+      <c r="Y137" s="0"/>
+      <c r="Z137" s="45"/>
+      <c r="AA137" s="40"/>
+      <c r="AC137" s="57"/>
+      <c r="AD137" s="58"/>
+      <c r="AE137" s="59"/>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B138" s="49"/>
+      <c r="C138" s="0"/>
+      <c r="D138" s="43"/>
+      <c r="E138" s="0"/>
+      <c r="F138" s="0"/>
+      <c r="G138" s="0"/>
+      <c r="H138" s="0"/>
+      <c r="I138" s="43"/>
+      <c r="J138" s="0"/>
+      <c r="K138" s="0"/>
+      <c r="L138" s="0"/>
+      <c r="M138" s="0"/>
+      <c r="N138" s="43"/>
+      <c r="O138" s="0"/>
+      <c r="P138" s="0"/>
+      <c r="Q138" s="0"/>
+      <c r="R138" s="0"/>
+      <c r="S138" s="43"/>
+      <c r="T138" s="0"/>
+      <c r="U138" s="0"/>
+      <c r="V138" s="0"/>
+      <c r="W138" s="0"/>
+      <c r="X138" s="44"/>
+      <c r="Y138" s="0"/>
+      <c r="Z138" s="45"/>
+      <c r="AA138" s="40"/>
+      <c r="AC138" s="57"/>
+      <c r="AD138" s="58"/>
+      <c r="AE138" s="59"/>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B139" s="49"/>
+      <c r="C139" s="0"/>
+      <c r="D139" s="43"/>
+      <c r="E139" s="0"/>
+      <c r="F139" s="0"/>
+      <c r="G139" s="0"/>
+      <c r="H139" s="0"/>
+      <c r="I139" s="43"/>
+      <c r="J139" s="0"/>
+      <c r="K139" s="0"/>
+      <c r="L139" s="0"/>
+      <c r="M139" s="0"/>
+      <c r="N139" s="43"/>
+      <c r="O139" s="0"/>
+      <c r="P139" s="0"/>
+      <c r="Q139" s="0"/>
+      <c r="R139" s="0"/>
+      <c r="S139" s="43"/>
+      <c r="T139" s="0"/>
+      <c r="U139" s="0"/>
+      <c r="V139" s="0"/>
+      <c r="W139" s="0"/>
+      <c r="X139" s="44"/>
+      <c r="Y139" s="0"/>
+      <c r="Z139" s="45"/>
+      <c r="AA139" s="40"/>
+      <c r="AC139" s="57"/>
+      <c r="AD139" s="58"/>
+      <c r="AE139" s="59"/>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B140" s="49"/>
+      <c r="C140" s="0"/>
+      <c r="D140" s="43"/>
+      <c r="E140" s="0"/>
+      <c r="F140" s="0"/>
+      <c r="G140" s="0"/>
+      <c r="H140" s="0"/>
+      <c r="I140" s="43"/>
+      <c r="J140" s="0"/>
+      <c r="K140" s="0"/>
+      <c r="L140" s="0"/>
+      <c r="M140" s="0"/>
+      <c r="N140" s="43"/>
+      <c r="O140" s="0"/>
+      <c r="P140" s="0"/>
+      <c r="Q140" s="0"/>
+      <c r="R140" s="0"/>
+      <c r="S140" s="43"/>
+      <c r="T140" s="0"/>
+      <c r="U140" s="0"/>
+      <c r="V140" s="0"/>
+      <c r="W140" s="0"/>
+      <c r="X140" s="44"/>
+      <c r="Y140" s="0"/>
+      <c r="Z140" s="45"/>
+      <c r="AA140" s="40"/>
+      <c r="AC140" s="57"/>
+      <c r="AD140" s="58"/>
+      <c r="AE140" s="59"/>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B141" s="49"/>
+      <c r="C141" s="0"/>
+      <c r="D141" s="43"/>
+      <c r="E141" s="0"/>
+      <c r="F141" s="0"/>
+      <c r="G141" s="0"/>
+      <c r="H141" s="0"/>
+      <c r="I141" s="43"/>
+      <c r="J141" s="0"/>
+      <c r="K141" s="0"/>
+      <c r="L141" s="0"/>
+      <c r="M141" s="0"/>
+      <c r="N141" s="43"/>
+      <c r="O141" s="0"/>
+      <c r="P141" s="0"/>
+      <c r="Q141" s="0"/>
+      <c r="R141" s="0"/>
+      <c r="S141" s="43"/>
+      <c r="T141" s="0"/>
+      <c r="U141" s="0"/>
+      <c r="V141" s="0"/>
+      <c r="W141" s="0"/>
+      <c r="X141" s="44"/>
+      <c r="Y141" s="0"/>
+      <c r="Z141" s="45"/>
+      <c r="AA141" s="40"/>
+      <c r="AC141" s="57"/>
+      <c r="AD141" s="58"/>
+      <c r="AE141" s="59"/>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B142" s="49"/>
+      <c r="C142" s="0"/>
+      <c r="D142" s="43"/>
+      <c r="E142" s="0"/>
+      <c r="F142" s="0"/>
+      <c r="G142" s="0"/>
+      <c r="H142" s="0"/>
+      <c r="I142" s="43"/>
+      <c r="J142" s="0"/>
+      <c r="K142" s="0"/>
+      <c r="L142" s="0"/>
+      <c r="M142" s="0"/>
+      <c r="N142" s="43"/>
+      <c r="O142" s="0"/>
+      <c r="P142" s="0"/>
+      <c r="Q142" s="0"/>
+      <c r="R142" s="0"/>
+      <c r="S142" s="43"/>
+      <c r="T142" s="0"/>
+      <c r="U142" s="0"/>
+      <c r="V142" s="0"/>
+      <c r="W142" s="0"/>
+      <c r="X142" s="44"/>
+      <c r="Y142" s="0"/>
+      <c r="Z142" s="45"/>
+      <c r="AA142" s="40"/>
+      <c r="AC142" s="57"/>
+      <c r="AD142" s="58"/>
+      <c r="AE142" s="59"/>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B143" s="49"/>
+      <c r="C143" s="0"/>
+      <c r="D143" s="43"/>
+      <c r="E143" s="0"/>
+      <c r="F143" s="0"/>
+      <c r="G143" s="0"/>
+      <c r="H143" s="0"/>
+      <c r="I143" s="43"/>
+      <c r="J143" s="0"/>
+      <c r="K143" s="0"/>
+      <c r="L143" s="0"/>
+      <c r="M143" s="0"/>
+      <c r="N143" s="43"/>
+      <c r="O143" s="0"/>
+      <c r="P143" s="0"/>
+      <c r="Q143" s="0"/>
+      <c r="R143" s="0"/>
+      <c r="S143" s="43"/>
+      <c r="T143" s="0"/>
+      <c r="U143" s="0"/>
+      <c r="V143" s="0"/>
+      <c r="W143" s="0"/>
+      <c r="X143" s="44"/>
+      <c r="Y143" s="0"/>
+      <c r="Z143" s="45"/>
+      <c r="AA143" s="40"/>
+      <c r="AC143" s="57"/>
+      <c r="AD143" s="58"/>
+      <c r="AE143" s="59"/>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B144" s="50"/>
+      <c r="C144" s="0"/>
+      <c r="D144" s="43"/>
+      <c r="E144" s="0"/>
+      <c r="F144" s="0"/>
+      <c r="G144" s="0"/>
+      <c r="H144" s="0"/>
+      <c r="I144" s="43"/>
+      <c r="J144" s="0"/>
+      <c r="K144" s="0"/>
+      <c r="L144" s="0"/>
+      <c r="M144" s="0"/>
+      <c r="N144" s="43"/>
+      <c r="O144" s="0"/>
+      <c r="P144" s="0"/>
+      <c r="Q144" s="0"/>
+      <c r="R144" s="0"/>
+      <c r="S144" s="43"/>
+      <c r="T144" s="0"/>
+      <c r="U144" s="0"/>
+      <c r="V144" s="0"/>
+      <c r="W144" s="0"/>
+      <c r="X144" s="44"/>
+      <c r="Y144" s="0"/>
+      <c r="Z144" s="45"/>
+      <c r="AA144" s="40"/>
+      <c r="AC144" s="57"/>
+      <c r="AD144" s="58"/>
+      <c r="AE144" s="59"/>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B145" s="55"/>
+      <c r="C145" s="0"/>
+      <c r="D145" s="43"/>
+      <c r="E145" s="0"/>
+      <c r="F145" s="0"/>
+      <c r="G145" s="0"/>
+      <c r="H145" s="0"/>
+      <c r="I145" s="43"/>
+      <c r="J145" s="0"/>
+      <c r="K145" s="0"/>
+      <c r="L145" s="0"/>
+      <c r="M145" s="0"/>
+      <c r="N145" s="43"/>
+      <c r="O145" s="0"/>
+      <c r="P145" s="0"/>
+      <c r="Q145" s="0"/>
+      <c r="R145" s="0"/>
+      <c r="S145" s="43"/>
+      <c r="T145" s="0"/>
+      <c r="U145" s="0"/>
+      <c r="V145" s="0"/>
+      <c r="W145" s="0"/>
+      <c r="X145" s="44"/>
+      <c r="Y145" s="0"/>
+      <c r="Z145" s="45"/>
+      <c r="AA145" s="40"/>
+      <c r="AC145" s="57"/>
+      <c r="AD145" s="58"/>
+      <c r="AE145" s="59"/>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="C137" s="82"/>
-      <c r="D137" s="82"/>
-      <c r="E137" s="82"/>
-      <c r="F137" s="82"/>
-      <c r="G137" s="82"/>
-      <c r="H137" s="82"/>
-      <c r="I137" s="82"/>
-      <c r="J137" s="82"/>
-      <c r="K137" s="82"/>
-      <c r="L137" s="82"/>
-      <c r="M137" s="82"/>
-      <c r="N137" s="82"/>
-      <c r="O137" s="82"/>
-      <c r="P137" s="82"/>
-      <c r="Q137" s="82"/>
-      <c r="R137" s="82"/>
-      <c r="S137" s="82"/>
-      <c r="T137" s="82"/>
-      <c r="U137" s="82"/>
-      <c r="V137" s="82"/>
-      <c r="W137" s="82"/>
-      <c r="X137" s="82"/>
-      <c r="Y137" s="83"/>
-      <c r="Z137" s="82"/>
-      <c r="AA137" s="40"/>
-      <c r="AC137" s="79"/>
-      <c r="AD137" s="80"/>
-      <c r="AE137" s="81"/>
-    </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C138" s="82"/>
-      <c r="D138" s="82"/>
-      <c r="E138" s="82"/>
-      <c r="F138" s="82"/>
-      <c r="G138" s="82"/>
-      <c r="H138" s="82"/>
-      <c r="I138" s="82"/>
-      <c r="J138" s="82"/>
-      <c r="K138" s="82"/>
-      <c r="L138" s="82"/>
-      <c r="M138" s="82"/>
-      <c r="N138" s="82"/>
-      <c r="O138" s="82"/>
-      <c r="P138" s="82"/>
-      <c r="Q138" s="82"/>
-      <c r="R138" s="82"/>
-      <c r="S138" s="82"/>
-      <c r="T138" s="82"/>
-      <c r="U138" s="82"/>
-      <c r="V138" s="82"/>
-      <c r="W138" s="82"/>
-      <c r="X138" s="82"/>
-      <c r="Y138" s="83"/>
-      <c r="Z138" s="82"/>
-      <c r="AA138" s="40"/>
-      <c r="AC138" s="79"/>
-      <c r="AD138" s="80"/>
-      <c r="AE138" s="81"/>
-    </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C139" s="82"/>
-      <c r="D139" s="82"/>
-      <c r="E139" s="82"/>
-      <c r="F139" s="82"/>
-      <c r="G139" s="82"/>
-      <c r="H139" s="82"/>
-      <c r="I139" s="82"/>
-      <c r="J139" s="82"/>
-      <c r="K139" s="82"/>
-      <c r="L139" s="82"/>
-      <c r="M139" s="82"/>
-      <c r="N139" s="82"/>
-      <c r="O139" s="82"/>
-      <c r="P139" s="82"/>
-      <c r="Q139" s="82"/>
-      <c r="R139" s="82"/>
-      <c r="S139" s="82"/>
-      <c r="T139" s="82"/>
-      <c r="U139" s="82"/>
-      <c r="V139" s="82"/>
-      <c r="W139" s="82"/>
-      <c r="X139" s="82"/>
-      <c r="Y139" s="83"/>
-      <c r="Z139" s="82"/>
-      <c r="AA139" s="40"/>
-      <c r="AC139" s="79"/>
-      <c r="AD139" s="80"/>
-      <c r="AE139" s="81"/>
-    </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C140" s="82"/>
-      <c r="D140" s="82"/>
-      <c r="E140" s="82"/>
-      <c r="F140" s="82"/>
-      <c r="G140" s="82"/>
-      <c r="H140" s="82"/>
-      <c r="I140" s="82"/>
-      <c r="J140" s="82"/>
-      <c r="K140" s="82"/>
-      <c r="L140" s="82"/>
-      <c r="M140" s="82"/>
-      <c r="N140" s="82"/>
-      <c r="O140" s="82"/>
-      <c r="P140" s="82"/>
-      <c r="Q140" s="82"/>
-      <c r="R140" s="82"/>
-      <c r="S140" s="82"/>
-      <c r="T140" s="82"/>
-      <c r="U140" s="82"/>
-      <c r="V140" s="82"/>
-      <c r="W140" s="82"/>
-      <c r="X140" s="82"/>
-      <c r="Y140" s="83"/>
-      <c r="Z140" s="82"/>
-      <c r="AA140" s="40"/>
-      <c r="AC140" s="79"/>
-      <c r="AD140" s="80"/>
-      <c r="AE140" s="81"/>
-    </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C141" s="82"/>
-      <c r="D141" s="82"/>
-      <c r="E141" s="82"/>
-      <c r="F141" s="82"/>
-      <c r="G141" s="82"/>
-      <c r="H141" s="82"/>
-      <c r="I141" s="82"/>
-      <c r="J141" s="82"/>
-      <c r="K141" s="82"/>
-      <c r="L141" s="82"/>
-      <c r="M141" s="82"/>
-      <c r="N141" s="82"/>
-      <c r="O141" s="82"/>
-      <c r="P141" s="82"/>
-      <c r="Q141" s="82"/>
-      <c r="R141" s="82"/>
-      <c r="S141" s="82"/>
-      <c r="T141" s="82"/>
-      <c r="U141" s="82"/>
-      <c r="V141" s="82"/>
-      <c r="W141" s="82"/>
-      <c r="X141" s="82"/>
-      <c r="Y141" s="83"/>
-      <c r="Z141" s="82"/>
-      <c r="AA141" s="40"/>
-      <c r="AC141" s="79"/>
-      <c r="AD141" s="80"/>
-      <c r="AE141" s="81"/>
-    </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C142" s="82"/>
-      <c r="D142" s="82"/>
-      <c r="E142" s="82"/>
-      <c r="F142" s="82"/>
-      <c r="G142" s="82"/>
-      <c r="H142" s="82"/>
-      <c r="I142" s="82"/>
-      <c r="J142" s="82"/>
-      <c r="K142" s="82"/>
-      <c r="L142" s="82"/>
-      <c r="M142" s="82"/>
-      <c r="N142" s="82"/>
-      <c r="O142" s="82"/>
-      <c r="P142" s="82"/>
-      <c r="Q142" s="82"/>
-      <c r="R142" s="82"/>
-      <c r="S142" s="82"/>
-      <c r="T142" s="82"/>
-      <c r="U142" s="82"/>
-      <c r="V142" s="82"/>
-      <c r="W142" s="82"/>
-      <c r="X142" s="82"/>
-      <c r="Y142" s="83"/>
-      <c r="Z142" s="82"/>
-      <c r="AA142" s="40"/>
-      <c r="AC142" s="79"/>
-      <c r="AD142" s="80"/>
-      <c r="AE142" s="81"/>
-    </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C143" s="82"/>
-      <c r="D143" s="82"/>
-      <c r="E143" s="82"/>
-      <c r="F143" s="82"/>
-      <c r="G143" s="82"/>
-      <c r="H143" s="82"/>
-      <c r="I143" s="82"/>
-      <c r="J143" s="82"/>
-      <c r="K143" s="82"/>
-      <c r="L143" s="82"/>
-      <c r="M143" s="82"/>
-      <c r="N143" s="82"/>
-      <c r="O143" s="82"/>
-      <c r="P143" s="82"/>
-      <c r="Q143" s="82"/>
-      <c r="R143" s="82"/>
-      <c r="S143" s="82"/>
-      <c r="T143" s="82"/>
-      <c r="U143" s="82"/>
-      <c r="V143" s="82"/>
-      <c r="W143" s="82"/>
-      <c r="X143" s="82"/>
-      <c r="Y143" s="83"/>
-      <c r="Z143" s="82"/>
-      <c r="AA143" s="40"/>
-      <c r="AC143" s="79"/>
-      <c r="AD143" s="80"/>
-      <c r="AE143" s="81"/>
-    </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C144" s="82"/>
-      <c r="D144" s="82"/>
-      <c r="E144" s="82"/>
-      <c r="F144" s="82"/>
-      <c r="G144" s="82"/>
-      <c r="H144" s="82"/>
-      <c r="I144" s="82"/>
-      <c r="J144" s="82"/>
-      <c r="K144" s="82"/>
-      <c r="L144" s="82"/>
-      <c r="M144" s="82"/>
-      <c r="N144" s="82"/>
-      <c r="O144" s="82"/>
-      <c r="P144" s="82"/>
-      <c r="Q144" s="82"/>
-      <c r="R144" s="82"/>
-      <c r="S144" s="82"/>
-      <c r="T144" s="82"/>
-      <c r="U144" s="82"/>
-      <c r="V144" s="82"/>
-      <c r="W144" s="82"/>
-      <c r="X144" s="82"/>
-      <c r="Y144" s="83"/>
-      <c r="Z144" s="82"/>
-      <c r="AA144" s="40"/>
-      <c r="AC144" s="79"/>
-      <c r="AD144" s="80"/>
-      <c r="AE144" s="81"/>
-    </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C145" s="82"/>
-      <c r="D145" s="82"/>
-      <c r="E145" s="82"/>
-      <c r="F145" s="82"/>
-      <c r="G145" s="82"/>
-      <c r="H145" s="82"/>
-      <c r="I145" s="82"/>
-      <c r="J145" s="82"/>
-      <c r="K145" s="82"/>
-      <c r="L145" s="82"/>
-      <c r="M145" s="82"/>
-      <c r="N145" s="82"/>
-      <c r="O145" s="82"/>
-      <c r="P145" s="82"/>
-      <c r="Q145" s="82"/>
-      <c r="R145" s="82"/>
-      <c r="S145" s="82"/>
-      <c r="T145" s="82"/>
-      <c r="U145" s="82"/>
-      <c r="V145" s="82"/>
-      <c r="W145" s="82"/>
-      <c r="X145" s="82"/>
-      <c r="Y145" s="83"/>
-      <c r="Z145" s="82"/>
-      <c r="AA145" s="40"/>
-      <c r="AC145" s="79"/>
-      <c r="AD145" s="80"/>
-      <c r="AE145" s="81"/>
-    </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C146" s="82"/>
-      <c r="D146" s="82"/>
-      <c r="E146" s="82"/>
-      <c r="F146" s="82"/>
-      <c r="G146" s="82"/>
-      <c r="H146" s="82"/>
-      <c r="I146" s="82"/>
-      <c r="J146" s="82"/>
-      <c r="K146" s="82"/>
-      <c r="L146" s="82"/>
-      <c r="M146" s="82"/>
-      <c r="N146" s="82"/>
-      <c r="O146" s="82"/>
-      <c r="P146" s="82"/>
-      <c r="Q146" s="82"/>
-      <c r="R146" s="82"/>
-      <c r="S146" s="82"/>
-      <c r="T146" s="82"/>
-      <c r="U146" s="82"/>
-      <c r="V146" s="82"/>
-      <c r="W146" s="82"/>
-      <c r="X146" s="82"/>
-      <c r="Y146" s="83"/>
-      <c r="Z146" s="82"/>
+      <c r="B146" s="55"/>
+      <c r="C146" s="0"/>
+      <c r="D146" s="43"/>
+      <c r="E146" s="0"/>
+      <c r="F146" s="0"/>
+      <c r="G146" s="0"/>
+      <c r="H146" s="0"/>
+      <c r="I146" s="43"/>
+      <c r="J146" s="0"/>
+      <c r="K146" s="0"/>
+      <c r="L146" s="0"/>
+      <c r="M146" s="0"/>
+      <c r="N146" s="43"/>
+      <c r="O146" s="0"/>
+      <c r="P146" s="0"/>
+      <c r="Q146" s="0"/>
+      <c r="R146" s="0"/>
+      <c r="S146" s="43"/>
+      <c r="T146" s="0"/>
+      <c r="U146" s="0"/>
+      <c r="V146" s="0"/>
+      <c r="W146" s="0"/>
+      <c r="X146" s="44"/>
+      <c r="Y146" s="0"/>
+      <c r="Z146" s="45"/>
       <c r="AA146" s="40"/>
-      <c r="AC146" s="79"/>
-      <c r="AD146" s="80"/>
-      <c r="AE146" s="81"/>
+      <c r="AC146" s="57"/>
+      <c r="AD146" s="58"/>
+      <c r="AE146" s="59"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C147" s="82"/>
-      <c r="D147" s="82"/>
-      <c r="E147" s="82"/>
-      <c r="F147" s="82"/>
-      <c r="G147" s="82"/>
-      <c r="H147" s="82"/>
-      <c r="I147" s="82"/>
-      <c r="J147" s="82"/>
-      <c r="K147" s="82"/>
-      <c r="L147" s="82"/>
-      <c r="M147" s="82"/>
-      <c r="N147" s="82"/>
-      <c r="O147" s="82"/>
-      <c r="P147" s="82"/>
-      <c r="Q147" s="82"/>
-      <c r="R147" s="82"/>
-      <c r="S147" s="82"/>
-      <c r="T147" s="82"/>
-      <c r="U147" s="82"/>
-      <c r="V147" s="82"/>
-      <c r="W147" s="82"/>
-      <c r="X147" s="82"/>
-      <c r="Y147" s="83"/>
-      <c r="Z147" s="82"/>
+      <c r="A147" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B147" s="55"/>
+      <c r="C147" s="0"/>
+      <c r="D147" s="43"/>
+      <c r="E147" s="0"/>
+      <c r="F147" s="0"/>
+      <c r="G147" s="0"/>
+      <c r="H147" s="0"/>
+      <c r="I147" s="43"/>
+      <c r="J147" s="0"/>
+      <c r="K147" s="0"/>
+      <c r="L147" s="0"/>
+      <c r="M147" s="0"/>
+      <c r="N147" s="43"/>
+      <c r="O147" s="0"/>
+      <c r="P147" s="0"/>
+      <c r="Q147" s="0"/>
+      <c r="R147" s="0"/>
+      <c r="S147" s="43"/>
+      <c r="T147" s="0"/>
+      <c r="U147" s="0"/>
+      <c r="V147" s="0"/>
+      <c r="W147" s="0"/>
+      <c r="X147" s="44"/>
+      <c r="Y147" s="0"/>
+      <c r="Z147" s="45"/>
       <c r="AA147" s="40"/>
-      <c r="AC147" s="79"/>
-      <c r="AD147" s="80"/>
-      <c r="AE147" s="81"/>
+      <c r="AC147" s="57"/>
+      <c r="AD147" s="58"/>
+      <c r="AE147" s="59"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C148" s="82"/>
-      <c r="D148" s="82"/>
-      <c r="E148" s="82"/>
-      <c r="F148" s="82"/>
-      <c r="G148" s="82"/>
-      <c r="H148" s="82"/>
-      <c r="I148" s="82"/>
-      <c r="J148" s="82"/>
-      <c r="K148" s="82"/>
-      <c r="L148" s="82"/>
-      <c r="M148" s="82"/>
-      <c r="N148" s="82"/>
-      <c r="O148" s="82"/>
-      <c r="P148" s="82"/>
-      <c r="Q148" s="82"/>
-      <c r="R148" s="82"/>
-      <c r="S148" s="82"/>
-      <c r="T148" s="82"/>
-      <c r="U148" s="82"/>
-      <c r="V148" s="82"/>
-      <c r="W148" s="82"/>
-      <c r="X148" s="82"/>
-      <c r="Y148" s="83"/>
-      <c r="Z148" s="82"/>
+      <c r="A148" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B148" s="55"/>
+      <c r="C148" s="0"/>
+      <c r="D148" s="43"/>
+      <c r="E148" s="0"/>
+      <c r="F148" s="0"/>
+      <c r="G148" s="0"/>
+      <c r="H148" s="0"/>
+      <c r="I148" s="43"/>
+      <c r="J148" s="0"/>
+      <c r="K148" s="0"/>
+      <c r="L148" s="0"/>
+      <c r="M148" s="0"/>
+      <c r="N148" s="43"/>
+      <c r="O148" s="0"/>
+      <c r="P148" s="0"/>
+      <c r="Q148" s="0"/>
+      <c r="R148" s="0"/>
+      <c r="S148" s="43"/>
+      <c r="T148" s="0"/>
+      <c r="U148" s="0"/>
+      <c r="V148" s="0"/>
+      <c r="W148" s="0"/>
+      <c r="X148" s="44"/>
+      <c r="Y148" s="0"/>
+      <c r="Z148" s="45"/>
       <c r="AA148" s="40"/>
-      <c r="AC148" s="79"/>
-      <c r="AD148" s="80"/>
-      <c r="AE148" s="81"/>
+      <c r="AC148" s="57"/>
+      <c r="AD148" s="58"/>
+      <c r="AE148" s="59"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="0" t="s">
+        <v>20</v>
+      </c>
       <c r="C149" s="82"/>
       <c r="D149" s="82"/>
       <c r="E149" s="82"/>
@@ -6301,9 +6265,9 @@
       <c r="Y149" s="83"/>
       <c r="Z149" s="82"/>
       <c r="AA149" s="40"/>
-      <c r="AC149" s="79"/>
-      <c r="AD149" s="80"/>
-      <c r="AE149" s="81"/>
+      <c r="AC149" s="57"/>
+      <c r="AD149" s="58"/>
+      <c r="AE149" s="59"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C150" s="82"/>
@@ -6331,9 +6295,9 @@
       <c r="Y150" s="83"/>
       <c r="Z150" s="82"/>
       <c r="AA150" s="40"/>
-      <c r="AC150" s="79"/>
-      <c r="AD150" s="80"/>
-      <c r="AE150" s="81"/>
+      <c r="AC150" s="57"/>
+      <c r="AD150" s="58"/>
+      <c r="AE150" s="59"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C151" s="82"/>
@@ -6361,9 +6325,9 @@
       <c r="Y151" s="83"/>
       <c r="Z151" s="82"/>
       <c r="AA151" s="40"/>
-      <c r="AC151" s="79"/>
-      <c r="AD151" s="80"/>
-      <c r="AE151" s="81"/>
+      <c r="AC151" s="57"/>
+      <c r="AD151" s="58"/>
+      <c r="AE151" s="59"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C152" s="82"/>
@@ -6391,9 +6355,9 @@
       <c r="Y152" s="83"/>
       <c r="Z152" s="82"/>
       <c r="AA152" s="40"/>
-      <c r="AC152" s="79"/>
-      <c r="AD152" s="80"/>
-      <c r="AE152" s="81"/>
+      <c r="AC152" s="57"/>
+      <c r="AD152" s="58"/>
+      <c r="AE152" s="59"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C153" s="82"/>
@@ -6421,9 +6385,9 @@
       <c r="Y153" s="83"/>
       <c r="Z153" s="82"/>
       <c r="AA153" s="40"/>
-      <c r="AC153" s="79"/>
-      <c r="AD153" s="80"/>
-      <c r="AE153" s="81"/>
+      <c r="AC153" s="57"/>
+      <c r="AD153" s="58"/>
+      <c r="AE153" s="59"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C154" s="82"/>
@@ -6451,9 +6415,9 @@
       <c r="Y154" s="83"/>
       <c r="Z154" s="82"/>
       <c r="AA154" s="40"/>
-      <c r="AC154" s="79"/>
-      <c r="AD154" s="80"/>
-      <c r="AE154" s="81"/>
+      <c r="AC154" s="57"/>
+      <c r="AD154" s="58"/>
+      <c r="AE154" s="59"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C155" s="82"/>
@@ -6481,9 +6445,9 @@
       <c r="Y155" s="83"/>
       <c r="Z155" s="82"/>
       <c r="AA155" s="40"/>
-      <c r="AC155" s="79"/>
-      <c r="AD155" s="80"/>
-      <c r="AE155" s="81"/>
+      <c r="AC155" s="57"/>
+      <c r="AD155" s="58"/>
+      <c r="AE155" s="59"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C156" s="82"/>
@@ -6511,9 +6475,9 @@
       <c r="Y156" s="83"/>
       <c r="Z156" s="82"/>
       <c r="AA156" s="40"/>
-      <c r="AC156" s="79"/>
-      <c r="AD156" s="80"/>
-      <c r="AE156" s="81"/>
+      <c r="AC156" s="57"/>
+      <c r="AD156" s="58"/>
+      <c r="AE156" s="59"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C157" s="82"/>
@@ -6541,9 +6505,9 @@
       <c r="Y157" s="83"/>
       <c r="Z157" s="82"/>
       <c r="AA157" s="40"/>
-      <c r="AC157" s="79"/>
-      <c r="AD157" s="80"/>
-      <c r="AE157" s="81"/>
+      <c r="AC157" s="57"/>
+      <c r="AD157" s="58"/>
+      <c r="AE157" s="59"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C158" s="82"/>
@@ -6571,9 +6535,9 @@
       <c r="Y158" s="83"/>
       <c r="Z158" s="82"/>
       <c r="AA158" s="40"/>
-      <c r="AC158" s="79"/>
-      <c r="AD158" s="80"/>
-      <c r="AE158" s="81"/>
+      <c r="AC158" s="57"/>
+      <c r="AD158" s="58"/>
+      <c r="AE158" s="59"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C159" s="82"/>
@@ -6601,9 +6565,9 @@
       <c r="Y159" s="83"/>
       <c r="Z159" s="82"/>
       <c r="AA159" s="40"/>
-      <c r="AC159" s="79"/>
-      <c r="AD159" s="80"/>
-      <c r="AE159" s="81"/>
+      <c r="AC159" s="57"/>
+      <c r="AD159" s="58"/>
+      <c r="AE159" s="59"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C160" s="82"/>
@@ -6631,9 +6595,9 @@
       <c r="Y160" s="83"/>
       <c r="Z160" s="82"/>
       <c r="AA160" s="40"/>
-      <c r="AC160" s="79"/>
-      <c r="AD160" s="80"/>
-      <c r="AE160" s="81"/>
+      <c r="AC160" s="57"/>
+      <c r="AD160" s="58"/>
+      <c r="AE160" s="59"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C161" s="82"/>
@@ -6661,386 +6625,398 @@
       <c r="Y161" s="83"/>
       <c r="Z161" s="82"/>
       <c r="AA161" s="40"/>
-      <c r="AC161" s="79"/>
-      <c r="AD161" s="80"/>
-      <c r="AE161" s="81"/>
+      <c r="AC161" s="57"/>
+      <c r="AD161" s="58"/>
+      <c r="AE161" s="59"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C162" s="84"/>
-      <c r="D162" s="84"/>
-      <c r="E162" s="84"/>
-      <c r="F162" s="84"/>
-      <c r="G162" s="84"/>
-      <c r="H162" s="84"/>
-      <c r="I162" s="84"/>
-      <c r="J162" s="84"/>
-      <c r="K162" s="84"/>
-      <c r="L162" s="84"/>
-      <c r="M162" s="84"/>
-      <c r="N162" s="84"/>
-      <c r="O162" s="84"/>
-      <c r="P162" s="84"/>
-      <c r="Q162" s="84"/>
-      <c r="R162" s="84"/>
-      <c r="S162" s="84"/>
-      <c r="T162" s="84"/>
-      <c r="U162" s="84"/>
-      <c r="V162" s="84"/>
-      <c r="W162" s="84"/>
-      <c r="X162" s="84"/>
-      <c r="Y162" s="85"/>
-      <c r="Z162" s="84"/>
-      <c r="AC162" s="79"/>
-      <c r="AD162" s="80"/>
-      <c r="AE162" s="81"/>
+      <c r="C162" s="82"/>
+      <c r="D162" s="82"/>
+      <c r="E162" s="82"/>
+      <c r="F162" s="82"/>
+      <c r="G162" s="82"/>
+      <c r="H162" s="82"/>
+      <c r="I162" s="82"/>
+      <c r="J162" s="82"/>
+      <c r="K162" s="82"/>
+      <c r="L162" s="82"/>
+      <c r="M162" s="82"/>
+      <c r="N162" s="82"/>
+      <c r="O162" s="82"/>
+      <c r="P162" s="82"/>
+      <c r="Q162" s="82"/>
+      <c r="R162" s="82"/>
+      <c r="S162" s="82"/>
+      <c r="T162" s="82"/>
+      <c r="U162" s="82"/>
+      <c r="V162" s="82"/>
+      <c r="W162" s="82"/>
+      <c r="X162" s="82"/>
+      <c r="Y162" s="83"/>
+      <c r="Z162" s="82"/>
+      <c r="AA162" s="40"/>
+      <c r="AC162" s="57"/>
+      <c r="AD162" s="58"/>
+      <c r="AE162" s="59"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C163" s="86"/>
-      <c r="D163" s="86"/>
-      <c r="E163" s="86"/>
-      <c r="F163" s="86"/>
-      <c r="G163" s="86"/>
-      <c r="H163" s="86"/>
-      <c r="I163" s="86"/>
-      <c r="J163" s="86"/>
-      <c r="K163" s="86"/>
-      <c r="L163" s="86"/>
-      <c r="M163" s="86"/>
-      <c r="N163" s="86"/>
-      <c r="O163" s="86"/>
-      <c r="P163" s="86"/>
-      <c r="Q163" s="86"/>
-      <c r="R163" s="86"/>
-      <c r="S163" s="86"/>
-      <c r="T163" s="86"/>
-      <c r="U163" s="86"/>
-      <c r="V163" s="86"/>
-      <c r="W163" s="86"/>
-      <c r="X163" s="86"/>
-      <c r="Y163" s="87"/>
-      <c r="Z163" s="86"/>
-      <c r="AC163" s="79"/>
-      <c r="AD163" s="80"/>
-      <c r="AE163" s="81"/>
+      <c r="C163" s="82"/>
+      <c r="D163" s="82"/>
+      <c r="E163" s="82"/>
+      <c r="F163" s="82"/>
+      <c r="G163" s="82"/>
+      <c r="H163" s="82"/>
+      <c r="I163" s="82"/>
+      <c r="J163" s="82"/>
+      <c r="K163" s="82"/>
+      <c r="L163" s="82"/>
+      <c r="M163" s="82"/>
+      <c r="N163" s="82"/>
+      <c r="O163" s="82"/>
+      <c r="P163" s="82"/>
+      <c r="Q163" s="82"/>
+      <c r="R163" s="82"/>
+      <c r="S163" s="82"/>
+      <c r="T163" s="82"/>
+      <c r="U163" s="82"/>
+      <c r="V163" s="82"/>
+      <c r="W163" s="82"/>
+      <c r="X163" s="82"/>
+      <c r="Y163" s="83"/>
+      <c r="Z163" s="82"/>
+      <c r="AA163" s="40"/>
+      <c r="AC163" s="57"/>
+      <c r="AD163" s="58"/>
+      <c r="AE163" s="59"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C164" s="86"/>
-      <c r="D164" s="86"/>
-      <c r="E164" s="86"/>
-      <c r="F164" s="86"/>
-      <c r="G164" s="86"/>
-      <c r="H164" s="86"/>
-      <c r="I164" s="86"/>
-      <c r="J164" s="86"/>
-      <c r="K164" s="86"/>
-      <c r="L164" s="86"/>
-      <c r="M164" s="86"/>
-      <c r="N164" s="86"/>
-      <c r="O164" s="86"/>
-      <c r="P164" s="86"/>
-      <c r="Q164" s="86"/>
-      <c r="R164" s="86"/>
-      <c r="S164" s="86"/>
-      <c r="T164" s="86"/>
-      <c r="U164" s="86"/>
-      <c r="V164" s="86"/>
-      <c r="W164" s="86"/>
-      <c r="X164" s="86"/>
-      <c r="Y164" s="87"/>
-      <c r="Z164" s="86"/>
-      <c r="AC164" s="79"/>
-      <c r="AD164" s="80"/>
-      <c r="AE164" s="81"/>
+      <c r="C164" s="82"/>
+      <c r="D164" s="82"/>
+      <c r="E164" s="82"/>
+      <c r="F164" s="82"/>
+      <c r="G164" s="82"/>
+      <c r="H164" s="82"/>
+      <c r="I164" s="82"/>
+      <c r="J164" s="82"/>
+      <c r="K164" s="82"/>
+      <c r="L164" s="82"/>
+      <c r="M164" s="82"/>
+      <c r="N164" s="82"/>
+      <c r="O164" s="82"/>
+      <c r="P164" s="82"/>
+      <c r="Q164" s="82"/>
+      <c r="R164" s="82"/>
+      <c r="S164" s="82"/>
+      <c r="T164" s="82"/>
+      <c r="U164" s="82"/>
+      <c r="V164" s="82"/>
+      <c r="W164" s="82"/>
+      <c r="X164" s="82"/>
+      <c r="Y164" s="83"/>
+      <c r="Z164" s="82"/>
+      <c r="AA164" s="40"/>
+      <c r="AC164" s="57"/>
+      <c r="AD164" s="58"/>
+      <c r="AE164" s="59"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C165" s="86"/>
-      <c r="D165" s="86"/>
-      <c r="E165" s="86"/>
-      <c r="F165" s="86"/>
-      <c r="G165" s="86"/>
-      <c r="H165" s="86"/>
-      <c r="I165" s="86"/>
-      <c r="J165" s="86"/>
-      <c r="K165" s="86"/>
-      <c r="L165" s="86"/>
-      <c r="M165" s="86"/>
-      <c r="N165" s="86"/>
-      <c r="O165" s="86"/>
-      <c r="P165" s="86"/>
-      <c r="Q165" s="86"/>
-      <c r="R165" s="86"/>
-      <c r="S165" s="86"/>
-      <c r="T165" s="86"/>
-      <c r="U165" s="86"/>
-      <c r="V165" s="86"/>
-      <c r="W165" s="86"/>
-      <c r="X165" s="86"/>
-      <c r="Y165" s="87"/>
-      <c r="Z165" s="86"/>
-      <c r="AC165" s="79"/>
-      <c r="AD165" s="80"/>
-      <c r="AE165" s="81"/>
+      <c r="C165" s="82"/>
+      <c r="D165" s="82"/>
+      <c r="E165" s="82"/>
+      <c r="F165" s="82"/>
+      <c r="G165" s="82"/>
+      <c r="H165" s="82"/>
+      <c r="I165" s="82"/>
+      <c r="J165" s="82"/>
+      <c r="K165" s="82"/>
+      <c r="L165" s="82"/>
+      <c r="M165" s="82"/>
+      <c r="N165" s="82"/>
+      <c r="O165" s="82"/>
+      <c r="P165" s="82"/>
+      <c r="Q165" s="82"/>
+      <c r="R165" s="82"/>
+      <c r="S165" s="82"/>
+      <c r="T165" s="82"/>
+      <c r="U165" s="82"/>
+      <c r="V165" s="82"/>
+      <c r="W165" s="82"/>
+      <c r="X165" s="82"/>
+      <c r="Y165" s="83"/>
+      <c r="Z165" s="82"/>
+      <c r="AA165" s="40"/>
+      <c r="AC165" s="57"/>
+      <c r="AD165" s="58"/>
+      <c r="AE165" s="59"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C166" s="86"/>
-      <c r="D166" s="86"/>
-      <c r="E166" s="86"/>
-      <c r="F166" s="86"/>
-      <c r="G166" s="86"/>
-      <c r="H166" s="86"/>
-      <c r="I166" s="86"/>
-      <c r="J166" s="86"/>
-      <c r="K166" s="86"/>
-      <c r="L166" s="86"/>
-      <c r="M166" s="86"/>
-      <c r="N166" s="86"/>
-      <c r="O166" s="86"/>
-      <c r="P166" s="86"/>
-      <c r="Q166" s="86"/>
-      <c r="R166" s="86"/>
-      <c r="S166" s="86"/>
-      <c r="T166" s="86"/>
-      <c r="U166" s="86"/>
-      <c r="V166" s="86"/>
-      <c r="W166" s="86"/>
-      <c r="X166" s="86"/>
-      <c r="Y166" s="87"/>
-      <c r="Z166" s="86"/>
-      <c r="AC166" s="79"/>
-      <c r="AD166" s="80"/>
-      <c r="AE166" s="81"/>
+      <c r="C166" s="82"/>
+      <c r="D166" s="82"/>
+      <c r="E166" s="82"/>
+      <c r="F166" s="82"/>
+      <c r="G166" s="82"/>
+      <c r="H166" s="82"/>
+      <c r="I166" s="82"/>
+      <c r="J166" s="82"/>
+      <c r="K166" s="82"/>
+      <c r="L166" s="82"/>
+      <c r="M166" s="82"/>
+      <c r="N166" s="82"/>
+      <c r="O166" s="82"/>
+      <c r="P166" s="82"/>
+      <c r="Q166" s="82"/>
+      <c r="R166" s="82"/>
+      <c r="S166" s="82"/>
+      <c r="T166" s="82"/>
+      <c r="U166" s="82"/>
+      <c r="V166" s="82"/>
+      <c r="W166" s="82"/>
+      <c r="X166" s="82"/>
+      <c r="Y166" s="83"/>
+      <c r="Z166" s="82"/>
+      <c r="AA166" s="40"/>
+      <c r="AC166" s="57"/>
+      <c r="AD166" s="58"/>
+      <c r="AE166" s="59"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C167" s="86"/>
-      <c r="D167" s="86"/>
-      <c r="E167" s="86"/>
-      <c r="F167" s="86"/>
-      <c r="G167" s="86"/>
-      <c r="H167" s="86"/>
-      <c r="I167" s="86"/>
-      <c r="J167" s="86"/>
-      <c r="K167" s="86"/>
-      <c r="L167" s="86"/>
-      <c r="M167" s="86"/>
-      <c r="N167" s="86"/>
-      <c r="O167" s="86"/>
-      <c r="P167" s="86"/>
-      <c r="Q167" s="86"/>
-      <c r="R167" s="86"/>
-      <c r="S167" s="86"/>
-      <c r="T167" s="86"/>
-      <c r="U167" s="86"/>
-      <c r="V167" s="86"/>
-      <c r="W167" s="86"/>
-      <c r="X167" s="86"/>
-      <c r="Y167" s="87"/>
-      <c r="Z167" s="86"/>
-      <c r="AC167" s="79"/>
-      <c r="AD167" s="80"/>
-      <c r="AE167" s="81"/>
+      <c r="C167" s="82"/>
+      <c r="D167" s="82"/>
+      <c r="E167" s="82"/>
+      <c r="F167" s="82"/>
+      <c r="G167" s="82"/>
+      <c r="H167" s="82"/>
+      <c r="I167" s="82"/>
+      <c r="J167" s="82"/>
+      <c r="K167" s="82"/>
+      <c r="L167" s="82"/>
+      <c r="M167" s="82"/>
+      <c r="N167" s="82"/>
+      <c r="O167" s="82"/>
+      <c r="P167" s="82"/>
+      <c r="Q167" s="82"/>
+      <c r="R167" s="82"/>
+      <c r="S167" s="82"/>
+      <c r="T167" s="82"/>
+      <c r="U167" s="82"/>
+      <c r="V167" s="82"/>
+      <c r="W167" s="82"/>
+      <c r="X167" s="82"/>
+      <c r="Y167" s="83"/>
+      <c r="Z167" s="82"/>
+      <c r="AA167" s="40"/>
+      <c r="AC167" s="57"/>
+      <c r="AD167" s="58"/>
+      <c r="AE167" s="59"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C168" s="86"/>
-      <c r="D168" s="86"/>
-      <c r="E168" s="86"/>
-      <c r="F168" s="86"/>
-      <c r="G168" s="86"/>
-      <c r="H168" s="86"/>
-      <c r="I168" s="86"/>
-      <c r="J168" s="86"/>
-      <c r="K168" s="86"/>
-      <c r="L168" s="86"/>
-      <c r="M168" s="86"/>
-      <c r="N168" s="86"/>
-      <c r="O168" s="86"/>
-      <c r="P168" s="86"/>
-      <c r="Q168" s="86"/>
-      <c r="R168" s="86"/>
-      <c r="S168" s="86"/>
-      <c r="T168" s="86"/>
-      <c r="U168" s="86"/>
-      <c r="V168" s="86"/>
-      <c r="W168" s="86"/>
-      <c r="X168" s="86"/>
-      <c r="Y168" s="87"/>
-      <c r="Z168" s="86"/>
-      <c r="AC168" s="79"/>
-      <c r="AD168" s="80"/>
-      <c r="AE168" s="81"/>
+      <c r="C168" s="82"/>
+      <c r="D168" s="82"/>
+      <c r="E168" s="82"/>
+      <c r="F168" s="82"/>
+      <c r="G168" s="82"/>
+      <c r="H168" s="82"/>
+      <c r="I168" s="82"/>
+      <c r="J168" s="82"/>
+      <c r="K168" s="82"/>
+      <c r="L168" s="82"/>
+      <c r="M168" s="82"/>
+      <c r="N168" s="82"/>
+      <c r="O168" s="82"/>
+      <c r="P168" s="82"/>
+      <c r="Q168" s="82"/>
+      <c r="R168" s="82"/>
+      <c r="S168" s="82"/>
+      <c r="T168" s="82"/>
+      <c r="U168" s="82"/>
+      <c r="V168" s="82"/>
+      <c r="W168" s="82"/>
+      <c r="X168" s="82"/>
+      <c r="Y168" s="83"/>
+      <c r="Z168" s="82"/>
+      <c r="AA168" s="40"/>
+      <c r="AC168" s="57"/>
+      <c r="AD168" s="58"/>
+      <c r="AE168" s="59"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C169" s="86"/>
-      <c r="D169" s="86"/>
-      <c r="E169" s="86"/>
-      <c r="F169" s="86"/>
-      <c r="G169" s="86"/>
-      <c r="H169" s="86"/>
-      <c r="I169" s="86"/>
-      <c r="J169" s="86"/>
-      <c r="K169" s="86"/>
-      <c r="L169" s="86"/>
-      <c r="M169" s="86"/>
-      <c r="N169" s="86"/>
-      <c r="O169" s="86"/>
-      <c r="P169" s="86"/>
-      <c r="Q169" s="86"/>
-      <c r="R169" s="86"/>
-      <c r="S169" s="86"/>
-      <c r="T169" s="86"/>
-      <c r="U169" s="86"/>
-      <c r="V169" s="86"/>
-      <c r="W169" s="86"/>
-      <c r="X169" s="86"/>
-      <c r="Y169" s="87"/>
-      <c r="Z169" s="86"/>
-      <c r="AC169" s="79"/>
-      <c r="AD169" s="80"/>
-      <c r="AE169" s="81"/>
+      <c r="C169" s="82"/>
+      <c r="D169" s="82"/>
+      <c r="E169" s="82"/>
+      <c r="F169" s="82"/>
+      <c r="G169" s="82"/>
+      <c r="H169" s="82"/>
+      <c r="I169" s="82"/>
+      <c r="J169" s="82"/>
+      <c r="K169" s="82"/>
+      <c r="L169" s="82"/>
+      <c r="M169" s="82"/>
+      <c r="N169" s="82"/>
+      <c r="O169" s="82"/>
+      <c r="P169" s="82"/>
+      <c r="Q169" s="82"/>
+      <c r="R169" s="82"/>
+      <c r="S169" s="82"/>
+      <c r="T169" s="82"/>
+      <c r="U169" s="82"/>
+      <c r="V169" s="82"/>
+      <c r="W169" s="82"/>
+      <c r="X169" s="82"/>
+      <c r="Y169" s="83"/>
+      <c r="Z169" s="82"/>
+      <c r="AA169" s="40"/>
+      <c r="AC169" s="57"/>
+      <c r="AD169" s="58"/>
+      <c r="AE169" s="59"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C170" s="86"/>
-      <c r="D170" s="86"/>
-      <c r="E170" s="86"/>
-      <c r="F170" s="86"/>
-      <c r="G170" s="86"/>
-      <c r="H170" s="86"/>
-      <c r="I170" s="86"/>
-      <c r="J170" s="86"/>
-      <c r="K170" s="86"/>
-      <c r="L170" s="86"/>
-      <c r="M170" s="86"/>
-      <c r="N170" s="86"/>
-      <c r="O170" s="86"/>
-      <c r="P170" s="86"/>
-      <c r="Q170" s="86"/>
-      <c r="R170" s="86"/>
-      <c r="S170" s="86"/>
-      <c r="T170" s="86"/>
-      <c r="U170" s="86"/>
-      <c r="V170" s="86"/>
-      <c r="W170" s="86"/>
-      <c r="X170" s="86"/>
-      <c r="Y170" s="87"/>
-      <c r="Z170" s="86"/>
-      <c r="AC170" s="79"/>
-      <c r="AD170" s="80"/>
-      <c r="AE170" s="81"/>
+      <c r="C170" s="82"/>
+      <c r="D170" s="82"/>
+      <c r="E170" s="82"/>
+      <c r="F170" s="82"/>
+      <c r="G170" s="82"/>
+      <c r="H170" s="82"/>
+      <c r="I170" s="82"/>
+      <c r="J170" s="82"/>
+      <c r="K170" s="82"/>
+      <c r="L170" s="82"/>
+      <c r="M170" s="82"/>
+      <c r="N170" s="82"/>
+      <c r="O170" s="82"/>
+      <c r="P170" s="82"/>
+      <c r="Q170" s="82"/>
+      <c r="R170" s="82"/>
+      <c r="S170" s="82"/>
+      <c r="T170" s="82"/>
+      <c r="U170" s="82"/>
+      <c r="V170" s="82"/>
+      <c r="W170" s="82"/>
+      <c r="X170" s="82"/>
+      <c r="Y170" s="83"/>
+      <c r="Z170" s="82"/>
+      <c r="AA170" s="40"/>
+      <c r="AC170" s="57"/>
+      <c r="AD170" s="58"/>
+      <c r="AE170" s="59"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C171" s="86"/>
-      <c r="D171" s="86"/>
-      <c r="E171" s="86"/>
-      <c r="F171" s="86"/>
-      <c r="G171" s="86"/>
-      <c r="H171" s="86"/>
-      <c r="I171" s="86"/>
-      <c r="J171" s="86"/>
-      <c r="K171" s="86"/>
-      <c r="L171" s="86"/>
-      <c r="M171" s="86"/>
-      <c r="N171" s="86"/>
-      <c r="O171" s="86"/>
-      <c r="P171" s="86"/>
-      <c r="Q171" s="86"/>
-      <c r="R171" s="86"/>
-      <c r="S171" s="86"/>
-      <c r="T171" s="86"/>
-      <c r="U171" s="86"/>
-      <c r="V171" s="86"/>
-      <c r="W171" s="86"/>
-      <c r="X171" s="86"/>
-      <c r="Y171" s="87"/>
-      <c r="Z171" s="86"/>
-      <c r="AC171" s="79"/>
-      <c r="AD171" s="80"/>
-      <c r="AE171" s="81"/>
+      <c r="C171" s="82"/>
+      <c r="D171" s="82"/>
+      <c r="E171" s="82"/>
+      <c r="F171" s="82"/>
+      <c r="G171" s="82"/>
+      <c r="H171" s="82"/>
+      <c r="I171" s="82"/>
+      <c r="J171" s="82"/>
+      <c r="K171" s="82"/>
+      <c r="L171" s="82"/>
+      <c r="M171" s="82"/>
+      <c r="N171" s="82"/>
+      <c r="O171" s="82"/>
+      <c r="P171" s="82"/>
+      <c r="Q171" s="82"/>
+      <c r="R171" s="82"/>
+      <c r="S171" s="82"/>
+      <c r="T171" s="82"/>
+      <c r="U171" s="82"/>
+      <c r="V171" s="82"/>
+      <c r="W171" s="82"/>
+      <c r="X171" s="82"/>
+      <c r="Y171" s="83"/>
+      <c r="Z171" s="82"/>
+      <c r="AA171" s="40"/>
+      <c r="AC171" s="57"/>
+      <c r="AD171" s="58"/>
+      <c r="AE171" s="59"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C172" s="86"/>
-      <c r="D172" s="86"/>
-      <c r="E172" s="86"/>
-      <c r="F172" s="86"/>
-      <c r="G172" s="86"/>
-      <c r="H172" s="86"/>
-      <c r="I172" s="86"/>
-      <c r="J172" s="86"/>
-      <c r="K172" s="86"/>
-      <c r="L172" s="86"/>
-      <c r="M172" s="86"/>
-      <c r="N172" s="86"/>
-      <c r="O172" s="86"/>
-      <c r="P172" s="86"/>
-      <c r="Q172" s="86"/>
-      <c r="R172" s="86"/>
-      <c r="S172" s="86"/>
-      <c r="T172" s="86"/>
-      <c r="U172" s="86"/>
-      <c r="V172" s="86"/>
-      <c r="W172" s="86"/>
-      <c r="X172" s="86"/>
-      <c r="Y172" s="87"/>
-      <c r="Z172" s="86"/>
-      <c r="AC172" s="79"/>
-      <c r="AD172" s="80"/>
-      <c r="AE172" s="81"/>
+      <c r="C172" s="82"/>
+      <c r="D172" s="82"/>
+      <c r="E172" s="82"/>
+      <c r="F172" s="82"/>
+      <c r="G172" s="82"/>
+      <c r="H172" s="82"/>
+      <c r="I172" s="82"/>
+      <c r="J172" s="82"/>
+      <c r="K172" s="82"/>
+      <c r="L172" s="82"/>
+      <c r="M172" s="82"/>
+      <c r="N172" s="82"/>
+      <c r="O172" s="82"/>
+      <c r="P172" s="82"/>
+      <c r="Q172" s="82"/>
+      <c r="R172" s="82"/>
+      <c r="S172" s="82"/>
+      <c r="T172" s="82"/>
+      <c r="U172" s="82"/>
+      <c r="V172" s="82"/>
+      <c r="W172" s="82"/>
+      <c r="X172" s="82"/>
+      <c r="Y172" s="83"/>
+      <c r="Z172" s="82"/>
+      <c r="AA172" s="40"/>
+      <c r="AC172" s="57"/>
+      <c r="AD172" s="58"/>
+      <c r="AE172" s="59"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C173" s="86"/>
-      <c r="D173" s="86"/>
-      <c r="E173" s="86"/>
-      <c r="F173" s="86"/>
-      <c r="G173" s="86"/>
-      <c r="H173" s="86"/>
-      <c r="I173" s="86"/>
-      <c r="J173" s="86"/>
-      <c r="K173" s="86"/>
-      <c r="L173" s="86"/>
-      <c r="M173" s="86"/>
-      <c r="N173" s="86"/>
-      <c r="O173" s="86"/>
-      <c r="P173" s="86"/>
-      <c r="Q173" s="86"/>
-      <c r="R173" s="86"/>
-      <c r="S173" s="86"/>
-      <c r="T173" s="86"/>
-      <c r="U173" s="86"/>
-      <c r="V173" s="86"/>
-      <c r="W173" s="86"/>
-      <c r="X173" s="86"/>
-      <c r="Y173" s="87"/>
-      <c r="Z173" s="86"/>
-      <c r="AC173" s="79"/>
-      <c r="AD173" s="80"/>
-      <c r="AE173" s="81"/>
+      <c r="C173" s="82"/>
+      <c r="D173" s="82"/>
+      <c r="E173" s="82"/>
+      <c r="F173" s="82"/>
+      <c r="G173" s="82"/>
+      <c r="H173" s="82"/>
+      <c r="I173" s="82"/>
+      <c r="J173" s="82"/>
+      <c r="K173" s="82"/>
+      <c r="L173" s="82"/>
+      <c r="M173" s="82"/>
+      <c r="N173" s="82"/>
+      <c r="O173" s="82"/>
+      <c r="P173" s="82"/>
+      <c r="Q173" s="82"/>
+      <c r="R173" s="82"/>
+      <c r="S173" s="82"/>
+      <c r="T173" s="82"/>
+      <c r="U173" s="82"/>
+      <c r="V173" s="82"/>
+      <c r="W173" s="82"/>
+      <c r="X173" s="82"/>
+      <c r="Y173" s="83"/>
+      <c r="Z173" s="82"/>
+      <c r="AA173" s="40"/>
+      <c r="AC173" s="57"/>
+      <c r="AD173" s="58"/>
+      <c r="AE173" s="59"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C174" s="86"/>
-      <c r="D174" s="86"/>
-      <c r="E174" s="86"/>
-      <c r="F174" s="86"/>
-      <c r="G174" s="86"/>
-      <c r="H174" s="86"/>
-      <c r="I174" s="86"/>
-      <c r="J174" s="86"/>
-      <c r="K174" s="86"/>
-      <c r="L174" s="86"/>
-      <c r="M174" s="86"/>
-      <c r="N174" s="86"/>
-      <c r="O174" s="86"/>
-      <c r="P174" s="86"/>
-      <c r="Q174" s="86"/>
-      <c r="R174" s="86"/>
-      <c r="S174" s="86"/>
-      <c r="T174" s="86"/>
-      <c r="U174" s="86"/>
-      <c r="V174" s="86"/>
-      <c r="W174" s="86"/>
-      <c r="X174" s="86"/>
-      <c r="Y174" s="87"/>
-      <c r="Z174" s="86"/>
-      <c r="AC174" s="79"/>
-      <c r="AD174" s="80"/>
-      <c r="AE174" s="81"/>
+      <c r="C174" s="84"/>
+      <c r="D174" s="84"/>
+      <c r="E174" s="84"/>
+      <c r="F174" s="84"/>
+      <c r="G174" s="84"/>
+      <c r="H174" s="84"/>
+      <c r="I174" s="84"/>
+      <c r="J174" s="84"/>
+      <c r="K174" s="84"/>
+      <c r="L174" s="84"/>
+      <c r="M174" s="84"/>
+      <c r="N174" s="84"/>
+      <c r="O174" s="84"/>
+      <c r="P174" s="84"/>
+      <c r="Q174" s="84"/>
+      <c r="R174" s="84"/>
+      <c r="S174" s="84"/>
+      <c r="T174" s="84"/>
+      <c r="U174" s="84"/>
+      <c r="V174" s="84"/>
+      <c r="W174" s="84"/>
+      <c r="X174" s="84"/>
+      <c r="Y174" s="85"/>
+      <c r="Z174" s="84"/>
+      <c r="AC174" s="57"/>
+      <c r="AD174" s="58"/>
+      <c r="AE174" s="59"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C175" s="86"/>
@@ -7067,9 +7043,9 @@
       <c r="X175" s="86"/>
       <c r="Y175" s="87"/>
       <c r="Z175" s="86"/>
-      <c r="AC175" s="79"/>
-      <c r="AD175" s="80"/>
-      <c r="AE175" s="81"/>
+      <c r="AC175" s="57"/>
+      <c r="AD175" s="58"/>
+      <c r="AE175" s="59"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C176" s="86"/>
@@ -7096,9 +7072,357 @@
       <c r="X176" s="86"/>
       <c r="Y176" s="87"/>
       <c r="Z176" s="86"/>
-      <c r="AC176" s="79"/>
-      <c r="AD176" s="80"/>
-      <c r="AE176" s="81"/>
+      <c r="AC176" s="57"/>
+      <c r="AD176" s="58"/>
+      <c r="AE176" s="59"/>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C177" s="86"/>
+      <c r="D177" s="86"/>
+      <c r="E177" s="86"/>
+      <c r="F177" s="86"/>
+      <c r="G177" s="86"/>
+      <c r="H177" s="86"/>
+      <c r="I177" s="86"/>
+      <c r="J177" s="86"/>
+      <c r="K177" s="86"/>
+      <c r="L177" s="86"/>
+      <c r="M177" s="86"/>
+      <c r="N177" s="86"/>
+      <c r="O177" s="86"/>
+      <c r="P177" s="86"/>
+      <c r="Q177" s="86"/>
+      <c r="R177" s="86"/>
+      <c r="S177" s="86"/>
+      <c r="T177" s="86"/>
+      <c r="U177" s="86"/>
+      <c r="V177" s="86"/>
+      <c r="W177" s="86"/>
+      <c r="X177" s="86"/>
+      <c r="Y177" s="87"/>
+      <c r="Z177" s="86"/>
+      <c r="AC177" s="57"/>
+      <c r="AD177" s="58"/>
+      <c r="AE177" s="59"/>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C178" s="86"/>
+      <c r="D178" s="86"/>
+      <c r="E178" s="86"/>
+      <c r="F178" s="86"/>
+      <c r="G178" s="86"/>
+      <c r="H178" s="86"/>
+      <c r="I178" s="86"/>
+      <c r="J178" s="86"/>
+      <c r="K178" s="86"/>
+      <c r="L178" s="86"/>
+      <c r="M178" s="86"/>
+      <c r="N178" s="86"/>
+      <c r="O178" s="86"/>
+      <c r="P178" s="86"/>
+      <c r="Q178" s="86"/>
+      <c r="R178" s="86"/>
+      <c r="S178" s="86"/>
+      <c r="T178" s="86"/>
+      <c r="U178" s="86"/>
+      <c r="V178" s="86"/>
+      <c r="W178" s="86"/>
+      <c r="X178" s="86"/>
+      <c r="Y178" s="87"/>
+      <c r="Z178" s="86"/>
+      <c r="AC178" s="57"/>
+      <c r="AD178" s="58"/>
+      <c r="AE178" s="59"/>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C179" s="86"/>
+      <c r="D179" s="86"/>
+      <c r="E179" s="86"/>
+      <c r="F179" s="86"/>
+      <c r="G179" s="86"/>
+      <c r="H179" s="86"/>
+      <c r="I179" s="86"/>
+      <c r="J179" s="86"/>
+      <c r="K179" s="86"/>
+      <c r="L179" s="86"/>
+      <c r="M179" s="86"/>
+      <c r="N179" s="86"/>
+      <c r="O179" s="86"/>
+      <c r="P179" s="86"/>
+      <c r="Q179" s="86"/>
+      <c r="R179" s="86"/>
+      <c r="S179" s="86"/>
+      <c r="T179" s="86"/>
+      <c r="U179" s="86"/>
+      <c r="V179" s="86"/>
+      <c r="W179" s="86"/>
+      <c r="X179" s="86"/>
+      <c r="Y179" s="87"/>
+      <c r="Z179" s="86"/>
+      <c r="AC179" s="57"/>
+      <c r="AD179" s="58"/>
+      <c r="AE179" s="59"/>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C180" s="86"/>
+      <c r="D180" s="86"/>
+      <c r="E180" s="86"/>
+      <c r="F180" s="86"/>
+      <c r="G180" s="86"/>
+      <c r="H180" s="86"/>
+      <c r="I180" s="86"/>
+      <c r="J180" s="86"/>
+      <c r="K180" s="86"/>
+      <c r="L180" s="86"/>
+      <c r="M180" s="86"/>
+      <c r="N180" s="86"/>
+      <c r="O180" s="86"/>
+      <c r="P180" s="86"/>
+      <c r="Q180" s="86"/>
+      <c r="R180" s="86"/>
+      <c r="S180" s="86"/>
+      <c r="T180" s="86"/>
+      <c r="U180" s="86"/>
+      <c r="V180" s="86"/>
+      <c r="W180" s="86"/>
+      <c r="X180" s="86"/>
+      <c r="Y180" s="87"/>
+      <c r="Z180" s="86"/>
+      <c r="AC180" s="57"/>
+      <c r="AD180" s="58"/>
+      <c r="AE180" s="59"/>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C181" s="86"/>
+      <c r="D181" s="86"/>
+      <c r="E181" s="86"/>
+      <c r="F181" s="86"/>
+      <c r="G181" s="86"/>
+      <c r="H181" s="86"/>
+      <c r="I181" s="86"/>
+      <c r="J181" s="86"/>
+      <c r="K181" s="86"/>
+      <c r="L181" s="86"/>
+      <c r="M181" s="86"/>
+      <c r="N181" s="86"/>
+      <c r="O181" s="86"/>
+      <c r="P181" s="86"/>
+      <c r="Q181" s="86"/>
+      <c r="R181" s="86"/>
+      <c r="S181" s="86"/>
+      <c r="T181" s="86"/>
+      <c r="U181" s="86"/>
+      <c r="V181" s="86"/>
+      <c r="W181" s="86"/>
+      <c r="X181" s="86"/>
+      <c r="Y181" s="87"/>
+      <c r="Z181" s="86"/>
+      <c r="AC181" s="57"/>
+      <c r="AD181" s="58"/>
+      <c r="AE181" s="59"/>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C182" s="86"/>
+      <c r="D182" s="86"/>
+      <c r="E182" s="86"/>
+      <c r="F182" s="86"/>
+      <c r="G182" s="86"/>
+      <c r="H182" s="86"/>
+      <c r="I182" s="86"/>
+      <c r="J182" s="86"/>
+      <c r="K182" s="86"/>
+      <c r="L182" s="86"/>
+      <c r="M182" s="86"/>
+      <c r="N182" s="86"/>
+      <c r="O182" s="86"/>
+      <c r="P182" s="86"/>
+      <c r="Q182" s="86"/>
+      <c r="R182" s="86"/>
+      <c r="S182" s="86"/>
+      <c r="T182" s="86"/>
+      <c r="U182" s="86"/>
+      <c r="V182" s="86"/>
+      <c r="W182" s="86"/>
+      <c r="X182" s="86"/>
+      <c r="Y182" s="87"/>
+      <c r="Z182" s="86"/>
+      <c r="AC182" s="57"/>
+      <c r="AD182" s="58"/>
+      <c r="AE182" s="59"/>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C183" s="86"/>
+      <c r="D183" s="86"/>
+      <c r="E183" s="86"/>
+      <c r="F183" s="86"/>
+      <c r="G183" s="86"/>
+      <c r="H183" s="86"/>
+      <c r="I183" s="86"/>
+      <c r="J183" s="86"/>
+      <c r="K183" s="86"/>
+      <c r="L183" s="86"/>
+      <c r="M183" s="86"/>
+      <c r="N183" s="86"/>
+      <c r="O183" s="86"/>
+      <c r="P183" s="86"/>
+      <c r="Q183" s="86"/>
+      <c r="R183" s="86"/>
+      <c r="S183" s="86"/>
+      <c r="T183" s="86"/>
+      <c r="U183" s="86"/>
+      <c r="V183" s="86"/>
+      <c r="W183" s="86"/>
+      <c r="X183" s="86"/>
+      <c r="Y183" s="87"/>
+      <c r="Z183" s="86"/>
+      <c r="AC183" s="57"/>
+      <c r="AD183" s="58"/>
+      <c r="AE183" s="59"/>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C184" s="86"/>
+      <c r="D184" s="86"/>
+      <c r="E184" s="86"/>
+      <c r="F184" s="86"/>
+      <c r="G184" s="86"/>
+      <c r="H184" s="86"/>
+      <c r="I184" s="86"/>
+      <c r="J184" s="86"/>
+      <c r="K184" s="86"/>
+      <c r="L184" s="86"/>
+      <c r="M184" s="86"/>
+      <c r="N184" s="86"/>
+      <c r="O184" s="86"/>
+      <c r="P184" s="86"/>
+      <c r="Q184" s="86"/>
+      <c r="R184" s="86"/>
+      <c r="S184" s="86"/>
+      <c r="T184" s="86"/>
+      <c r="U184" s="86"/>
+      <c r="V184" s="86"/>
+      <c r="W184" s="86"/>
+      <c r="X184" s="86"/>
+      <c r="Y184" s="87"/>
+      <c r="Z184" s="86"/>
+      <c r="AC184" s="57"/>
+      <c r="AD184" s="58"/>
+      <c r="AE184" s="59"/>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C185" s="86"/>
+      <c r="D185" s="86"/>
+      <c r="E185" s="86"/>
+      <c r="F185" s="86"/>
+      <c r="G185" s="86"/>
+      <c r="H185" s="86"/>
+      <c r="I185" s="86"/>
+      <c r="J185" s="86"/>
+      <c r="K185" s="86"/>
+      <c r="L185" s="86"/>
+      <c r="M185" s="86"/>
+      <c r="N185" s="86"/>
+      <c r="O185" s="86"/>
+      <c r="P185" s="86"/>
+      <c r="Q185" s="86"/>
+      <c r="R185" s="86"/>
+      <c r="S185" s="86"/>
+      <c r="T185" s="86"/>
+      <c r="U185" s="86"/>
+      <c r="V185" s="86"/>
+      <c r="W185" s="86"/>
+      <c r="X185" s="86"/>
+      <c r="Y185" s="87"/>
+      <c r="Z185" s="86"/>
+      <c r="AC185" s="57"/>
+      <c r="AD185" s="58"/>
+      <c r="AE185" s="59"/>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C186" s="86"/>
+      <c r="D186" s="86"/>
+      <c r="E186" s="86"/>
+      <c r="F186" s="86"/>
+      <c r="G186" s="86"/>
+      <c r="H186" s="86"/>
+      <c r="I186" s="86"/>
+      <c r="J186" s="86"/>
+      <c r="K186" s="86"/>
+      <c r="L186" s="86"/>
+      <c r="M186" s="86"/>
+      <c r="N186" s="86"/>
+      <c r="O186" s="86"/>
+      <c r="P186" s="86"/>
+      <c r="Q186" s="86"/>
+      <c r="R186" s="86"/>
+      <c r="S186" s="86"/>
+      <c r="T186" s="86"/>
+      <c r="U186" s="86"/>
+      <c r="V186" s="86"/>
+      <c r="W186" s="86"/>
+      <c r="X186" s="86"/>
+      <c r="Y186" s="87"/>
+      <c r="Z186" s="86"/>
+      <c r="AC186" s="57"/>
+      <c r="AD186" s="58"/>
+      <c r="AE186" s="59"/>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C187" s="86"/>
+      <c r="D187" s="86"/>
+      <c r="E187" s="86"/>
+      <c r="F187" s="86"/>
+      <c r="G187" s="86"/>
+      <c r="H187" s="86"/>
+      <c r="I187" s="86"/>
+      <c r="J187" s="86"/>
+      <c r="K187" s="86"/>
+      <c r="L187" s="86"/>
+      <c r="M187" s="86"/>
+      <c r="N187" s="86"/>
+      <c r="O187" s="86"/>
+      <c r="P187" s="86"/>
+      <c r="Q187" s="86"/>
+      <c r="R187" s="86"/>
+      <c r="S187" s="86"/>
+      <c r="T187" s="86"/>
+      <c r="U187" s="86"/>
+      <c r="V187" s="86"/>
+      <c r="W187" s="86"/>
+      <c r="X187" s="86"/>
+      <c r="Y187" s="87"/>
+      <c r="Z187" s="86"/>
+      <c r="AC187" s="57"/>
+      <c r="AD187" s="58"/>
+      <c r="AE187" s="59"/>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C188" s="86"/>
+      <c r="D188" s="86"/>
+      <c r="E188" s="86"/>
+      <c r="F188" s="86"/>
+      <c r="G188" s="86"/>
+      <c r="H188" s="86"/>
+      <c r="I188" s="86"/>
+      <c r="J188" s="86"/>
+      <c r="K188" s="86"/>
+      <c r="L188" s="86"/>
+      <c r="M188" s="86"/>
+      <c r="N188" s="86"/>
+      <c r="O188" s="86"/>
+      <c r="P188" s="86"/>
+      <c r="Q188" s="86"/>
+      <c r="R188" s="86"/>
+      <c r="S188" s="86"/>
+      <c r="T188" s="86"/>
+      <c r="U188" s="86"/>
+      <c r="V188" s="86"/>
+      <c r="W188" s="86"/>
+      <c r="X188" s="86"/>
+      <c r="Y188" s="87"/>
+      <c r="Z188" s="86"/>
+      <c r="AC188" s="57"/>
+      <c r="AD188" s="58"/>
+      <c r="AE188" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7118,17 +7442,17 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y34:Y56">
+  <conditionalFormatting sqref="Y42:Y64">
     <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y60:Y82">
+  <conditionalFormatting sqref="Y68:Y90">
     <cfRule type="cellIs" priority="5" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y86:Y108">
+  <conditionalFormatting sqref="Y98:Y120">
     <cfRule type="cellIs" priority="6" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>3</formula>
     </cfRule>
@@ -7138,7 +7462,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE34:AE56">
+  <conditionalFormatting sqref="AE42:AE64">
     <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>0</formula>
     </cfRule>
@@ -7146,22 +7470,22 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE60:AE81">
+  <conditionalFormatting sqref="AE68:AE89">
     <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE86:AE105">
+  <conditionalFormatting sqref="AE98:AE117">
     <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE82">
+  <conditionalFormatting sqref="AE90">
     <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE57">
+  <conditionalFormatting sqref="AE65">
     <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>0</formula>
     </cfRule>
@@ -7169,7 +7493,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y57">
+  <conditionalFormatting sqref="Y65">
     <cfRule type="cellIs" priority="15" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>3</formula>
     </cfRule>
@@ -7179,27 +7503,27 @@
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB58">
+  <conditionalFormatting sqref="AB66">
     <cfRule type="cellIs" priority="17" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB83">
+  <conditionalFormatting sqref="AB95">
     <cfRule type="cellIs" priority="18" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB106">
+  <conditionalFormatting sqref="AB118">
     <cfRule type="cellIs" priority="19" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y132">
+  <conditionalFormatting sqref="Y144">
     <cfRule type="cellIs" priority="20" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y112:Y134">
+  <conditionalFormatting sqref="Y124:Y146">
     <cfRule type="cellIs" priority="21" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>3</formula>
     </cfRule>
@@ -7222,14 +7546,14 @@
   <dimension ref="A1:AC137"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="87" zoomScaleNormal="87" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B85" activeCellId="0" sqref="B85"/>
+      <selection pane="topLeft" activeCell="B85" activeCellId="1" sqref="B93:H94 B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7295,7 +7619,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -7866,42 +8190,42 @@
       <c r="AC32" s="89"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="59"/>
-      <c r="Y33" s="61"/>
-      <c r="Z33" s="62"/>
-      <c r="AA33" s="63"/>
-      <c r="AB33" s="64"/>
+      <c r="B33" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="62"/>
+      <c r="T33" s="62"/>
+      <c r="U33" s="62"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="64"/>
+      <c r="Z33" s="65"/>
+      <c r="AA33" s="66"/>
+      <c r="AB33" s="67"/>
       <c r="AC33" s="89"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B34" s="67"/>
+      <c r="B34" s="70"/>
       <c r="C34" s="43"/>
       <c r="H34" s="43"/>
       <c r="M34" s="43"/>
@@ -8111,7 +8435,7 @@
       <c r="A49" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B49" s="67"/>
+      <c r="B49" s="70"/>
       <c r="C49" s="43"/>
       <c r="H49" s="43"/>
       <c r="M49" s="43"/>
@@ -8125,7 +8449,7 @@
       <c r="A50" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B50" s="67"/>
+      <c r="B50" s="70"/>
       <c r="C50" s="43"/>
       <c r="H50" s="43"/>
       <c r="M50" s="43"/>
@@ -8139,7 +8463,7 @@
       <c r="A51" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B51" s="67"/>
+      <c r="B51" s="70"/>
       <c r="C51" s="43"/>
       <c r="H51" s="43"/>
       <c r="M51" s="43"/>
@@ -8153,7 +8477,7 @@
       <c r="A52" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B52" s="67"/>
+      <c r="B52" s="70"/>
       <c r="C52" s="43"/>
       <c r="H52" s="43"/>
       <c r="M52" s="43"/>
@@ -8167,7 +8491,7 @@
       <c r="A53" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B53" s="67"/>
+      <c r="B53" s="70"/>
       <c r="C53" s="43"/>
       <c r="H53" s="43"/>
       <c r="M53" s="43"/>
@@ -8181,7 +8505,7 @@
       <c r="A54" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B54" s="67"/>
+      <c r="B54" s="70"/>
       <c r="C54" s="43"/>
       <c r="H54" s="43"/>
       <c r="M54" s="43"/>
@@ -8195,7 +8519,7 @@
       <c r="A55" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B55" s="67"/>
+      <c r="B55" s="70"/>
       <c r="C55" s="43"/>
       <c r="H55" s="43"/>
       <c r="M55" s="43"/>
@@ -8209,7 +8533,7 @@
       <c r="A56" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B56" s="68"/>
+      <c r="B56" s="71"/>
       <c r="C56" s="43"/>
       <c r="H56" s="43"/>
       <c r="M56" s="43"/>
@@ -8247,35 +8571,35 @@
       <c r="AC58" s="89"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" s="61"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="61"/>
-      <c r="J59" s="61"/>
-      <c r="K59" s="61"/>
-      <c r="L59" s="61"/>
-      <c r="M59" s="61"/>
-      <c r="N59" s="61"/>
-      <c r="O59" s="61"/>
-      <c r="P59" s="61"/>
-      <c r="Q59" s="61"/>
-      <c r="R59" s="61"/>
-      <c r="S59" s="61"/>
-      <c r="T59" s="61"/>
-      <c r="U59" s="61"/>
-      <c r="V59" s="61"/>
-      <c r="W59" s="61"/>
-      <c r="X59" s="61"/>
-      <c r="Y59" s="61"/>
-      <c r="Z59" s="62"/>
-      <c r="AA59" s="63"/>
-      <c r="AB59" s="64"/>
+      <c r="B59" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="64"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="64"/>
+      <c r="J59" s="64"/>
+      <c r="K59" s="64"/>
+      <c r="L59" s="64"/>
+      <c r="M59" s="64"/>
+      <c r="N59" s="64"/>
+      <c r="O59" s="64"/>
+      <c r="P59" s="64"/>
+      <c r="Q59" s="64"/>
+      <c r="R59" s="64"/>
+      <c r="S59" s="64"/>
+      <c r="T59" s="64"/>
+      <c r="U59" s="64"/>
+      <c r="V59" s="64"/>
+      <c r="W59" s="64"/>
+      <c r="X59" s="64"/>
+      <c r="Y59" s="64"/>
+      <c r="Z59" s="65"/>
+      <c r="AA59" s="66"/>
+      <c r="AB59" s="67"/>
       <c r="AC59" s="89"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8324,7 +8648,7 @@
       <c r="A63" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B63" s="67"/>
+      <c r="B63" s="70"/>
       <c r="C63" s="43"/>
       <c r="H63" s="43"/>
       <c r="M63" s="43"/>
@@ -8338,7 +8662,7 @@
       <c r="A64" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B64" s="67"/>
+      <c r="B64" s="70"/>
       <c r="C64" s="43"/>
       <c r="H64" s="43"/>
       <c r="M64" s="43"/>
@@ -8352,7 +8676,7 @@
       <c r="A65" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B65" s="67"/>
+      <c r="B65" s="70"/>
       <c r="C65" s="43"/>
       <c r="H65" s="43"/>
       <c r="M65" s="43"/>
@@ -8366,7 +8690,7 @@
       <c r="A66" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B66" s="67"/>
+      <c r="B66" s="70"/>
       <c r="C66" s="43"/>
       <c r="H66" s="43"/>
       <c r="M66" s="43"/>
@@ -8380,7 +8704,7 @@
       <c r="A67" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B67" s="67"/>
+      <c r="B67" s="70"/>
       <c r="C67" s="43"/>
       <c r="H67" s="43"/>
       <c r="M67" s="43"/>
@@ -8394,7 +8718,7 @@
       <c r="A68" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B68" s="67"/>
+      <c r="B68" s="70"/>
       <c r="C68" s="43"/>
       <c r="H68" s="43"/>
       <c r="M68" s="43"/>
@@ -8590,7 +8914,7 @@
       <c r="A82" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B82" s="74"/>
+      <c r="B82" s="77"/>
       <c r="C82" s="43"/>
       <c r="H82" s="43"/>
       <c r="M82" s="43"/>
@@ -8604,7 +8928,7 @@
       <c r="A83" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B83" s="75"/>
+      <c r="B83" s="78"/>
       <c r="C83" s="43"/>
       <c r="H83" s="43"/>
       <c r="M83" s="43"/>
@@ -8618,7 +8942,7 @@
       <c r="A84" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B84" s="75"/>
+      <c r="B84" s="78"/>
       <c r="C84" s="43"/>
       <c r="H84" s="43"/>
       <c r="M84" s="43"/>
@@ -8629,42 +8953,42 @@
       <c r="AC84" s="89"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="C85" s="61"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
-      <c r="G85" s="61"/>
-      <c r="H85" s="61"/>
-      <c r="I85" s="61"/>
-      <c r="J85" s="61"/>
-      <c r="K85" s="61"/>
-      <c r="L85" s="61"/>
-      <c r="M85" s="61"/>
-      <c r="N85" s="61"/>
-      <c r="O85" s="61"/>
-      <c r="P85" s="61"/>
-      <c r="Q85" s="61"/>
-      <c r="R85" s="61"/>
-      <c r="S85" s="61"/>
-      <c r="T85" s="61"/>
-      <c r="U85" s="61"/>
-      <c r="V85" s="61"/>
-      <c r="W85" s="61"/>
-      <c r="X85" s="61"/>
-      <c r="Y85" s="61"/>
-      <c r="Z85" s="62"/>
-      <c r="AA85" s="63"/>
-      <c r="AB85" s="64"/>
+      <c r="B85" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" s="64"/>
+      <c r="D85" s="64"/>
+      <c r="E85" s="64"/>
+      <c r="F85" s="64"/>
+      <c r="G85" s="64"/>
+      <c r="H85" s="64"/>
+      <c r="I85" s="64"/>
+      <c r="J85" s="64"/>
+      <c r="K85" s="64"/>
+      <c r="L85" s="64"/>
+      <c r="M85" s="64"/>
+      <c r="N85" s="64"/>
+      <c r="O85" s="64"/>
+      <c r="P85" s="64"/>
+      <c r="Q85" s="64"/>
+      <c r="R85" s="64"/>
+      <c r="S85" s="64"/>
+      <c r="T85" s="64"/>
+      <c r="U85" s="64"/>
+      <c r="V85" s="64"/>
+      <c r="W85" s="64"/>
+      <c r="X85" s="64"/>
+      <c r="Y85" s="64"/>
+      <c r="Z85" s="65"/>
+      <c r="AA85" s="66"/>
+      <c r="AB85" s="67"/>
       <c r="AC85" s="89"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B86" s="67"/>
+      <c r="B86" s="70"/>
       <c r="C86" s="43"/>
       <c r="H86" s="43"/>
       <c r="M86" s="43"/>
@@ -8678,7 +9002,7 @@
       <c r="A87" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B87" s="67"/>
+      <c r="B87" s="70"/>
       <c r="C87" s="43"/>
       <c r="H87" s="43"/>
       <c r="M87" s="43"/>
@@ -8692,7 +9016,7 @@
       <c r="A88" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B88" s="67"/>
+      <c r="B88" s="70"/>
       <c r="C88" s="43"/>
       <c r="H88" s="43"/>
       <c r="M88" s="43"/>
@@ -8706,7 +9030,7 @@
       <c r="A89" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B89" s="67"/>
+      <c r="B89" s="70"/>
       <c r="C89" s="43"/>
       <c r="H89" s="43"/>
       <c r="M89" s="43"/>
@@ -8720,7 +9044,7 @@
       <c r="A90" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B90" s="67"/>
+      <c r="B90" s="70"/>
       <c r="C90" s="43"/>
       <c r="H90" s="43"/>
       <c r="M90" s="43"/>
@@ -8734,7 +9058,7 @@
       <c r="A91" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B91" s="67"/>
+      <c r="B91" s="70"/>
       <c r="C91" s="43"/>
       <c r="H91" s="43"/>
       <c r="M91" s="43"/>
@@ -8748,7 +9072,7 @@
       <c r="A92" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B92" s="67"/>
+      <c r="B92" s="70"/>
       <c r="C92" s="43"/>
       <c r="H92" s="43"/>
       <c r="M92" s="43"/>
@@ -8762,7 +9086,7 @@
       <c r="A93" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B93" s="67"/>
+      <c r="B93" s="70"/>
       <c r="C93" s="43"/>
       <c r="H93" s="43"/>
       <c r="M93" s="43"/>
@@ -8776,7 +9100,7 @@
       <c r="A94" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B94" s="67"/>
+      <c r="B94" s="70"/>
       <c r="C94" s="43"/>
       <c r="H94" s="43"/>
       <c r="M94" s="43"/>
@@ -8790,7 +9114,7 @@
       <c r="A95" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B95" s="67"/>
+      <c r="B95" s="70"/>
       <c r="C95" s="43"/>
       <c r="H95" s="43"/>
       <c r="M95" s="43"/>
@@ -8804,7 +9128,7 @@
       <c r="A96" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B96" s="67"/>
+      <c r="B96" s="70"/>
       <c r="C96" s="43"/>
       <c r="H96" s="43"/>
       <c r="M96" s="43"/>
@@ -8818,7 +9142,7 @@
       <c r="A97" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B97" s="67"/>
+      <c r="B97" s="70"/>
       <c r="C97" s="43"/>
       <c r="H97" s="43"/>
       <c r="M97" s="43"/>
@@ -8832,7 +9156,7 @@
       <c r="A98" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B98" s="67"/>
+      <c r="B98" s="70"/>
       <c r="C98" s="43"/>
       <c r="H98" s="43"/>
       <c r="M98" s="43"/>
@@ -8846,7 +9170,7 @@
       <c r="A99" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B99" s="67"/>
+      <c r="B99" s="70"/>
       <c r="C99" s="43"/>
       <c r="H99" s="43"/>
       <c r="M99" s="43"/>
@@ -8860,7 +9184,7 @@
       <c r="A100" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B100" s="67"/>
+      <c r="B100" s="70"/>
       <c r="C100" s="43"/>
       <c r="H100" s="43"/>
       <c r="M100" s="43"/>
@@ -8874,7 +9198,7 @@
       <c r="A101" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B101" s="67"/>
+      <c r="B101" s="70"/>
       <c r="C101" s="43"/>
       <c r="H101" s="43"/>
       <c r="M101" s="43"/>
@@ -8888,7 +9212,7 @@
       <c r="A102" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B102" s="67"/>
+      <c r="B102" s="70"/>
       <c r="C102" s="43"/>
       <c r="H102" s="43"/>
       <c r="M102" s="43"/>
@@ -8902,7 +9226,7 @@
       <c r="A103" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B103" s="67"/>
+      <c r="B103" s="70"/>
       <c r="C103" s="43"/>
       <c r="H103" s="43"/>
       <c r="M103" s="43"/>
@@ -8916,7 +9240,7 @@
       <c r="A104" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B104" s="67"/>
+      <c r="B104" s="70"/>
       <c r="C104" s="43"/>
       <c r="H104" s="43"/>
       <c r="M104" s="43"/>
@@ -8930,7 +9254,7 @@
       <c r="A105" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B105" s="67"/>
+      <c r="B105" s="70"/>
       <c r="C105" s="43"/>
       <c r="H105" s="43"/>
       <c r="M105" s="43"/>
@@ -8944,7 +9268,7 @@
       <c r="A106" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B106" s="76"/>
+      <c r="B106" s="79"/>
       <c r="C106" s="43"/>
       <c r="H106" s="43"/>
       <c r="M106" s="43"/>
@@ -8952,13 +9276,13 @@
       <c r="W106" s="43"/>
       <c r="Z106" s="45"/>
       <c r="AB106" s="52"/>
-      <c r="AC106" s="77"/>
+      <c r="AC106" s="80"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B107" s="76"/>
+      <c r="B107" s="79"/>
       <c r="C107" s="43"/>
       <c r="H107" s="43"/>
       <c r="M107" s="43"/>
@@ -8971,20 +9295,20 @@
       <c r="A108" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B108" s="76"/>
+      <c r="B108" s="79"/>
       <c r="C108" s="43"/>
       <c r="H108" s="43"/>
       <c r="M108" s="43"/>
       <c r="R108" s="43"/>
       <c r="W108" s="43"/>
       <c r="Z108" s="45"/>
-      <c r="AB108" s="64"/>
+      <c r="AB108" s="67"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B109" s="76"/>
+      <c r="B109" s="79"/>
       <c r="C109" s="43"/>
       <c r="H109" s="43"/>
       <c r="M109" s="43"/>
@@ -8996,7 +9320,7 @@
       <c r="A110" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B110" s="76"/>
+      <c r="B110" s="79"/>
       <c r="C110" s="43"/>
       <c r="H110" s="43"/>
       <c r="M110" s="43"/>
@@ -9006,7 +9330,7 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="33" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C111" s="36"/>
       <c r="D111" s="35"/>
@@ -9105,7 +9429,7 @@
       <c r="W117" s="43"/>
       <c r="Z117" s="45"/>
       <c r="AA117" s="40"/>
-      <c r="AC117" s="79"/>
+      <c r="AC117" s="57"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
@@ -9119,7 +9443,7 @@
       <c r="W118" s="43"/>
       <c r="Z118" s="45"/>
       <c r="AA118" s="40"/>
-      <c r="AC118" s="79"/>
+      <c r="AC118" s="57"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
@@ -9133,7 +9457,7 @@
       <c r="W119" s="43"/>
       <c r="Z119" s="45"/>
       <c r="AA119" s="40"/>
-      <c r="AC119" s="79"/>
+      <c r="AC119" s="57"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
@@ -9147,7 +9471,7 @@
       <c r="W120" s="43"/>
       <c r="Z120" s="45"/>
       <c r="AA120" s="40"/>
-      <c r="AC120" s="79"/>
+      <c r="AC120" s="57"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
@@ -9161,7 +9485,7 @@
       <c r="W121" s="43"/>
       <c r="Z121" s="45"/>
       <c r="AA121" s="40"/>
-      <c r="AC121" s="79"/>
+      <c r="AC121" s="57"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
@@ -9175,7 +9499,7 @@
       <c r="W122" s="43"/>
       <c r="Z122" s="45"/>
       <c r="AA122" s="40"/>
-      <c r="AC122" s="79"/>
+      <c r="AC122" s="57"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
@@ -9189,7 +9513,7 @@
       <c r="W123" s="43"/>
       <c r="Z123" s="45"/>
       <c r="AA123" s="40"/>
-      <c r="AC123" s="79"/>
+      <c r="AC123" s="57"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
@@ -9203,7 +9527,7 @@
       <c r="W124" s="43"/>
       <c r="Z124" s="45"/>
       <c r="AA124" s="40"/>
-      <c r="AC124" s="79"/>
+      <c r="AC124" s="57"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
@@ -9217,7 +9541,7 @@
       <c r="W125" s="43"/>
       <c r="Z125" s="45"/>
       <c r="AA125" s="40"/>
-      <c r="AC125" s="79"/>
+      <c r="AC125" s="57"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
@@ -9231,7 +9555,7 @@
       <c r="W126" s="43"/>
       <c r="Z126" s="45"/>
       <c r="AA126" s="40"/>
-      <c r="AC126" s="79"/>
+      <c r="AC126" s="57"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
@@ -9245,7 +9569,7 @@
       <c r="W127" s="43"/>
       <c r="Z127" s="45"/>
       <c r="AA127" s="40"/>
-      <c r="AC127" s="79"/>
+      <c r="AC127" s="57"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
@@ -9259,7 +9583,7 @@
       <c r="W128" s="43"/>
       <c r="Z128" s="45"/>
       <c r="AA128" s="40"/>
-      <c r="AC128" s="79"/>
+      <c r="AC128" s="57"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="n">
@@ -9273,7 +9597,7 @@
       <c r="W129" s="43"/>
       <c r="Z129" s="45"/>
       <c r="AA129" s="40"/>
-      <c r="AC129" s="79"/>
+      <c r="AC129" s="57"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="n">
@@ -9287,7 +9611,7 @@
       <c r="W130" s="43"/>
       <c r="Z130" s="45"/>
       <c r="AA130" s="40"/>
-      <c r="AC130" s="79"/>
+      <c r="AC130" s="57"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="n">
@@ -9301,7 +9625,7 @@
       <c r="W131" s="43"/>
       <c r="Z131" s="45"/>
       <c r="AA131" s="40"/>
-      <c r="AC131" s="79"/>
+      <c r="AC131" s="57"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="n">
@@ -9315,7 +9639,7 @@
       <c r="W132" s="43"/>
       <c r="Z132" s="45"/>
       <c r="AA132" s="40"/>
-      <c r="AC132" s="79"/>
+      <c r="AC132" s="57"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="n">
@@ -9329,7 +9653,7 @@
       <c r="W133" s="43"/>
       <c r="Z133" s="45"/>
       <c r="AA133" s="40"/>
-      <c r="AC133" s="79"/>
+      <c r="AC133" s="57"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="n">
@@ -9343,7 +9667,7 @@
       <c r="W134" s="43"/>
       <c r="Z134" s="45"/>
       <c r="AA134" s="40"/>
-      <c r="AC134" s="79"/>
+      <c r="AC134" s="57"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="n">
@@ -9357,7 +9681,7 @@
       <c r="W135" s="43"/>
       <c r="Z135" s="45"/>
       <c r="AA135" s="40"/>
-      <c r="AC135" s="79"/>
+      <c r="AC135" s="57"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="n">
@@ -9371,11 +9695,11 @@
       <c r="W136" s="43"/>
       <c r="Z136" s="45"/>
       <c r="AA136" s="40"/>
-      <c r="AC136" s="79"/>
+      <c r="AC136" s="57"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -9464,12 +9788,12 @@
   <dimension ref="A1:AC137"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A116" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B85" activeCellId="0" sqref="B85"/>
+      <selection pane="topLeft" activeCell="B85" activeCellId="1" sqref="B93:H94 B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9500,7 +9824,7 @@
       <c r="X1" s="7"/>
       <c r="Y1" s="8"/>
       <c r="Z1" s="9"/>
-      <c r="AB1" s="79"/>
+      <c r="AB1" s="57"/>
       <c r="AC1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9531,7 +9855,7 @@
       <c r="X2" s="7"/>
       <c r="Y2" s="8"/>
       <c r="Z2" s="9"/>
-      <c r="AB2" s="79"/>
+      <c r="AB2" s="57"/>
       <c r="AC2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9539,7 +9863,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -9564,7 +9888,7 @@
       <c r="X3" s="14"/>
       <c r="Y3" s="15"/>
       <c r="Z3" s="16"/>
-      <c r="AB3" s="79"/>
+      <c r="AB3" s="57"/>
       <c r="AC3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9593,7 +9917,7 @@
       <c r="X4" s="14"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="16"/>
-      <c r="AB4" s="79"/>
+      <c r="AB4" s="57"/>
       <c r="AC4" s="17"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9666,8 +9990,8 @@
       </c>
       <c r="Y5" s="8"/>
       <c r="Z5" s="9"/>
-      <c r="AB5" s="79"/>
-      <c r="AC5" s="80"/>
+      <c r="AB5" s="57"/>
+      <c r="AC5" s="58"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="13"/>
@@ -9740,7 +10064,7 @@
       <c r="Y6" s="28"/>
       <c r="Z6" s="29"/>
       <c r="AA6" s="30"/>
-      <c r="AB6" s="79"/>
+      <c r="AB6" s="57"/>
       <c r="AC6" s="31"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10078,7 +10402,7 @@
       <c r="P29" s="43"/>
       <c r="U29" s="43"/>
       <c r="Z29" s="45"/>
-      <c r="AB29" s="79"/>
+      <c r="AB29" s="57"/>
       <c r="AC29" s="56"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10105,8 +10429,8 @@
       <c r="P31" s="43"/>
       <c r="U31" s="43"/>
       <c r="Z31" s="45"/>
-      <c r="AB31" s="79"/>
-      <c r="AC31" s="80"/>
+      <c r="AB31" s="57"/>
+      <c r="AC31" s="58"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
@@ -10120,45 +10444,45 @@
       <c r="Z32" s="45"/>
       <c r="AA32" s="46"/>
       <c r="AB32" s="89"/>
-      <c r="AC32" s="80"/>
+      <c r="AC32" s="58"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="59"/>
-      <c r="Y33" s="61"/>
-      <c r="Z33" s="62"/>
-      <c r="AA33" s="64"/>
+      <c r="B33" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="62"/>
+      <c r="T33" s="62"/>
+      <c r="U33" s="62"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="64"/>
+      <c r="Z33" s="65"/>
+      <c r="AA33" s="67"/>
       <c r="AB33" s="89"/>
-      <c r="AC33" s="65"/>
+      <c r="AC33" s="68"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B34" s="67"/>
+      <c r="B34" s="70"/>
       <c r="F34" s="43"/>
       <c r="K34" s="43"/>
       <c r="P34" s="43"/>
@@ -10368,7 +10692,7 @@
       <c r="A49" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B49" s="67"/>
+      <c r="B49" s="70"/>
       <c r="F49" s="43"/>
       <c r="K49" s="43"/>
       <c r="P49" s="43"/>
@@ -10382,7 +10706,7 @@
       <c r="A50" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B50" s="67"/>
+      <c r="B50" s="70"/>
       <c r="F50" s="43"/>
       <c r="K50" s="43"/>
       <c r="P50" s="43"/>
@@ -10396,7 +10720,7 @@
       <c r="A51" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B51" s="67"/>
+      <c r="B51" s="70"/>
       <c r="F51" s="43"/>
       <c r="K51" s="43"/>
       <c r="P51" s="43"/>
@@ -10410,7 +10734,7 @@
       <c r="A52" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B52" s="67"/>
+      <c r="B52" s="70"/>
       <c r="F52" s="43"/>
       <c r="K52" s="43"/>
       <c r="P52" s="43"/>
@@ -10424,7 +10748,7 @@
       <c r="A53" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B53" s="67"/>
+      <c r="B53" s="70"/>
       <c r="F53" s="43"/>
       <c r="K53" s="43"/>
       <c r="P53" s="43"/>
@@ -10438,7 +10762,7 @@
       <c r="A54" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B54" s="67"/>
+      <c r="B54" s="70"/>
       <c r="F54" s="43"/>
       <c r="K54" s="43"/>
       <c r="P54" s="43"/>
@@ -10452,7 +10776,7 @@
       <c r="A55" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B55" s="67"/>
+      <c r="B55" s="70"/>
       <c r="F55" s="43"/>
       <c r="K55" s="43"/>
       <c r="P55" s="43"/>
@@ -10466,7 +10790,7 @@
       <c r="A56" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B56" s="68"/>
+      <c r="B56" s="71"/>
       <c r="F56" s="43"/>
       <c r="K56" s="43"/>
       <c r="P56" s="43"/>
@@ -10487,7 +10811,7 @@
       <c r="U57" s="43"/>
       <c r="Z57" s="45"/>
       <c r="AA57" s="51"/>
-      <c r="AB57" s="79"/>
+      <c r="AB57" s="57"/>
       <c r="AC57" s="47"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10505,36 +10829,36 @@
       <c r="AC58" s="56"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" s="61"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="61"/>
-      <c r="J59" s="61"/>
-      <c r="K59" s="61"/>
-      <c r="L59" s="61"/>
-      <c r="M59" s="61"/>
-      <c r="N59" s="61"/>
-      <c r="O59" s="61"/>
-      <c r="P59" s="61"/>
-      <c r="Q59" s="61"/>
-      <c r="R59" s="61"/>
-      <c r="S59" s="61"/>
-      <c r="T59" s="61"/>
-      <c r="U59" s="61"/>
-      <c r="V59" s="61"/>
-      <c r="W59" s="61"/>
-      <c r="X59" s="61"/>
-      <c r="Y59" s="61"/>
-      <c r="Z59" s="62"/>
-      <c r="AA59" s="64"/>
+      <c r="B59" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="64"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="64"/>
+      <c r="J59" s="64"/>
+      <c r="K59" s="64"/>
+      <c r="L59" s="64"/>
+      <c r="M59" s="64"/>
+      <c r="N59" s="64"/>
+      <c r="O59" s="64"/>
+      <c r="P59" s="64"/>
+      <c r="Q59" s="64"/>
+      <c r="R59" s="64"/>
+      <c r="S59" s="64"/>
+      <c r="T59" s="64"/>
+      <c r="U59" s="64"/>
+      <c r="V59" s="64"/>
+      <c r="W59" s="64"/>
+      <c r="X59" s="64"/>
+      <c r="Y59" s="64"/>
+      <c r="Z59" s="65"/>
+      <c r="AA59" s="67"/>
       <c r="AB59" s="89"/>
-      <c r="AC59" s="72"/>
+      <c r="AC59" s="75"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
@@ -10582,7 +10906,7 @@
       <c r="A63" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B63" s="67"/>
+      <c r="B63" s="70"/>
       <c r="F63" s="43"/>
       <c r="K63" s="43"/>
       <c r="P63" s="43"/>
@@ -10596,7 +10920,7 @@
       <c r="A64" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B64" s="67"/>
+      <c r="B64" s="70"/>
       <c r="F64" s="43"/>
       <c r="K64" s="43"/>
       <c r="P64" s="43"/>
@@ -10610,7 +10934,7 @@
       <c r="A65" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B65" s="67"/>
+      <c r="B65" s="70"/>
       <c r="F65" s="43"/>
       <c r="K65" s="43"/>
       <c r="P65" s="43"/>
@@ -10624,7 +10948,7 @@
       <c r="A66" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B66" s="67"/>
+      <c r="B66" s="70"/>
       <c r="F66" s="43"/>
       <c r="K66" s="43"/>
       <c r="P66" s="43"/>
@@ -10638,7 +10962,7 @@
       <c r="A67" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B67" s="67"/>
+      <c r="B67" s="70"/>
       <c r="F67" s="43"/>
       <c r="K67" s="43"/>
       <c r="P67" s="43"/>
@@ -10652,7 +10976,7 @@
       <c r="A68" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B68" s="67"/>
+      <c r="B68" s="70"/>
       <c r="F68" s="43"/>
       <c r="K68" s="43"/>
       <c r="P68" s="43"/>
@@ -10848,7 +11172,7 @@
       <c r="A82" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B82" s="74"/>
+      <c r="B82" s="77"/>
       <c r="F82" s="43"/>
       <c r="K82" s="43"/>
       <c r="P82" s="43"/>
@@ -10862,7 +11186,7 @@
       <c r="A83" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B83" s="75"/>
+      <c r="B83" s="78"/>
       <c r="F83" s="43"/>
       <c r="K83" s="43"/>
       <c r="P83" s="43"/>
@@ -10870,13 +11194,13 @@
       <c r="Z83" s="45"/>
       <c r="AA83" s="52"/>
       <c r="AB83" s="89"/>
-      <c r="AC83" s="80"/>
+      <c r="AC83" s="58"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B84" s="75"/>
+      <c r="B84" s="78"/>
       <c r="F84" s="43"/>
       <c r="K84" s="43"/>
       <c r="P84" s="43"/>
@@ -10884,45 +11208,45 @@
       <c r="Z84" s="45"/>
       <c r="AA84" s="46"/>
       <c r="AB84" s="89"/>
-      <c r="AC84" s="80"/>
+      <c r="AC84" s="58"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="C85" s="61"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
-      <c r="G85" s="61"/>
-      <c r="H85" s="61"/>
-      <c r="I85" s="61"/>
-      <c r="J85" s="61"/>
-      <c r="K85" s="61"/>
-      <c r="L85" s="61"/>
-      <c r="M85" s="61"/>
-      <c r="N85" s="61"/>
-      <c r="O85" s="61"/>
-      <c r="P85" s="61"/>
-      <c r="Q85" s="61"/>
-      <c r="R85" s="61"/>
-      <c r="S85" s="61"/>
-      <c r="T85" s="61"/>
-      <c r="U85" s="61"/>
-      <c r="V85" s="61"/>
-      <c r="W85" s="61"/>
-      <c r="X85" s="61"/>
-      <c r="Y85" s="61"/>
-      <c r="Z85" s="62"/>
-      <c r="AA85" s="64"/>
+      <c r="B85" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" s="64"/>
+      <c r="D85" s="64"/>
+      <c r="E85" s="64"/>
+      <c r="F85" s="64"/>
+      <c r="G85" s="64"/>
+      <c r="H85" s="64"/>
+      <c r="I85" s="64"/>
+      <c r="J85" s="64"/>
+      <c r="K85" s="64"/>
+      <c r="L85" s="64"/>
+      <c r="M85" s="64"/>
+      <c r="N85" s="64"/>
+      <c r="O85" s="64"/>
+      <c r="P85" s="64"/>
+      <c r="Q85" s="64"/>
+      <c r="R85" s="64"/>
+      <c r="S85" s="64"/>
+      <c r="T85" s="64"/>
+      <c r="U85" s="64"/>
+      <c r="V85" s="64"/>
+      <c r="W85" s="64"/>
+      <c r="X85" s="64"/>
+      <c r="Y85" s="64"/>
+      <c r="Z85" s="65"/>
+      <c r="AA85" s="67"/>
       <c r="AB85" s="89"/>
-      <c r="AC85" s="72"/>
+      <c r="AC85" s="75"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B86" s="67"/>
+      <c r="B86" s="70"/>
       <c r="F86" s="43"/>
       <c r="K86" s="43"/>
       <c r="P86" s="43"/>
@@ -10936,7 +11260,7 @@
       <c r="A87" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B87" s="67"/>
+      <c r="B87" s="70"/>
       <c r="F87" s="43"/>
       <c r="K87" s="43"/>
       <c r="P87" s="43"/>
@@ -10950,7 +11274,7 @@
       <c r="A88" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B88" s="67"/>
+      <c r="B88" s="70"/>
       <c r="F88" s="43"/>
       <c r="K88" s="43"/>
       <c r="P88" s="43"/>
@@ -10964,7 +11288,7 @@
       <c r="A89" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B89" s="67"/>
+      <c r="B89" s="70"/>
       <c r="F89" s="43"/>
       <c r="K89" s="43"/>
       <c r="P89" s="43"/>
@@ -10978,7 +11302,7 @@
       <c r="A90" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B90" s="67"/>
+      <c r="B90" s="70"/>
       <c r="F90" s="43"/>
       <c r="K90" s="43"/>
       <c r="P90" s="43"/>
@@ -10992,7 +11316,7 @@
       <c r="A91" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B91" s="67"/>
+      <c r="B91" s="70"/>
       <c r="F91" s="43"/>
       <c r="K91" s="43"/>
       <c r="P91" s="43"/>
@@ -11006,7 +11330,7 @@
       <c r="A92" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B92" s="67"/>
+      <c r="B92" s="70"/>
       <c r="F92" s="43"/>
       <c r="K92" s="43"/>
       <c r="P92" s="43"/>
@@ -11020,7 +11344,7 @@
       <c r="A93" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B93" s="67"/>
+      <c r="B93" s="70"/>
       <c r="F93" s="43"/>
       <c r="K93" s="43"/>
       <c r="P93" s="43"/>
@@ -11034,7 +11358,7 @@
       <c r="A94" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B94" s="67"/>
+      <c r="B94" s="70"/>
       <c r="F94" s="43"/>
       <c r="K94" s="43"/>
       <c r="P94" s="43"/>
@@ -11048,7 +11372,7 @@
       <c r="A95" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B95" s="67"/>
+      <c r="B95" s="70"/>
       <c r="F95" s="43"/>
       <c r="K95" s="43"/>
       <c r="P95" s="43"/>
@@ -11062,7 +11386,7 @@
       <c r="A96" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B96" s="67"/>
+      <c r="B96" s="70"/>
       <c r="F96" s="43"/>
       <c r="K96" s="43"/>
       <c r="P96" s="43"/>
@@ -11076,7 +11400,7 @@
       <c r="A97" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B97" s="67"/>
+      <c r="B97" s="70"/>
       <c r="F97" s="43"/>
       <c r="K97" s="43"/>
       <c r="P97" s="43"/>
@@ -11090,7 +11414,7 @@
       <c r="A98" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B98" s="67"/>
+      <c r="B98" s="70"/>
       <c r="F98" s="43"/>
       <c r="K98" s="43"/>
       <c r="P98" s="43"/>
@@ -11104,7 +11428,7 @@
       <c r="A99" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B99" s="67"/>
+      <c r="B99" s="70"/>
       <c r="F99" s="43"/>
       <c r="K99" s="43"/>
       <c r="P99" s="43"/>
@@ -11118,7 +11442,7 @@
       <c r="A100" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B100" s="67"/>
+      <c r="B100" s="70"/>
       <c r="F100" s="43"/>
       <c r="K100" s="43"/>
       <c r="P100" s="43"/>
@@ -11132,7 +11456,7 @@
       <c r="A101" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B101" s="67"/>
+      <c r="B101" s="70"/>
       <c r="F101" s="43"/>
       <c r="K101" s="43"/>
       <c r="P101" s="43"/>
@@ -11146,7 +11470,7 @@
       <c r="A102" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B102" s="67"/>
+      <c r="B102" s="70"/>
       <c r="F102" s="43"/>
       <c r="K102" s="43"/>
       <c r="P102" s="43"/>
@@ -11160,7 +11484,7 @@
       <c r="A103" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B103" s="67"/>
+      <c r="B103" s="70"/>
       <c r="F103" s="43"/>
       <c r="K103" s="43"/>
       <c r="P103" s="43"/>
@@ -11174,7 +11498,7 @@
       <c r="A104" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B104" s="67"/>
+      <c r="B104" s="70"/>
       <c r="F104" s="43"/>
       <c r="K104" s="43"/>
       <c r="P104" s="43"/>
@@ -11188,7 +11512,7 @@
       <c r="A105" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B105" s="67"/>
+      <c r="B105" s="70"/>
       <c r="F105" s="43"/>
       <c r="K105" s="43"/>
       <c r="P105" s="43"/>
@@ -11202,73 +11526,73 @@
       <c r="A106" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B106" s="76"/>
+      <c r="B106" s="79"/>
       <c r="F106" s="43"/>
       <c r="K106" s="43"/>
       <c r="P106" s="43"/>
       <c r="U106" s="43"/>
       <c r="Z106" s="45"/>
       <c r="AA106" s="52"/>
-      <c r="AB106" s="77"/>
-      <c r="AC106" s="80"/>
+      <c r="AB106" s="80"/>
+      <c r="AC106" s="58"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B107" s="76"/>
+      <c r="B107" s="79"/>
       <c r="F107" s="43"/>
       <c r="K107" s="43"/>
       <c r="P107" s="43"/>
       <c r="U107" s="43"/>
       <c r="Z107" s="45"/>
       <c r="AA107" s="46"/>
-      <c r="AB107" s="79"/>
-      <c r="AC107" s="80"/>
+      <c r="AB107" s="57"/>
+      <c r="AC107" s="58"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B108" s="76"/>
+      <c r="B108" s="79"/>
       <c r="F108" s="43"/>
       <c r="K108" s="43"/>
       <c r="P108" s="43"/>
       <c r="U108" s="43"/>
       <c r="Z108" s="45"/>
-      <c r="AA108" s="64"/>
-      <c r="AB108" s="79"/>
-      <c r="AC108" s="80"/>
+      <c r="AA108" s="67"/>
+      <c r="AB108" s="57"/>
+      <c r="AC108" s="58"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B109" s="76"/>
+      <c r="B109" s="79"/>
       <c r="F109" s="43"/>
       <c r="K109" s="43"/>
       <c r="P109" s="43"/>
       <c r="U109" s="43"/>
       <c r="Z109" s="45"/>
-      <c r="AB109" s="79"/>
-      <c r="AC109" s="80"/>
+      <c r="AB109" s="57"/>
+      <c r="AC109" s="58"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B110" s="76"/>
+      <c r="B110" s="79"/>
       <c r="F110" s="43"/>
       <c r="K110" s="43"/>
       <c r="P110" s="43"/>
       <c r="U110" s="43"/>
       <c r="Z110" s="45"/>
-      <c r="AB110" s="79"/>
-      <c r="AC110" s="80"/>
+      <c r="AB110" s="57"/>
+      <c r="AC110" s="58"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="33" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C111" s="36"/>
       <c r="D111" s="36"/>
@@ -11294,8 +11618,8 @@
       <c r="X111" s="36"/>
       <c r="Y111" s="38"/>
       <c r="Z111" s="39"/>
-      <c r="AB111" s="79"/>
-      <c r="AC111" s="80"/>
+      <c r="AB111" s="57"/>
+      <c r="AC111" s="58"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
@@ -11307,8 +11631,8 @@
       <c r="P112" s="43"/>
       <c r="U112" s="43"/>
       <c r="Z112" s="45"/>
-      <c r="AB112" s="79"/>
-      <c r="AC112" s="80"/>
+      <c r="AB112" s="57"/>
+      <c r="AC112" s="58"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
@@ -11320,8 +11644,8 @@
       <c r="P113" s="43"/>
       <c r="U113" s="43"/>
       <c r="Z113" s="45"/>
-      <c r="AB113" s="79"/>
-      <c r="AC113" s="80"/>
+      <c r="AB113" s="57"/>
+      <c r="AC113" s="58"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
@@ -11578,7 +11902,7 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -11667,12 +11991,12 @@
   <dimension ref="A1:AC137"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B85" activeCellId="0" sqref="B85"/>
+      <selection pane="topLeft" activeCell="B85" activeCellId="1" sqref="B93:H94 B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11703,7 +12027,7 @@
       <c r="X1" s="7"/>
       <c r="Y1" s="8"/>
       <c r="Z1" s="9"/>
-      <c r="AB1" s="79"/>
+      <c r="AB1" s="57"/>
       <c r="AC1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11734,7 +12058,7 @@
       <c r="X2" s="7"/>
       <c r="Y2" s="8"/>
       <c r="Z2" s="9"/>
-      <c r="AB2" s="79"/>
+      <c r="AB2" s="57"/>
       <c r="AC2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11742,7 +12066,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -11767,7 +12091,7 @@
       <c r="X3" s="14"/>
       <c r="Y3" s="15"/>
       <c r="Z3" s="16"/>
-      <c r="AB3" s="79"/>
+      <c r="AB3" s="57"/>
       <c r="AC3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11796,7 +12120,7 @@
       <c r="X4" s="14"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="16"/>
-      <c r="AB4" s="79"/>
+      <c r="AB4" s="57"/>
       <c r="AC4" s="17"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11867,8 +12191,8 @@
       <c r="X5" s="20"/>
       <c r="Y5" s="8"/>
       <c r="Z5" s="9"/>
-      <c r="AB5" s="79"/>
-      <c r="AC5" s="80"/>
+      <c r="AB5" s="57"/>
+      <c r="AC5" s="58"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="13"/>
@@ -11939,7 +12263,7 @@
       <c r="Y6" s="28"/>
       <c r="Z6" s="29"/>
       <c r="AA6" s="30"/>
-      <c r="AB6" s="79"/>
+      <c r="AB6" s="57"/>
       <c r="AC6" s="31"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12277,7 +12601,7 @@
       <c r="N29" s="43"/>
       <c r="S29" s="43"/>
       <c r="Z29" s="45"/>
-      <c r="AB29" s="79"/>
+      <c r="AB29" s="57"/>
       <c r="AC29" s="56"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12304,8 +12628,8 @@
       <c r="N31" s="43"/>
       <c r="S31" s="43"/>
       <c r="Z31" s="45"/>
-      <c r="AB31" s="79"/>
-      <c r="AC31" s="80"/>
+      <c r="AB31" s="57"/>
+      <c r="AC31" s="58"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
@@ -12319,45 +12643,45 @@
       <c r="Z32" s="45"/>
       <c r="AA32" s="46"/>
       <c r="AB32" s="89"/>
-      <c r="AC32" s="80"/>
+      <c r="AC32" s="58"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="59"/>
-      <c r="Y33" s="61"/>
-      <c r="Z33" s="62"/>
-      <c r="AA33" s="64"/>
+      <c r="B33" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="62"/>
+      <c r="T33" s="62"/>
+      <c r="U33" s="62"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="64"/>
+      <c r="Z33" s="65"/>
+      <c r="AA33" s="67"/>
       <c r="AB33" s="89"/>
-      <c r="AC33" s="65"/>
+      <c r="AC33" s="68"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B34" s="67"/>
+      <c r="B34" s="70"/>
       <c r="D34" s="43"/>
       <c r="I34" s="43"/>
       <c r="N34" s="43"/>
@@ -12567,7 +12891,7 @@
       <c r="A49" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B49" s="67"/>
+      <c r="B49" s="70"/>
       <c r="D49" s="43"/>
       <c r="I49" s="43"/>
       <c r="N49" s="43"/>
@@ -12581,7 +12905,7 @@
       <c r="A50" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B50" s="67"/>
+      <c r="B50" s="70"/>
       <c r="D50" s="43"/>
       <c r="I50" s="43"/>
       <c r="N50" s="43"/>
@@ -12595,7 +12919,7 @@
       <c r="A51" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B51" s="67"/>
+      <c r="B51" s="70"/>
       <c r="D51" s="43"/>
       <c r="I51" s="43"/>
       <c r="N51" s="43"/>
@@ -12609,7 +12933,7 @@
       <c r="A52" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B52" s="67"/>
+      <c r="B52" s="70"/>
       <c r="D52" s="43"/>
       <c r="I52" s="43"/>
       <c r="N52" s="43"/>
@@ -12623,7 +12947,7 @@
       <c r="A53" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B53" s="67"/>
+      <c r="B53" s="70"/>
       <c r="D53" s="43"/>
       <c r="I53" s="43"/>
       <c r="N53" s="43"/>
@@ -12637,7 +12961,7 @@
       <c r="A54" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B54" s="67"/>
+      <c r="B54" s="70"/>
       <c r="D54" s="43"/>
       <c r="I54" s="43"/>
       <c r="N54" s="43"/>
@@ -12651,7 +12975,7 @@
       <c r="A55" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B55" s="67"/>
+      <c r="B55" s="70"/>
       <c r="D55" s="43"/>
       <c r="I55" s="43"/>
       <c r="N55" s="43"/>
@@ -12665,7 +12989,7 @@
       <c r="A56" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B56" s="68"/>
+      <c r="B56" s="71"/>
       <c r="D56" s="43"/>
       <c r="I56" s="43"/>
       <c r="N56" s="43"/>
@@ -12686,7 +13010,7 @@
       <c r="S57" s="43"/>
       <c r="Z57" s="45"/>
       <c r="AA57" s="51"/>
-      <c r="AB57" s="79"/>
+      <c r="AB57" s="57"/>
       <c r="AC57" s="47"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12704,36 +13028,36 @@
       <c r="AC58" s="56"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" s="61"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="61"/>
-      <c r="J59" s="61"/>
-      <c r="K59" s="61"/>
-      <c r="L59" s="61"/>
-      <c r="M59" s="61"/>
-      <c r="N59" s="61"/>
-      <c r="O59" s="61"/>
-      <c r="P59" s="61"/>
-      <c r="Q59" s="61"/>
-      <c r="R59" s="61"/>
-      <c r="S59" s="61"/>
-      <c r="T59" s="61"/>
-      <c r="U59" s="61"/>
-      <c r="V59" s="61"/>
-      <c r="W59" s="61"/>
-      <c r="X59" s="61"/>
-      <c r="Y59" s="61"/>
-      <c r="Z59" s="62"/>
-      <c r="AA59" s="64"/>
+      <c r="B59" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="64"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="64"/>
+      <c r="J59" s="64"/>
+      <c r="K59" s="64"/>
+      <c r="L59" s="64"/>
+      <c r="M59" s="64"/>
+      <c r="N59" s="64"/>
+      <c r="O59" s="64"/>
+      <c r="P59" s="64"/>
+      <c r="Q59" s="64"/>
+      <c r="R59" s="64"/>
+      <c r="S59" s="64"/>
+      <c r="T59" s="64"/>
+      <c r="U59" s="64"/>
+      <c r="V59" s="64"/>
+      <c r="W59" s="64"/>
+      <c r="X59" s="64"/>
+      <c r="Y59" s="64"/>
+      <c r="Z59" s="65"/>
+      <c r="AA59" s="67"/>
       <c r="AB59" s="89"/>
-      <c r="AC59" s="72"/>
+      <c r="AC59" s="75"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
@@ -12781,7 +13105,7 @@
       <c r="A63" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B63" s="67"/>
+      <c r="B63" s="70"/>
       <c r="D63" s="43"/>
       <c r="I63" s="43"/>
       <c r="N63" s="43"/>
@@ -12795,7 +13119,7 @@
       <c r="A64" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B64" s="67"/>
+      <c r="B64" s="70"/>
       <c r="D64" s="43"/>
       <c r="I64" s="43"/>
       <c r="N64" s="43"/>
@@ -12809,7 +13133,7 @@
       <c r="A65" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B65" s="67"/>
+      <c r="B65" s="70"/>
       <c r="D65" s="43"/>
       <c r="I65" s="43"/>
       <c r="N65" s="43"/>
@@ -12823,7 +13147,7 @@
       <c r="A66" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B66" s="67"/>
+      <c r="B66" s="70"/>
       <c r="D66" s="43"/>
       <c r="I66" s="43"/>
       <c r="N66" s="43"/>
@@ -12837,7 +13161,7 @@
       <c r="A67" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B67" s="67"/>
+      <c r="B67" s="70"/>
       <c r="D67" s="43"/>
       <c r="I67" s="43"/>
       <c r="N67" s="43"/>
@@ -12851,7 +13175,7 @@
       <c r="A68" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B68" s="67"/>
+      <c r="B68" s="70"/>
       <c r="D68" s="43"/>
       <c r="I68" s="43"/>
       <c r="N68" s="43"/>
@@ -13047,7 +13371,7 @@
       <c r="A82" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B82" s="74"/>
+      <c r="B82" s="77"/>
       <c r="D82" s="43"/>
       <c r="I82" s="43"/>
       <c r="N82" s="43"/>
@@ -13061,7 +13385,7 @@
       <c r="A83" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B83" s="75"/>
+      <c r="B83" s="78"/>
       <c r="D83" s="43"/>
       <c r="I83" s="43"/>
       <c r="N83" s="43"/>
@@ -13069,13 +13393,13 @@
       <c r="Z83" s="45"/>
       <c r="AA83" s="52"/>
       <c r="AB83" s="89"/>
-      <c r="AC83" s="80"/>
+      <c r="AC83" s="58"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B84" s="75"/>
+      <c r="B84" s="78"/>
       <c r="D84" s="43"/>
       <c r="I84" s="43"/>
       <c r="N84" s="43"/>
@@ -13083,45 +13407,45 @@
       <c r="Z84" s="45"/>
       <c r="AA84" s="46"/>
       <c r="AB84" s="89"/>
-      <c r="AC84" s="80"/>
+      <c r="AC84" s="58"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="C85" s="61"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
-      <c r="G85" s="61"/>
-      <c r="H85" s="61"/>
-      <c r="I85" s="61"/>
-      <c r="J85" s="61"/>
-      <c r="K85" s="61"/>
-      <c r="L85" s="61"/>
-      <c r="M85" s="61"/>
-      <c r="N85" s="61"/>
-      <c r="O85" s="61"/>
-      <c r="P85" s="61"/>
-      <c r="Q85" s="61"/>
-      <c r="R85" s="61"/>
-      <c r="S85" s="61"/>
-      <c r="T85" s="61"/>
-      <c r="U85" s="61"/>
-      <c r="V85" s="61"/>
-      <c r="W85" s="61"/>
-      <c r="X85" s="61"/>
-      <c r="Y85" s="61"/>
-      <c r="Z85" s="62"/>
-      <c r="AA85" s="64"/>
+      <c r="B85" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" s="64"/>
+      <c r="D85" s="64"/>
+      <c r="E85" s="64"/>
+      <c r="F85" s="64"/>
+      <c r="G85" s="64"/>
+      <c r="H85" s="64"/>
+      <c r="I85" s="64"/>
+      <c r="J85" s="64"/>
+      <c r="K85" s="64"/>
+      <c r="L85" s="64"/>
+      <c r="M85" s="64"/>
+      <c r="N85" s="64"/>
+      <c r="O85" s="64"/>
+      <c r="P85" s="64"/>
+      <c r="Q85" s="64"/>
+      <c r="R85" s="64"/>
+      <c r="S85" s="64"/>
+      <c r="T85" s="64"/>
+      <c r="U85" s="64"/>
+      <c r="V85" s="64"/>
+      <c r="W85" s="64"/>
+      <c r="X85" s="64"/>
+      <c r="Y85" s="64"/>
+      <c r="Z85" s="65"/>
+      <c r="AA85" s="67"/>
       <c r="AB85" s="89"/>
-      <c r="AC85" s="72"/>
+      <c r="AC85" s="75"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B86" s="67"/>
+      <c r="B86" s="70"/>
       <c r="D86" s="43"/>
       <c r="I86" s="43"/>
       <c r="N86" s="43"/>
@@ -13135,7 +13459,7 @@
       <c r="A87" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B87" s="67"/>
+      <c r="B87" s="70"/>
       <c r="D87" s="43"/>
       <c r="I87" s="43"/>
       <c r="N87" s="43"/>
@@ -13149,7 +13473,7 @@
       <c r="A88" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B88" s="67"/>
+      <c r="B88" s="70"/>
       <c r="D88" s="43"/>
       <c r="I88" s="43"/>
       <c r="N88" s="43"/>
@@ -13163,7 +13487,7 @@
       <c r="A89" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B89" s="67"/>
+      <c r="B89" s="70"/>
       <c r="D89" s="43"/>
       <c r="I89" s="43"/>
       <c r="N89" s="43"/>
@@ -13177,7 +13501,7 @@
       <c r="A90" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B90" s="67"/>
+      <c r="B90" s="70"/>
       <c r="D90" s="43"/>
       <c r="I90" s="43"/>
       <c r="N90" s="43"/>
@@ -13191,7 +13515,7 @@
       <c r="A91" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B91" s="67"/>
+      <c r="B91" s="70"/>
       <c r="D91" s="43"/>
       <c r="I91" s="43"/>
       <c r="N91" s="43"/>
@@ -13205,7 +13529,7 @@
       <c r="A92" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B92" s="67"/>
+      <c r="B92" s="70"/>
       <c r="D92" s="43"/>
       <c r="I92" s="43"/>
       <c r="N92" s="43"/>
@@ -13219,7 +13543,7 @@
       <c r="A93" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B93" s="67"/>
+      <c r="B93" s="70"/>
       <c r="D93" s="43"/>
       <c r="I93" s="43"/>
       <c r="N93" s="43"/>
@@ -13233,7 +13557,7 @@
       <c r="A94" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B94" s="67"/>
+      <c r="B94" s="70"/>
       <c r="D94" s="43"/>
       <c r="I94" s="43"/>
       <c r="N94" s="43"/>
@@ -13247,7 +13571,7 @@
       <c r="A95" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B95" s="67"/>
+      <c r="B95" s="70"/>
       <c r="D95" s="43"/>
       <c r="I95" s="43"/>
       <c r="N95" s="43"/>
@@ -13261,7 +13585,7 @@
       <c r="A96" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B96" s="67"/>
+      <c r="B96" s="70"/>
       <c r="D96" s="43"/>
       <c r="I96" s="43"/>
       <c r="N96" s="43"/>
@@ -13275,7 +13599,7 @@
       <c r="A97" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B97" s="67"/>
+      <c r="B97" s="70"/>
       <c r="D97" s="43"/>
       <c r="I97" s="43"/>
       <c r="N97" s="43"/>
@@ -13289,7 +13613,7 @@
       <c r="A98" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B98" s="67"/>
+      <c r="B98" s="70"/>
       <c r="D98" s="43"/>
       <c r="I98" s="43"/>
       <c r="N98" s="43"/>
@@ -13303,7 +13627,7 @@
       <c r="A99" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B99" s="67"/>
+      <c r="B99" s="70"/>
       <c r="D99" s="43"/>
       <c r="I99" s="43"/>
       <c r="N99" s="43"/>
@@ -13317,7 +13641,7 @@
       <c r="A100" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B100" s="67"/>
+      <c r="B100" s="70"/>
       <c r="D100" s="43"/>
       <c r="I100" s="43"/>
       <c r="N100" s="43"/>
@@ -13331,7 +13655,7 @@
       <c r="A101" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B101" s="67"/>
+      <c r="B101" s="70"/>
       <c r="D101" s="43"/>
       <c r="I101" s="43"/>
       <c r="N101" s="43"/>
@@ -13345,7 +13669,7 @@
       <c r="A102" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B102" s="67"/>
+      <c r="B102" s="70"/>
       <c r="D102" s="43"/>
       <c r="I102" s="43"/>
       <c r="N102" s="43"/>
@@ -13359,7 +13683,7 @@
       <c r="A103" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B103" s="67"/>
+      <c r="B103" s="70"/>
       <c r="D103" s="43"/>
       <c r="I103" s="43"/>
       <c r="N103" s="43"/>
@@ -13373,7 +13697,7 @@
       <c r="A104" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B104" s="67"/>
+      <c r="B104" s="70"/>
       <c r="D104" s="43"/>
       <c r="I104" s="43"/>
       <c r="N104" s="43"/>
@@ -13387,7 +13711,7 @@
       <c r="A105" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B105" s="67"/>
+      <c r="B105" s="70"/>
       <c r="D105" s="43"/>
       <c r="I105" s="43"/>
       <c r="N105" s="43"/>
@@ -13401,73 +13725,73 @@
       <c r="A106" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B106" s="76"/>
+      <c r="B106" s="79"/>
       <c r="D106" s="43"/>
       <c r="I106" s="43"/>
       <c r="N106" s="43"/>
       <c r="S106" s="43"/>
       <c r="Z106" s="45"/>
       <c r="AA106" s="52"/>
-      <c r="AB106" s="77"/>
-      <c r="AC106" s="80"/>
+      <c r="AB106" s="80"/>
+      <c r="AC106" s="58"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B107" s="76"/>
+      <c r="B107" s="79"/>
       <c r="D107" s="43"/>
       <c r="I107" s="43"/>
       <c r="N107" s="43"/>
       <c r="S107" s="43"/>
       <c r="Z107" s="45"/>
       <c r="AA107" s="46"/>
-      <c r="AB107" s="79"/>
-      <c r="AC107" s="80"/>
+      <c r="AB107" s="57"/>
+      <c r="AC107" s="58"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B108" s="76"/>
+      <c r="B108" s="79"/>
       <c r="D108" s="43"/>
       <c r="I108" s="43"/>
       <c r="N108" s="43"/>
       <c r="S108" s="43"/>
       <c r="Z108" s="45"/>
-      <c r="AA108" s="64"/>
-      <c r="AB108" s="79"/>
-      <c r="AC108" s="80"/>
+      <c r="AA108" s="67"/>
+      <c r="AB108" s="57"/>
+      <c r="AC108" s="58"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B109" s="76"/>
+      <c r="B109" s="79"/>
       <c r="D109" s="43"/>
       <c r="I109" s="43"/>
       <c r="N109" s="43"/>
       <c r="S109" s="43"/>
       <c r="Z109" s="45"/>
-      <c r="AB109" s="79"/>
-      <c r="AC109" s="80"/>
+      <c r="AB109" s="57"/>
+      <c r="AC109" s="58"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B110" s="76"/>
+      <c r="B110" s="79"/>
       <c r="D110" s="43"/>
       <c r="I110" s="43"/>
       <c r="N110" s="43"/>
       <c r="S110" s="43"/>
       <c r="Z110" s="45"/>
-      <c r="AB110" s="79"/>
-      <c r="AC110" s="80"/>
+      <c r="AB110" s="57"/>
+      <c r="AC110" s="58"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="33" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C111" s="36"/>
       <c r="D111" s="36"/>
@@ -13493,8 +13817,8 @@
       <c r="X111" s="36"/>
       <c r="Y111" s="38"/>
       <c r="Z111" s="39"/>
-      <c r="AB111" s="79"/>
-      <c r="AC111" s="80"/>
+      <c r="AB111" s="57"/>
+      <c r="AC111" s="58"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
@@ -13506,8 +13830,8 @@
       <c r="N112" s="43"/>
       <c r="S112" s="43"/>
       <c r="Z112" s="45"/>
-      <c r="AB112" s="79"/>
-      <c r="AC112" s="80"/>
+      <c r="AB112" s="57"/>
+      <c r="AC112" s="58"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
@@ -13519,8 +13843,8 @@
       <c r="N113" s="43"/>
       <c r="S113" s="43"/>
       <c r="Z113" s="45"/>
-      <c r="AB113" s="79"/>
-      <c r="AC113" s="80"/>
+      <c r="AB113" s="57"/>
+      <c r="AC113" s="58"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
@@ -13777,7 +14101,7 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -13866,13 +14190,13 @@
   <dimension ref="A1:Z137"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B85" activeCellId="0" sqref="B85"/>
+      <selection pane="topLeft" activeCell="B85" activeCellId="1" sqref="B93:H94 B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="26" min="1" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="26" min="1" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13938,7 +14262,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -14467,39 +14791,39 @@
       <c r="Z32" s="45"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="59"/>
-      <c r="Y33" s="59"/>
-      <c r="Z33" s="62"/>
+      <c r="B33" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="62"/>
+      <c r="T33" s="62"/>
+      <c r="U33" s="62"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="62"/>
+      <c r="Z33" s="65"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B34" s="67"/>
+      <c r="B34" s="70"/>
       <c r="C34" s="43"/>
       <c r="H34" s="43"/>
       <c r="M34" s="43"/>
@@ -14679,7 +15003,7 @@
       <c r="A49" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B49" s="67"/>
+      <c r="B49" s="70"/>
       <c r="C49" s="43"/>
       <c r="H49" s="43"/>
       <c r="M49" s="43"/>
@@ -14691,7 +15015,7 @@
       <c r="A50" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B50" s="67"/>
+      <c r="B50" s="70"/>
       <c r="C50" s="43"/>
       <c r="H50" s="43"/>
       <c r="M50" s="43"/>
@@ -14703,7 +15027,7 @@
       <c r="A51" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B51" s="67"/>
+      <c r="B51" s="70"/>
       <c r="C51" s="43"/>
       <c r="H51" s="43"/>
       <c r="M51" s="43"/>
@@ -14715,7 +15039,7 @@
       <c r="A52" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B52" s="67"/>
+      <c r="B52" s="70"/>
       <c r="C52" s="43"/>
       <c r="H52" s="43"/>
       <c r="M52" s="43"/>
@@ -14727,7 +15051,7 @@
       <c r="A53" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B53" s="67"/>
+      <c r="B53" s="70"/>
       <c r="C53" s="43"/>
       <c r="H53" s="43"/>
       <c r="M53" s="43"/>
@@ -14739,7 +15063,7 @@
       <c r="A54" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B54" s="67"/>
+      <c r="B54" s="70"/>
       <c r="C54" s="43"/>
       <c r="H54" s="43"/>
       <c r="M54" s="43"/>
@@ -14751,7 +15075,7 @@
       <c r="A55" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B55" s="67"/>
+      <c r="B55" s="70"/>
       <c r="C55" s="43"/>
       <c r="H55" s="43"/>
       <c r="M55" s="43"/>
@@ -14763,7 +15087,7 @@
       <c r="A56" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B56" s="68"/>
+      <c r="B56" s="71"/>
       <c r="C56" s="43"/>
       <c r="H56" s="43"/>
       <c r="M56" s="43"/>
@@ -14796,33 +15120,33 @@
       <c r="Z58" s="45"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" s="61"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="61"/>
-      <c r="J59" s="61"/>
-      <c r="K59" s="61"/>
-      <c r="L59" s="61"/>
-      <c r="M59" s="61"/>
-      <c r="N59" s="61"/>
-      <c r="O59" s="61"/>
-      <c r="P59" s="61"/>
-      <c r="Q59" s="61"/>
-      <c r="R59" s="61"/>
-      <c r="S59" s="61"/>
-      <c r="T59" s="61"/>
-      <c r="U59" s="61"/>
-      <c r="V59" s="61"/>
-      <c r="W59" s="61"/>
-      <c r="X59" s="61"/>
-      <c r="Y59" s="61"/>
-      <c r="Z59" s="62"/>
+      <c r="B59" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="64"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="64"/>
+      <c r="J59" s="64"/>
+      <c r="K59" s="64"/>
+      <c r="L59" s="64"/>
+      <c r="M59" s="64"/>
+      <c r="N59" s="64"/>
+      <c r="O59" s="64"/>
+      <c r="P59" s="64"/>
+      <c r="Q59" s="64"/>
+      <c r="R59" s="64"/>
+      <c r="S59" s="64"/>
+      <c r="T59" s="64"/>
+      <c r="U59" s="64"/>
+      <c r="V59" s="64"/>
+      <c r="W59" s="64"/>
+      <c r="X59" s="64"/>
+      <c r="Y59" s="64"/>
+      <c r="Z59" s="65"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
@@ -14864,7 +15188,7 @@
       <c r="A63" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B63" s="67"/>
+      <c r="B63" s="70"/>
       <c r="C63" s="43"/>
       <c r="H63" s="43"/>
       <c r="M63" s="43"/>
@@ -14876,7 +15200,7 @@
       <c r="A64" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B64" s="67"/>
+      <c r="B64" s="70"/>
       <c r="C64" s="43"/>
       <c r="H64" s="43"/>
       <c r="M64" s="43"/>
@@ -14888,7 +15212,7 @@
       <c r="A65" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B65" s="67"/>
+      <c r="B65" s="70"/>
       <c r="C65" s="43"/>
       <c r="H65" s="43"/>
       <c r="M65" s="43"/>
@@ -14900,7 +15224,7 @@
       <c r="A66" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B66" s="67"/>
+      <c r="B66" s="70"/>
       <c r="C66" s="43"/>
       <c r="H66" s="43"/>
       <c r="M66" s="43"/>
@@ -14912,7 +15236,7 @@
       <c r="A67" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B67" s="67"/>
+      <c r="B67" s="70"/>
       <c r="C67" s="43"/>
       <c r="H67" s="43"/>
       <c r="M67" s="43"/>
@@ -14924,7 +15248,7 @@
       <c r="A68" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B68" s="67"/>
+      <c r="B68" s="70"/>
       <c r="C68" s="43"/>
       <c r="H68" s="43"/>
       <c r="M68" s="43"/>
@@ -15092,7 +15416,7 @@
       <c r="A82" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B82" s="74"/>
+      <c r="B82" s="77"/>
       <c r="C82" s="43"/>
       <c r="H82" s="43"/>
       <c r="M82" s="43"/>
@@ -15104,7 +15428,7 @@
       <c r="A83" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B83" s="75"/>
+      <c r="B83" s="78"/>
       <c r="C83" s="43"/>
       <c r="H83" s="43"/>
       <c r="M83" s="43"/>
@@ -15116,7 +15440,7 @@
       <c r="A84" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B84" s="75"/>
+      <c r="B84" s="78"/>
       <c r="C84" s="43"/>
       <c r="H84" s="43"/>
       <c r="M84" s="43"/>
@@ -15125,39 +15449,39 @@
       <c r="Z84" s="45"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="C85" s="61"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
-      <c r="G85" s="61"/>
-      <c r="H85" s="61"/>
-      <c r="I85" s="61"/>
-      <c r="J85" s="61"/>
-      <c r="K85" s="61"/>
-      <c r="L85" s="61"/>
-      <c r="M85" s="61"/>
-      <c r="N85" s="61"/>
-      <c r="O85" s="61"/>
-      <c r="P85" s="61"/>
-      <c r="Q85" s="61"/>
-      <c r="R85" s="61"/>
-      <c r="S85" s="61"/>
-      <c r="T85" s="61"/>
-      <c r="U85" s="61"/>
-      <c r="V85" s="61"/>
-      <c r="W85" s="61"/>
-      <c r="X85" s="61"/>
-      <c r="Y85" s="61"/>
-      <c r="Z85" s="62"/>
+      <c r="B85" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" s="64"/>
+      <c r="D85" s="64"/>
+      <c r="E85" s="64"/>
+      <c r="F85" s="64"/>
+      <c r="G85" s="64"/>
+      <c r="H85" s="64"/>
+      <c r="I85" s="64"/>
+      <c r="J85" s="64"/>
+      <c r="K85" s="64"/>
+      <c r="L85" s="64"/>
+      <c r="M85" s="64"/>
+      <c r="N85" s="64"/>
+      <c r="O85" s="64"/>
+      <c r="P85" s="64"/>
+      <c r="Q85" s="64"/>
+      <c r="R85" s="64"/>
+      <c r="S85" s="64"/>
+      <c r="T85" s="64"/>
+      <c r="U85" s="64"/>
+      <c r="V85" s="64"/>
+      <c r="W85" s="64"/>
+      <c r="X85" s="64"/>
+      <c r="Y85" s="64"/>
+      <c r="Z85" s="65"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B86" s="67"/>
+      <c r="B86" s="70"/>
       <c r="C86" s="43"/>
       <c r="H86" s="43"/>
       <c r="M86" s="43"/>
@@ -15169,7 +15493,7 @@
       <c r="A87" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B87" s="67"/>
+      <c r="B87" s="70"/>
       <c r="C87" s="43"/>
       <c r="H87" s="43"/>
       <c r="M87" s="43"/>
@@ -15181,7 +15505,7 @@
       <c r="A88" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B88" s="67"/>
+      <c r="B88" s="70"/>
       <c r="C88" s="43"/>
       <c r="H88" s="43"/>
       <c r="M88" s="43"/>
@@ -15193,7 +15517,7 @@
       <c r="A89" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B89" s="67"/>
+      <c r="B89" s="70"/>
       <c r="C89" s="43"/>
       <c r="H89" s="43"/>
       <c r="M89" s="43"/>
@@ -15205,7 +15529,7 @@
       <c r="A90" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B90" s="67"/>
+      <c r="B90" s="70"/>
       <c r="C90" s="43"/>
       <c r="H90" s="43"/>
       <c r="M90" s="43"/>
@@ -15217,7 +15541,7 @@
       <c r="A91" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B91" s="67"/>
+      <c r="B91" s="70"/>
       <c r="C91" s="43"/>
       <c r="H91" s="43"/>
       <c r="M91" s="43"/>
@@ -15229,7 +15553,7 @@
       <c r="A92" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B92" s="67"/>
+      <c r="B92" s="70"/>
       <c r="C92" s="43"/>
       <c r="H92" s="43"/>
       <c r="M92" s="43"/>
@@ -15241,7 +15565,7 @@
       <c r="A93" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B93" s="67"/>
+      <c r="B93" s="70"/>
       <c r="C93" s="43"/>
       <c r="H93" s="43"/>
       <c r="M93" s="43"/>
@@ -15253,7 +15577,7 @@
       <c r="A94" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B94" s="67"/>
+      <c r="B94" s="70"/>
       <c r="C94" s="43"/>
       <c r="H94" s="43"/>
       <c r="M94" s="43"/>
@@ -15265,7 +15589,7 @@
       <c r="A95" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B95" s="67"/>
+      <c r="B95" s="70"/>
       <c r="C95" s="43"/>
       <c r="H95" s="43"/>
       <c r="M95" s="43"/>
@@ -15277,7 +15601,7 @@
       <c r="A96" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B96" s="67"/>
+      <c r="B96" s="70"/>
       <c r="C96" s="43"/>
       <c r="H96" s="43"/>
       <c r="M96" s="43"/>
@@ -15289,7 +15613,7 @@
       <c r="A97" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B97" s="67"/>
+      <c r="B97" s="70"/>
       <c r="C97" s="43"/>
       <c r="H97" s="43"/>
       <c r="M97" s="43"/>
@@ -15301,7 +15625,7 @@
       <c r="A98" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B98" s="67"/>
+      <c r="B98" s="70"/>
       <c r="C98" s="43"/>
       <c r="H98" s="43"/>
       <c r="M98" s="43"/>
@@ -15313,7 +15637,7 @@
       <c r="A99" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B99" s="67"/>
+      <c r="B99" s="70"/>
       <c r="C99" s="43"/>
       <c r="H99" s="43"/>
       <c r="M99" s="43"/>
@@ -15325,7 +15649,7 @@
       <c r="A100" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B100" s="67"/>
+      <c r="B100" s="70"/>
       <c r="C100" s="43"/>
       <c r="H100" s="43"/>
       <c r="M100" s="43"/>
@@ -15337,7 +15661,7 @@
       <c r="A101" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B101" s="67"/>
+      <c r="B101" s="70"/>
       <c r="C101" s="43"/>
       <c r="H101" s="43"/>
       <c r="M101" s="43"/>
@@ -15349,7 +15673,7 @@
       <c r="A102" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B102" s="67"/>
+      <c r="B102" s="70"/>
       <c r="C102" s="43"/>
       <c r="H102" s="43"/>
       <c r="M102" s="43"/>
@@ -15361,7 +15685,7 @@
       <c r="A103" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B103" s="67"/>
+      <c r="B103" s="70"/>
       <c r="C103" s="43"/>
       <c r="H103" s="43"/>
       <c r="M103" s="43"/>
@@ -15373,7 +15697,7 @@
       <c r="A104" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B104" s="67"/>
+      <c r="B104" s="70"/>
       <c r="C104" s="43"/>
       <c r="H104" s="43"/>
       <c r="M104" s="43"/>
@@ -15385,7 +15709,7 @@
       <c r="A105" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B105" s="67"/>
+      <c r="B105" s="70"/>
       <c r="C105" s="43"/>
       <c r="H105" s="43"/>
       <c r="M105" s="43"/>
@@ -15397,7 +15721,7 @@
       <c r="A106" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B106" s="76"/>
+      <c r="B106" s="79"/>
       <c r="C106" s="43"/>
       <c r="H106" s="43"/>
       <c r="M106" s="43"/>
@@ -15409,7 +15733,7 @@
       <c r="A107" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B107" s="76"/>
+      <c r="B107" s="79"/>
       <c r="C107" s="43"/>
       <c r="H107" s="43"/>
       <c r="M107" s="43"/>
@@ -15421,7 +15745,7 @@
       <c r="A108" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B108" s="76"/>
+      <c r="B108" s="79"/>
       <c r="C108" s="43"/>
       <c r="H108" s="43"/>
       <c r="M108" s="43"/>
@@ -15433,7 +15757,7 @@
       <c r="A109" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B109" s="76"/>
+      <c r="B109" s="79"/>
       <c r="C109" s="43"/>
       <c r="H109" s="43"/>
       <c r="M109" s="43"/>
@@ -15445,7 +15769,7 @@
       <c r="A110" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B110" s="76"/>
+      <c r="B110" s="79"/>
       <c r="C110" s="43"/>
       <c r="H110" s="43"/>
       <c r="M110" s="43"/>
@@ -15455,7 +15779,7 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="33" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C111" s="36"/>
       <c r="D111" s="36"/>
@@ -15784,7 +16108,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
